--- a/Symphony/DECEMBER/12.12.2021/MC Bank Statement December-2021.xlsx
+++ b/Symphony/DECEMBER/12.12.2021/MC Bank Statement December-2021.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\MCU\Symphony\DECEMBER\11.12.2021\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\MCU\Symphony\DECEMBER\12.12.2021\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -85,7 +85,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="405" uniqueCount="228">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="400" uniqueCount="227">
   <si>
     <t>Date</t>
   </si>
@@ -666,9 +666,6 @@
     <t>Symphony  Balance(+)</t>
   </si>
   <si>
-    <t>Atik</t>
-  </si>
-  <si>
     <t>Murad</t>
   </si>
   <si>
@@ -732,9 +729,6 @@
     <t>L= Sabbir Mobile Bazar</t>
   </si>
   <si>
-    <t>J= Molla Mobile Center</t>
-  </si>
-  <si>
     <t>09.12.2021</t>
   </si>
   <si>
@@ -747,28 +741,31 @@
     <t>Imran Telecom</t>
   </si>
   <si>
-    <t>Rasel bkash</t>
-  </si>
-  <si>
     <t>Nandangachi</t>
   </si>
   <si>
     <t>Nan=Hasan Telecom</t>
   </si>
   <si>
-    <t>Arotor Paser Dada</t>
-  </si>
-  <si>
-    <t>bKash Jafor(-)</t>
-  </si>
-  <si>
     <t>11.12.2021</t>
   </si>
   <si>
-    <t>Date:11.12.2021</t>
+    <t>L=Somobai Bazar</t>
   </si>
   <si>
-    <t>L=Somobai Bazar</t>
+    <t>12.12.2021</t>
+  </si>
+  <si>
+    <t>Date:12.12.2021</t>
+  </si>
+  <si>
+    <t>Abdulpur</t>
+  </si>
+  <si>
+    <t>Fahim Telecom</t>
+  </si>
+  <si>
+    <t>N=Desh Telecom</t>
   </si>
 </sst>
 </file>
@@ -2131,7 +2128,7 @@
     <xf numFmtId="0" fontId="30" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="369">
+  <cellXfs count="367">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2692,9 +2689,6 @@
     <xf numFmtId="2" fontId="40" fillId="35" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="39" fillId="0" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="40" fillId="34" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -3046,17 +3040,14 @@
     <xf numFmtId="1" fontId="35" fillId="44" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="35" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="36" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="1" fontId="36" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="21" fontId="39" fillId="0" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3069,18 +3060,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="35" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="35" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="35" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="35" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3109,10 +3088,22 @@
     <xf numFmtId="1" fontId="39" fillId="35" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="39" fillId="35" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="35" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="39" fillId="35" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="39" fillId="35" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="35" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="35" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="37" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3871,33 +3862,33 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="20.25" customHeight="1">
-      <c r="A1" s="322"/>
-      <c r="B1" s="322"/>
-      <c r="C1" s="322"/>
-      <c r="D1" s="322"/>
-      <c r="E1" s="322"/>
-      <c r="F1" s="322"/>
+      <c r="A1" s="320"/>
+      <c r="B1" s="320"/>
+      <c r="C1" s="320"/>
+      <c r="D1" s="320"/>
+      <c r="E1" s="320"/>
+      <c r="F1" s="320"/>
     </row>
     <row r="2" spans="1:8" ht="20.25">
-      <c r="A2" s="323"/>
-      <c r="B2" s="320" t="s">
+      <c r="A2" s="321"/>
+      <c r="B2" s="318" t="s">
         <v>16</v>
       </c>
-      <c r="C2" s="320"/>
-      <c r="D2" s="320"/>
-      <c r="E2" s="320"/>
+      <c r="C2" s="318"/>
+      <c r="D2" s="318"/>
+      <c r="E2" s="318"/>
     </row>
     <row r="3" spans="1:8" ht="16.5" customHeight="1">
-      <c r="A3" s="323"/>
-      <c r="B3" s="321" t="s">
+      <c r="A3" s="321"/>
+      <c r="B3" s="319" t="s">
         <v>63</v>
       </c>
-      <c r="C3" s="321"/>
-      <c r="D3" s="321"/>
-      <c r="E3" s="321"/>
+      <c r="C3" s="319"/>
+      <c r="D3" s="319"/>
+      <c r="E3" s="319"/>
     </row>
     <row r="4" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A4" s="323"/>
+      <c r="A4" s="321"/>
       <c r="B4" s="24" t="s">
         <v>0</v>
       </c>
@@ -3915,7 +3906,7 @@
       </c>
     </row>
     <row r="5" spans="1:8">
-      <c r="A5" s="323"/>
+      <c r="A5" s="321"/>
       <c r="B5" s="26" t="s">
         <v>3</v>
       </c>
@@ -3933,7 +3924,7 @@
       <c r="G5" s="2"/>
     </row>
     <row r="6" spans="1:8">
-      <c r="A6" s="323"/>
+      <c r="A6" s="321"/>
       <c r="B6" s="28"/>
       <c r="C6" s="27"/>
       <c r="D6" s="27"/>
@@ -3945,7 +3936,7 @@
       <c r="G6" s="21"/>
     </row>
     <row r="7" spans="1:8">
-      <c r="A7" s="323"/>
+      <c r="A7" s="321"/>
       <c r="B7" s="28" t="s">
         <v>61</v>
       </c>
@@ -3964,7 +3955,7 @@
       <c r="H7" s="2"/>
     </row>
     <row r="8" spans="1:8">
-      <c r="A8" s="323"/>
+      <c r="A8" s="321"/>
       <c r="B8" s="28" t="s">
         <v>62</v>
       </c>
@@ -3983,7 +3974,7 @@
       <c r="H8" s="2"/>
     </row>
     <row r="9" spans="1:8">
-      <c r="A9" s="323"/>
+      <c r="A9" s="321"/>
       <c r="B9" s="28" t="s">
         <v>64</v>
       </c>
@@ -4002,7 +3993,7 @@
       <c r="H9" s="2"/>
     </row>
     <row r="10" spans="1:8">
-      <c r="A10" s="323"/>
+      <c r="A10" s="321"/>
       <c r="B10" s="28" t="s">
         <v>65</v>
       </c>
@@ -4021,7 +4012,7 @@
       <c r="H10" s="2"/>
     </row>
     <row r="11" spans="1:8">
-      <c r="A11" s="323"/>
+      <c r="A11" s="321"/>
       <c r="B11" s="28" t="s">
         <v>66</v>
       </c>
@@ -4040,7 +4031,7 @@
       <c r="H11" s="2"/>
     </row>
     <row r="12" spans="1:8">
-      <c r="A12" s="323"/>
+      <c r="A12" s="321"/>
       <c r="B12" s="28" t="s">
         <v>67</v>
       </c>
@@ -4059,7 +4050,7 @@
       <c r="H12" s="2"/>
     </row>
     <row r="13" spans="1:8">
-      <c r="A13" s="323"/>
+      <c r="A13" s="321"/>
       <c r="B13" s="28" t="s">
         <v>68</v>
       </c>
@@ -4078,7 +4069,7 @@
       <c r="H13" s="32"/>
     </row>
     <row r="14" spans="1:8">
-      <c r="A14" s="323"/>
+      <c r="A14" s="321"/>
       <c r="B14" s="28" t="s">
         <v>69</v>
       </c>
@@ -4097,7 +4088,7 @@
       <c r="H14" s="2"/>
     </row>
     <row r="15" spans="1:8">
-      <c r="A15" s="323"/>
+      <c r="A15" s="321"/>
       <c r="B15" s="28" t="s">
         <v>70</v>
       </c>
@@ -4116,7 +4107,7 @@
       <c r="H15" s="12"/>
     </row>
     <row r="16" spans="1:8">
-      <c r="A16" s="323"/>
+      <c r="A16" s="321"/>
       <c r="B16" s="28"/>
       <c r="C16" s="27"/>
       <c r="D16" s="27"/>
@@ -4129,7 +4120,7 @@
       <c r="H16" s="2"/>
     </row>
     <row r="17" spans="1:8">
-      <c r="A17" s="323"/>
+      <c r="A17" s="321"/>
       <c r="B17" s="28"/>
       <c r="C17" s="27"/>
       <c r="D17" s="27"/>
@@ -4142,7 +4133,7 @@
       <c r="H17" s="2"/>
     </row>
     <row r="18" spans="1:8">
-      <c r="A18" s="323"/>
+      <c r="A18" s="321"/>
       <c r="B18" s="28"/>
       <c r="C18" s="27"/>
       <c r="D18" s="27"/>
@@ -4155,7 +4146,7 @@
       <c r="H18" s="2"/>
     </row>
     <row r="19" spans="1:8" ht="12.75" customHeight="1">
-      <c r="A19" s="323"/>
+      <c r="A19" s="321"/>
       <c r="B19" s="28"/>
       <c r="C19" s="27"/>
       <c r="D19" s="27"/>
@@ -4168,7 +4159,7 @@
       <c r="H19" s="2"/>
     </row>
     <row r="20" spans="1:8">
-      <c r="A20" s="323"/>
+      <c r="A20" s="321"/>
       <c r="B20" s="28"/>
       <c r="C20" s="27"/>
       <c r="D20" s="27"/>
@@ -4181,7 +4172,7 @@
       <c r="H20" s="2"/>
     </row>
     <row r="21" spans="1:8">
-      <c r="A21" s="323"/>
+      <c r="A21" s="321"/>
       <c r="B21" s="28"/>
       <c r="C21" s="27"/>
       <c r="D21" s="27"/>
@@ -4194,7 +4185,7 @@
       <c r="H21" s="2"/>
     </row>
     <row r="22" spans="1:8">
-      <c r="A22" s="323"/>
+      <c r="A22" s="321"/>
       <c r="B22" s="28"/>
       <c r="C22" s="27"/>
       <c r="D22" s="27"/>
@@ -4207,7 +4198,7 @@
       <c r="H22" s="2"/>
     </row>
     <row r="23" spans="1:8">
-      <c r="A23" s="323"/>
+      <c r="A23" s="321"/>
       <c r="B23" s="28"/>
       <c r="C23" s="27"/>
       <c r="D23" s="27"/>
@@ -4220,7 +4211,7 @@
       <c r="H23" s="2"/>
     </row>
     <row r="24" spans="1:8">
-      <c r="A24" s="323"/>
+      <c r="A24" s="321"/>
       <c r="B24" s="28"/>
       <c r="C24" s="27"/>
       <c r="D24" s="27"/>
@@ -4233,7 +4224,7 @@
       <c r="H24" s="2"/>
     </row>
     <row r="25" spans="1:8">
-      <c r="A25" s="323"/>
+      <c r="A25" s="321"/>
       <c r="B25" s="28"/>
       <c r="C25" s="27"/>
       <c r="D25" s="27"/>
@@ -4246,7 +4237,7 @@
       <c r="H25" s="2"/>
     </row>
     <row r="26" spans="1:8">
-      <c r="A26" s="323"/>
+      <c r="A26" s="321"/>
       <c r="B26" s="28"/>
       <c r="C26" s="27"/>
       <c r="D26" s="27"/>
@@ -4259,7 +4250,7 @@
       <c r="H26" s="2"/>
     </row>
     <row r="27" spans="1:8">
-      <c r="A27" s="323"/>
+      <c r="A27" s="321"/>
       <c r="B27" s="28"/>
       <c r="C27" s="27"/>
       <c r="D27" s="27"/>
@@ -4272,7 +4263,7 @@
       <c r="H27" s="23"/>
     </row>
     <row r="28" spans="1:8">
-      <c r="A28" s="323"/>
+      <c r="A28" s="321"/>
       <c r="B28" s="28"/>
       <c r="C28" s="27"/>
       <c r="D28" s="27"/>
@@ -4285,7 +4276,7 @@
       <c r="H28" s="23"/>
     </row>
     <row r="29" spans="1:8">
-      <c r="A29" s="323"/>
+      <c r="A29" s="321"/>
       <c r="B29" s="28"/>
       <c r="C29" s="27"/>
       <c r="D29" s="27"/>
@@ -4298,7 +4289,7 @@
       <c r="H29" s="23"/>
     </row>
     <row r="30" spans="1:8">
-      <c r="A30" s="323"/>
+      <c r="A30" s="321"/>
       <c r="B30" s="28"/>
       <c r="C30" s="27"/>
       <c r="D30" s="27"/>
@@ -4311,7 +4302,7 @@
       <c r="H30" s="23"/>
     </row>
     <row r="31" spans="1:8">
-      <c r="A31" s="323"/>
+      <c r="A31" s="321"/>
       <c r="B31" s="28"/>
       <c r="C31" s="27"/>
       <c r="D31" s="27"/>
@@ -4324,7 +4315,7 @@
       <c r="H31" s="23"/>
     </row>
     <row r="32" spans="1:8">
-      <c r="A32" s="323"/>
+      <c r="A32" s="321"/>
       <c r="B32" s="28"/>
       <c r="C32" s="27"/>
       <c r="D32" s="27"/>
@@ -4337,7 +4328,7 @@
       <c r="H32" s="23"/>
     </row>
     <row r="33" spans="1:8">
-      <c r="A33" s="323"/>
+      <c r="A33" s="321"/>
       <c r="B33" s="28"/>
       <c r="C33" s="27"/>
       <c r="D33" s="30"/>
@@ -4350,7 +4341,7 @@
       <c r="H33" s="23"/>
     </row>
     <row r="34" spans="1:8">
-      <c r="A34" s="323"/>
+      <c r="A34" s="321"/>
       <c r="B34" s="28"/>
       <c r="C34" s="27"/>
       <c r="D34" s="27"/>
@@ -4363,7 +4354,7 @@
       <c r="H34" s="23"/>
     </row>
     <row r="35" spans="1:8">
-      <c r="A35" s="323"/>
+      <c r="A35" s="321"/>
       <c r="B35" s="28"/>
       <c r="C35" s="27"/>
       <c r="D35" s="27"/>
@@ -4376,7 +4367,7 @@
       <c r="H35" s="23"/>
     </row>
     <row r="36" spans="1:8">
-      <c r="A36" s="323"/>
+      <c r="A36" s="321"/>
       <c r="B36" s="28"/>
       <c r="C36" s="27"/>
       <c r="D36" s="27"/>
@@ -4389,7 +4380,7 @@
       <c r="H36" s="23"/>
     </row>
     <row r="37" spans="1:8">
-      <c r="A37" s="323"/>
+      <c r="A37" s="321"/>
       <c r="B37" s="28"/>
       <c r="C37" s="27"/>
       <c r="D37" s="27"/>
@@ -4402,7 +4393,7 @@
       <c r="H37" s="23"/>
     </row>
     <row r="38" spans="1:8">
-      <c r="A38" s="323"/>
+      <c r="A38" s="321"/>
       <c r="B38" s="28"/>
       <c r="C38" s="27"/>
       <c r="D38" s="27"/>
@@ -4415,7 +4406,7 @@
       <c r="H38" s="23"/>
     </row>
     <row r="39" spans="1:8">
-      <c r="A39" s="323"/>
+      <c r="A39" s="321"/>
       <c r="B39" s="28"/>
       <c r="C39" s="27"/>
       <c r="D39" s="27"/>
@@ -4428,7 +4419,7 @@
       <c r="H39" s="23"/>
     </row>
     <row r="40" spans="1:8">
-      <c r="A40" s="323"/>
+      <c r="A40" s="321"/>
       <c r="B40" s="28"/>
       <c r="C40" s="27"/>
       <c r="D40" s="27"/>
@@ -4441,7 +4432,7 @@
       <c r="H40" s="23"/>
     </row>
     <row r="41" spans="1:8">
-      <c r="A41" s="323"/>
+      <c r="A41" s="321"/>
       <c r="B41" s="28"/>
       <c r="C41" s="27"/>
       <c r="D41" s="27"/>
@@ -4454,7 +4445,7 @@
       <c r="H41" s="23"/>
     </row>
     <row r="42" spans="1:8">
-      <c r="A42" s="323"/>
+      <c r="A42" s="321"/>
       <c r="B42" s="28"/>
       <c r="C42" s="27"/>
       <c r="D42" s="27"/>
@@ -4467,7 +4458,7 @@
       <c r="H42" s="23"/>
     </row>
     <row r="43" spans="1:8">
-      <c r="A43" s="323"/>
+      <c r="A43" s="321"/>
       <c r="B43" s="28"/>
       <c r="C43" s="27"/>
       <c r="D43" s="27"/>
@@ -4480,7 +4471,7 @@
       <c r="H43" s="23"/>
     </row>
     <row r="44" spans="1:8">
-      <c r="A44" s="323"/>
+      <c r="A44" s="321"/>
       <c r="B44" s="28"/>
       <c r="C44" s="27"/>
       <c r="D44" s="27"/>
@@ -4493,7 +4484,7 @@
       <c r="H44" s="23"/>
     </row>
     <row r="45" spans="1:8">
-      <c r="A45" s="323"/>
+      <c r="A45" s="321"/>
       <c r="B45" s="28"/>
       <c r="C45" s="27"/>
       <c r="D45" s="27"/>
@@ -4506,7 +4497,7 @@
       <c r="H45" s="23"/>
     </row>
     <row r="46" spans="1:8">
-      <c r="A46" s="323"/>
+      <c r="A46" s="321"/>
       <c r="B46" s="28"/>
       <c r="C46" s="27"/>
       <c r="D46" s="27"/>
@@ -4519,7 +4510,7 @@
       <c r="H46" s="23"/>
     </row>
     <row r="47" spans="1:8">
-      <c r="A47" s="323"/>
+      <c r="A47" s="321"/>
       <c r="B47" s="28"/>
       <c r="C47" s="27"/>
       <c r="D47" s="27"/>
@@ -4532,7 +4523,7 @@
       <c r="H47" s="23"/>
     </row>
     <row r="48" spans="1:8">
-      <c r="A48" s="323"/>
+      <c r="A48" s="321"/>
       <c r="B48" s="28"/>
       <c r="C48" s="27"/>
       <c r="D48" s="27"/>
@@ -4545,7 +4536,7 @@
       <c r="H48" s="23"/>
     </row>
     <row r="49" spans="1:8">
-      <c r="A49" s="323"/>
+      <c r="A49" s="321"/>
       <c r="B49" s="28"/>
       <c r="C49" s="27"/>
       <c r="D49" s="27"/>
@@ -4558,7 +4549,7 @@
       <c r="H49" s="23"/>
     </row>
     <row r="50" spans="1:8">
-      <c r="A50" s="323"/>
+      <c r="A50" s="321"/>
       <c r="B50" s="28"/>
       <c r="C50" s="27"/>
       <c r="D50" s="27"/>
@@ -4571,7 +4562,7 @@
       <c r="H50" s="23"/>
     </row>
     <row r="51" spans="1:8">
-      <c r="A51" s="323"/>
+      <c r="A51" s="321"/>
       <c r="B51" s="28"/>
       <c r="C51" s="27"/>
       <c r="D51" s="27"/>
@@ -4584,7 +4575,7 @@
       <c r="H51" s="23"/>
     </row>
     <row r="52" spans="1:8">
-      <c r="A52" s="323"/>
+      <c r="A52" s="321"/>
       <c r="B52" s="28"/>
       <c r="C52" s="27"/>
       <c r="D52" s="27"/>
@@ -4597,7 +4588,7 @@
       <c r="H52" s="23"/>
     </row>
     <row r="53" spans="1:8">
-      <c r="A53" s="323"/>
+      <c r="A53" s="321"/>
       <c r="B53" s="28"/>
       <c r="C53" s="27"/>
       <c r="D53" s="27"/>
@@ -4610,7 +4601,7 @@
       <c r="H53" s="23"/>
     </row>
     <row r="54" spans="1:8">
-      <c r="A54" s="323"/>
+      <c r="A54" s="321"/>
       <c r="B54" s="28"/>
       <c r="C54" s="27"/>
       <c r="D54" s="27"/>
@@ -4623,7 +4614,7 @@
       <c r="H54" s="23"/>
     </row>
     <row r="55" spans="1:8">
-      <c r="A55" s="323"/>
+      <c r="A55" s="321"/>
       <c r="B55" s="28"/>
       <c r="C55" s="27"/>
       <c r="D55" s="27"/>
@@ -4635,7 +4626,7 @@
       <c r="G55" s="2"/>
     </row>
     <row r="56" spans="1:8">
-      <c r="A56" s="323"/>
+      <c r="A56" s="321"/>
       <c r="B56" s="28"/>
       <c r="C56" s="27"/>
       <c r="D56" s="27"/>
@@ -4647,7 +4638,7 @@
       <c r="G56" s="2"/>
     </row>
     <row r="57" spans="1:8">
-      <c r="A57" s="323"/>
+      <c r="A57" s="321"/>
       <c r="B57" s="28"/>
       <c r="C57" s="27"/>
       <c r="D57" s="27"/>
@@ -4659,7 +4650,7 @@
       <c r="G57" s="2"/>
     </row>
     <row r="58" spans="1:8">
-      <c r="A58" s="323"/>
+      <c r="A58" s="321"/>
       <c r="B58" s="28"/>
       <c r="C58" s="27"/>
       <c r="D58" s="27"/>
@@ -4671,7 +4662,7 @@
       <c r="G58" s="2"/>
     </row>
     <row r="59" spans="1:8">
-      <c r="A59" s="323"/>
+      <c r="A59" s="321"/>
       <c r="B59" s="28"/>
       <c r="C59" s="27"/>
       <c r="D59" s="27"/>
@@ -4683,7 +4674,7 @@
       <c r="G59" s="2"/>
     </row>
     <row r="60" spans="1:8">
-      <c r="A60" s="323"/>
+      <c r="A60" s="321"/>
       <c r="B60" s="28"/>
       <c r="C60" s="27"/>
       <c r="D60" s="27"/>
@@ -4695,7 +4686,7 @@
       <c r="G60" s="2"/>
     </row>
     <row r="61" spans="1:8">
-      <c r="A61" s="323"/>
+      <c r="A61" s="321"/>
       <c r="B61" s="28"/>
       <c r="C61" s="27"/>
       <c r="D61" s="27"/>
@@ -4707,7 +4698,7 @@
       <c r="G61" s="2"/>
     </row>
     <row r="62" spans="1:8">
-      <c r="A62" s="323"/>
+      <c r="A62" s="321"/>
       <c r="B62" s="28"/>
       <c r="C62" s="27"/>
       <c r="D62" s="27"/>
@@ -4719,7 +4710,7 @@
       <c r="G62" s="2"/>
     </row>
     <row r="63" spans="1:8">
-      <c r="A63" s="323"/>
+      <c r="A63" s="321"/>
       <c r="B63" s="28"/>
       <c r="C63" s="27"/>
       <c r="D63" s="27"/>
@@ -4731,7 +4722,7 @@
       <c r="G63" s="2"/>
     </row>
     <row r="64" spans="1:8">
-      <c r="A64" s="323"/>
+      <c r="A64" s="321"/>
       <c r="B64" s="28"/>
       <c r="C64" s="27"/>
       <c r="D64" s="27"/>
@@ -4743,7 +4734,7 @@
       <c r="G64" s="2"/>
     </row>
     <row r="65" spans="1:7">
-      <c r="A65" s="323"/>
+      <c r="A65" s="321"/>
       <c r="B65" s="28"/>
       <c r="C65" s="27"/>
       <c r="D65" s="27"/>
@@ -4755,7 +4746,7 @@
       <c r="G65" s="2"/>
     </row>
     <row r="66" spans="1:7">
-      <c r="A66" s="323"/>
+      <c r="A66" s="321"/>
       <c r="B66" s="28"/>
       <c r="C66" s="27"/>
       <c r="D66" s="27"/>
@@ -4767,7 +4758,7 @@
       <c r="G66" s="2"/>
     </row>
     <row r="67" spans="1:7">
-      <c r="A67" s="323"/>
+      <c r="A67" s="321"/>
       <c r="B67" s="28"/>
       <c r="C67" s="27"/>
       <c r="D67" s="27"/>
@@ -4779,7 +4770,7 @@
       <c r="G67" s="2"/>
     </row>
     <row r="68" spans="1:7">
-      <c r="A68" s="323"/>
+      <c r="A68" s="321"/>
       <c r="B68" s="28"/>
       <c r="C68" s="27"/>
       <c r="D68" s="27"/>
@@ -4791,7 +4782,7 @@
       <c r="G68" s="2"/>
     </row>
     <row r="69" spans="1:7">
-      <c r="A69" s="323"/>
+      <c r="A69" s="321"/>
       <c r="B69" s="28"/>
       <c r="C69" s="27"/>
       <c r="D69" s="27"/>
@@ -4803,7 +4794,7 @@
       <c r="G69" s="2"/>
     </row>
     <row r="70" spans="1:7">
-      <c r="A70" s="323"/>
+      <c r="A70" s="321"/>
       <c r="B70" s="28"/>
       <c r="C70" s="27"/>
       <c r="D70" s="27"/>
@@ -4815,7 +4806,7 @@
       <c r="G70" s="2"/>
     </row>
     <row r="71" spans="1:7">
-      <c r="A71" s="323"/>
+      <c r="A71" s="321"/>
       <c r="B71" s="28"/>
       <c r="C71" s="27"/>
       <c r="D71" s="27"/>
@@ -4827,7 +4818,7 @@
       <c r="G71" s="2"/>
     </row>
     <row r="72" spans="1:7">
-      <c r="A72" s="323"/>
+      <c r="A72" s="321"/>
       <c r="B72" s="28"/>
       <c r="C72" s="27"/>
       <c r="D72" s="27"/>
@@ -4839,7 +4830,7 @@
       <c r="G72" s="2"/>
     </row>
     <row r="73" spans="1:7">
-      <c r="A73" s="323"/>
+      <c r="A73" s="321"/>
       <c r="B73" s="28"/>
       <c r="C73" s="27"/>
       <c r="D73" s="27"/>
@@ -4851,7 +4842,7 @@
       <c r="G73" s="2"/>
     </row>
     <row r="74" spans="1:7">
-      <c r="A74" s="323"/>
+      <c r="A74" s="321"/>
       <c r="B74" s="28"/>
       <c r="C74" s="27"/>
       <c r="D74" s="27"/>
@@ -4863,7 +4854,7 @@
       <c r="G74" s="2"/>
     </row>
     <row r="75" spans="1:7">
-      <c r="A75" s="323"/>
+      <c r="A75" s="321"/>
       <c r="B75" s="28"/>
       <c r="C75" s="27"/>
       <c r="D75" s="27"/>
@@ -4875,7 +4866,7 @@
       <c r="G75" s="2"/>
     </row>
     <row r="76" spans="1:7">
-      <c r="A76" s="323"/>
+      <c r="A76" s="321"/>
       <c r="B76" s="28"/>
       <c r="C76" s="27"/>
       <c r="D76" s="27"/>
@@ -4887,7 +4878,7 @@
       <c r="G76" s="2"/>
     </row>
     <row r="77" spans="1:7">
-      <c r="A77" s="323"/>
+      <c r="A77" s="321"/>
       <c r="B77" s="28"/>
       <c r="C77" s="27"/>
       <c r="D77" s="27"/>
@@ -4899,7 +4890,7 @@
       <c r="G77" s="2"/>
     </row>
     <row r="78" spans="1:7">
-      <c r="A78" s="323"/>
+      <c r="A78" s="321"/>
       <c r="B78" s="28"/>
       <c r="C78" s="27"/>
       <c r="D78" s="27"/>
@@ -4911,7 +4902,7 @@
       <c r="G78" s="2"/>
     </row>
     <row r="79" spans="1:7">
-      <c r="A79" s="323"/>
+      <c r="A79" s="321"/>
       <c r="B79" s="28"/>
       <c r="C79" s="27"/>
       <c r="D79" s="27"/>
@@ -4923,7 +4914,7 @@
       <c r="G79" s="2"/>
     </row>
     <row r="80" spans="1:7">
-      <c r="A80" s="323"/>
+      <c r="A80" s="321"/>
       <c r="B80" s="28"/>
       <c r="C80" s="27"/>
       <c r="D80" s="27"/>
@@ -4935,7 +4926,7 @@
       <c r="G80" s="2"/>
     </row>
     <row r="81" spans="1:7">
-      <c r="A81" s="323"/>
+      <c r="A81" s="321"/>
       <c r="B81" s="28"/>
       <c r="C81" s="27"/>
       <c r="D81" s="27"/>
@@ -4947,7 +4938,7 @@
       <c r="G81" s="2"/>
     </row>
     <row r="82" spans="1:7">
-      <c r="A82" s="323"/>
+      <c r="A82" s="321"/>
       <c r="B82" s="28"/>
       <c r="C82" s="27"/>
       <c r="D82" s="27"/>
@@ -4959,7 +4950,7 @@
       <c r="G82" s="2"/>
     </row>
     <row r="83" spans="1:7">
-      <c r="A83" s="323"/>
+      <c r="A83" s="321"/>
       <c r="B83" s="33"/>
       <c r="C83" s="29">
         <f>SUM(C5:C72)</f>
@@ -4999,7 +4990,7 @@
   <dimension ref="A1:H85"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+      <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75"/>
@@ -5016,33 +5007,33 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="20.25" customHeight="1">
-      <c r="A1" s="322"/>
-      <c r="B1" s="322"/>
-      <c r="C1" s="322"/>
-      <c r="D1" s="322"/>
-      <c r="E1" s="322"/>
-      <c r="F1" s="322"/>
+      <c r="A1" s="320"/>
+      <c r="B1" s="320"/>
+      <c r="C1" s="320"/>
+      <c r="D1" s="320"/>
+      <c r="E1" s="320"/>
+      <c r="F1" s="320"/>
     </row>
     <row r="2" spans="1:8" ht="20.25">
-      <c r="A2" s="323"/>
-      <c r="B2" s="320" t="s">
+      <c r="A2" s="321"/>
+      <c r="B2" s="318" t="s">
         <v>16</v>
       </c>
-      <c r="C2" s="320"/>
-      <c r="D2" s="320"/>
-      <c r="E2" s="320"/>
+      <c r="C2" s="318"/>
+      <c r="D2" s="318"/>
+      <c r="E2" s="318"/>
     </row>
     <row r="3" spans="1:8" ht="16.5" customHeight="1">
-      <c r="A3" s="323"/>
-      <c r="B3" s="321" t="s">
+      <c r="A3" s="321"/>
+      <c r="B3" s="319" t="s">
         <v>178</v>
       </c>
-      <c r="C3" s="321"/>
-      <c r="D3" s="321"/>
-      <c r="E3" s="321"/>
+      <c r="C3" s="319"/>
+      <c r="D3" s="319"/>
+      <c r="E3" s="319"/>
     </row>
     <row r="4" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A4" s="323"/>
+      <c r="A4" s="321"/>
       <c r="B4" s="24" t="s">
         <v>0</v>
       </c>
@@ -5060,17 +5051,17 @@
       </c>
     </row>
     <row r="5" spans="1:8">
-      <c r="A5" s="323"/>
+      <c r="A5" s="321"/>
       <c r="B5" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="277">
+      <c r="C5" s="276">
         <v>14388</v>
       </c>
-      <c r="D5" s="277">
+      <c r="D5" s="276">
         <v>0</v>
       </c>
-      <c r="E5" s="278">
+      <c r="E5" s="277">
         <f>C5-D5</f>
         <v>14388</v>
       </c>
@@ -5078,11 +5069,11 @@
       <c r="G5" s="2"/>
     </row>
     <row r="6" spans="1:8">
-      <c r="A6" s="323"/>
+      <c r="A6" s="321"/>
       <c r="B6" s="28"/>
-      <c r="C6" s="277"/>
-      <c r="D6" s="277"/>
-      <c r="E6" s="279">
+      <c r="C6" s="276"/>
+      <c r="D6" s="276"/>
+      <c r="E6" s="278">
         <f t="shared" ref="E6:E69" si="0">E5+C6-D6</f>
         <v>14388</v>
       </c>
@@ -5090,17 +5081,17 @@
       <c r="G6" s="21"/>
     </row>
     <row r="7" spans="1:8">
-      <c r="A7" s="323"/>
+      <c r="A7" s="321"/>
       <c r="B7" s="28" t="s">
         <v>179</v>
       </c>
-      <c r="C7" s="277">
+      <c r="C7" s="276">
         <v>0</v>
       </c>
-      <c r="D7" s="277">
+      <c r="D7" s="276">
         <v>0</v>
       </c>
-      <c r="E7" s="279">
+      <c r="E7" s="278">
         <f t="shared" si="0"/>
         <v>14388</v>
       </c>
@@ -5109,17 +5100,17 @@
       <c r="H7" s="2"/>
     </row>
     <row r="8" spans="1:8">
-      <c r="A8" s="323"/>
+      <c r="A8" s="321"/>
       <c r="B8" s="28" t="s">
         <v>183</v>
       </c>
-      <c r="C8" s="277">
+      <c r="C8" s="276">
         <v>240000</v>
       </c>
-      <c r="D8" s="305">
+      <c r="D8" s="304">
         <v>240000</v>
       </c>
-      <c r="E8" s="279">
+      <c r="E8" s="278">
         <f>E7+C8-D8</f>
         <v>14388</v>
       </c>
@@ -5128,38 +5119,38 @@
       <c r="H8" s="2"/>
     </row>
     <row r="9" spans="1:8">
-      <c r="A9" s="323"/>
+      <c r="A9" s="321"/>
       <c r="B9" s="28" t="s">
         <v>183</v>
       </c>
-      <c r="C9" s="306">
+      <c r="C9" s="305">
         <v>46650</v>
       </c>
-      <c r="D9" s="277">
+      <c r="D9" s="276">
         <v>0</v>
       </c>
-      <c r="E9" s="279">
+      <c r="E9" s="278">
         <f t="shared" si="0"/>
         <v>61038</v>
       </c>
-      <c r="F9" s="307" t="s">
+      <c r="F9" s="306" t="s">
         <v>184</v>
       </c>
       <c r="G9" s="2"/>
       <c r="H9" s="2"/>
     </row>
     <row r="10" spans="1:8">
-      <c r="A10" s="323"/>
+      <c r="A10" s="321"/>
       <c r="B10" s="28" t="s">
         <v>187</v>
       </c>
-      <c r="C10" s="280">
+      <c r="C10" s="279">
         <v>0</v>
       </c>
-      <c r="D10" s="280">
+      <c r="D10" s="279">
         <v>0</v>
       </c>
-      <c r="E10" s="279">
+      <c r="E10" s="278">
         <f t="shared" si="0"/>
         <v>61038</v>
       </c>
@@ -5168,17 +5159,17 @@
       <c r="H10" s="2"/>
     </row>
     <row r="11" spans="1:8">
-      <c r="A11" s="323"/>
+      <c r="A11" s="321"/>
       <c r="B11" s="28" t="s">
         <v>189</v>
       </c>
-      <c r="C11" s="277">
+      <c r="C11" s="276">
         <v>750000</v>
       </c>
-      <c r="D11" s="305">
+      <c r="D11" s="304">
         <v>805000</v>
       </c>
-      <c r="E11" s="279">
+      <c r="E11" s="278">
         <f t="shared" si="0"/>
         <v>6038</v>
       </c>
@@ -5187,17 +5178,17 @@
       <c r="H11" s="2"/>
     </row>
     <row r="12" spans="1:8">
-      <c r="A12" s="323"/>
+      <c r="A12" s="321"/>
       <c r="B12" s="28" t="s">
-        <v>195</v>
-      </c>
-      <c r="C12" s="277">
+        <v>194</v>
+      </c>
+      <c r="C12" s="276">
         <v>935000</v>
       </c>
-      <c r="D12" s="305">
+      <c r="D12" s="304">
         <v>800000</v>
       </c>
-      <c r="E12" s="279">
+      <c r="E12" s="278">
         <f t="shared" si="0"/>
         <v>141038</v>
       </c>
@@ -5206,17 +5197,17 @@
       <c r="H12" s="2"/>
     </row>
     <row r="13" spans="1:8">
-      <c r="A13" s="323"/>
+      <c r="A13" s="321"/>
       <c r="B13" s="28" t="s">
-        <v>199</v>
-      </c>
-      <c r="C13" s="277">
+        <v>198</v>
+      </c>
+      <c r="C13" s="276">
         <v>295000</v>
       </c>
-      <c r="D13" s="305">
+      <c r="D13" s="304">
         <v>300000</v>
       </c>
-      <c r="E13" s="279">
+      <c r="E13" s="278">
         <f t="shared" si="0"/>
         <v>136038</v>
       </c>
@@ -5225,17 +5216,17 @@
       <c r="H13" s="32"/>
     </row>
     <row r="14" spans="1:8">
-      <c r="A14" s="323"/>
+      <c r="A14" s="321"/>
       <c r="B14" s="28" t="s">
-        <v>200</v>
-      </c>
-      <c r="C14" s="277">
+        <v>199</v>
+      </c>
+      <c r="C14" s="276">
         <v>320000</v>
       </c>
-      <c r="D14" s="305">
+      <c r="D14" s="304">
         <v>350000</v>
       </c>
-      <c r="E14" s="279">
+      <c r="E14" s="278">
         <f t="shared" si="0"/>
         <v>106038</v>
       </c>
@@ -5244,17 +5235,17 @@
       <c r="H14" s="2"/>
     </row>
     <row r="15" spans="1:8">
-      <c r="A15" s="323"/>
+      <c r="A15" s="321"/>
       <c r="B15" s="28" t="s">
-        <v>216</v>
-      </c>
-      <c r="C15" s="277">
+        <v>214</v>
+      </c>
+      <c r="C15" s="276">
         <v>100000</v>
       </c>
-      <c r="D15" s="305">
+      <c r="D15" s="304">
         <v>200000</v>
       </c>
-      <c r="E15" s="279">
+      <c r="E15" s="278">
         <f t="shared" si="0"/>
         <v>6038</v>
       </c>
@@ -5263,17 +5254,17 @@
       <c r="H15" s="12"/>
     </row>
     <row r="16" spans="1:8">
-      <c r="A16" s="323"/>
+      <c r="A16" s="321"/>
       <c r="B16" s="28" t="s">
-        <v>225</v>
-      </c>
-      <c r="C16" s="277">
+        <v>220</v>
+      </c>
+      <c r="C16" s="276">
         <v>0</v>
       </c>
-      <c r="D16" s="277">
+      <c r="D16" s="276">
         <v>0</v>
       </c>
-      <c r="E16" s="279">
+      <c r="E16" s="278">
         <f t="shared" si="0"/>
         <v>6038</v>
       </c>
@@ -5282,849 +5273,855 @@
       <c r="H16" s="2"/>
     </row>
     <row r="17" spans="1:8">
-      <c r="A17" s="323"/>
-      <c r="B17" s="28"/>
-      <c r="C17" s="277"/>
-      <c r="D17" s="277"/>
-      <c r="E17" s="279">
+      <c r="A17" s="321"/>
+      <c r="B17" s="28" t="s">
+        <v>222</v>
+      </c>
+      <c r="C17" s="276">
+        <v>930000</v>
+      </c>
+      <c r="D17" s="304">
+        <v>500000</v>
+      </c>
+      <c r="E17" s="278">
         <f t="shared" si="0"/>
-        <v>6038</v>
+        <v>436038</v>
       </c>
       <c r="F17" s="22"/>
       <c r="G17" s="13"/>
       <c r="H17" s="2"/>
     </row>
     <row r="18" spans="1:8">
-      <c r="A18" s="323"/>
+      <c r="A18" s="321"/>
       <c r="B18" s="28"/>
-      <c r="C18" s="277"/>
-      <c r="D18" s="277"/>
-      <c r="E18" s="279">
+      <c r="C18" s="276"/>
+      <c r="D18" s="276"/>
+      <c r="E18" s="278">
         <f>E17+C18-D18</f>
-        <v>6038</v>
+        <v>436038</v>
       </c>
       <c r="F18" s="20"/>
       <c r="G18" s="31"/>
       <c r="H18" s="2"/>
     </row>
     <row r="19" spans="1:8" ht="12.75" customHeight="1">
-      <c r="A19" s="323"/>
+      <c r="A19" s="321"/>
       <c r="B19" s="28"/>
-      <c r="C19" s="277"/>
-      <c r="D19" s="280"/>
-      <c r="E19" s="279">
+      <c r="C19" s="276"/>
+      <c r="D19" s="279"/>
+      <c r="E19" s="278">
         <f t="shared" si="0"/>
-        <v>6038</v>
+        <v>436038</v>
       </c>
       <c r="F19" s="20"/>
       <c r="G19" s="31"/>
       <c r="H19" s="2"/>
     </row>
     <row r="20" spans="1:8">
-      <c r="A20" s="323"/>
+      <c r="A20" s="321"/>
       <c r="B20" s="28"/>
-      <c r="C20" s="277"/>
-      <c r="D20" s="277"/>
-      <c r="E20" s="279">
+      <c r="C20" s="276"/>
+      <c r="D20" s="276"/>
+      <c r="E20" s="278">
         <f t="shared" si="0"/>
-        <v>6038</v>
+        <v>436038</v>
       </c>
       <c r="F20" s="22"/>
       <c r="G20" s="31"/>
       <c r="H20" s="2"/>
     </row>
     <row r="21" spans="1:8">
-      <c r="A21" s="323"/>
+      <c r="A21" s="321"/>
       <c r="B21" s="28"/>
-      <c r="C21" s="277"/>
-      <c r="D21" s="277"/>
-      <c r="E21" s="279">
+      <c r="C21" s="276"/>
+      <c r="D21" s="276"/>
+      <c r="E21" s="278">
         <f>E20+C21-D21</f>
-        <v>6038</v>
+        <v>436038</v>
       </c>
       <c r="F21" s="20"/>
-      <c r="G21" s="304"/>
+      <c r="G21" s="303"/>
       <c r="H21" s="2"/>
     </row>
     <row r="22" spans="1:8">
-      <c r="A22" s="323"/>
+      <c r="A22" s="321"/>
       <c r="B22" s="28"/>
-      <c r="C22" s="277"/>
-      <c r="D22" s="277"/>
-      <c r="E22" s="279">
+      <c r="C22" s="276"/>
+      <c r="D22" s="276"/>
+      <c r="E22" s="278">
         <f t="shared" si="0"/>
-        <v>6038</v>
+        <v>436038</v>
       </c>
       <c r="F22" s="22"/>
       <c r="G22" s="2"/>
       <c r="H22" s="2"/>
     </row>
     <row r="23" spans="1:8">
-      <c r="A23" s="323"/>
+      <c r="A23" s="321"/>
       <c r="B23" s="28"/>
-      <c r="C23" s="277"/>
-      <c r="D23" s="277"/>
-      <c r="E23" s="279">
+      <c r="C23" s="276"/>
+      <c r="D23" s="276"/>
+      <c r="E23" s="278">
         <f>E22+C23-D23</f>
-        <v>6038</v>
+        <v>436038</v>
       </c>
       <c r="F23" s="20"/>
       <c r="G23" s="2"/>
       <c r="H23" s="2"/>
     </row>
     <row r="24" spans="1:8">
-      <c r="A24" s="323"/>
+      <c r="A24" s="321"/>
       <c r="B24" s="28"/>
-      <c r="C24" s="277"/>
-      <c r="D24" s="277"/>
-      <c r="E24" s="279">
+      <c r="C24" s="276"/>
+      <c r="D24" s="276"/>
+      <c r="E24" s="278">
         <f t="shared" si="0"/>
-        <v>6038</v>
+        <v>436038</v>
       </c>
       <c r="F24" s="20"/>
       <c r="G24" s="2"/>
       <c r="H24" s="2"/>
     </row>
     <row r="25" spans="1:8">
-      <c r="A25" s="323"/>
+      <c r="A25" s="321"/>
       <c r="B25" s="28"/>
-      <c r="C25" s="277"/>
-      <c r="D25" s="277"/>
-      <c r="E25" s="279">
+      <c r="C25" s="276"/>
+      <c r="D25" s="276"/>
+      <c r="E25" s="278">
         <f t="shared" si="0"/>
-        <v>6038</v>
+        <v>436038</v>
       </c>
       <c r="F25" s="20"/>
       <c r="G25" s="2"/>
       <c r="H25" s="2"/>
     </row>
     <row r="26" spans="1:8">
-      <c r="A26" s="323"/>
+      <c r="A26" s="321"/>
       <c r="B26" s="28"/>
-      <c r="C26" s="277"/>
-      <c r="D26" s="277"/>
-      <c r="E26" s="279">
+      <c r="C26" s="276"/>
+      <c r="D26" s="276"/>
+      <c r="E26" s="278">
         <f t="shared" si="0"/>
-        <v>6038</v>
+        <v>436038</v>
       </c>
       <c r="F26" s="20"/>
       <c r="G26" s="2"/>
       <c r="H26" s="2"/>
     </row>
     <row r="27" spans="1:8">
-      <c r="A27" s="323"/>
+      <c r="A27" s="321"/>
       <c r="B27" s="28"/>
-      <c r="C27" s="277"/>
-      <c r="D27" s="277"/>
-      <c r="E27" s="279">
+      <c r="C27" s="276"/>
+      <c r="D27" s="276"/>
+      <c r="E27" s="278">
         <f t="shared" si="0"/>
-        <v>6038</v>
+        <v>436038</v>
       </c>
       <c r="F27" s="20"/>
       <c r="G27" s="2"/>
       <c r="H27" s="23"/>
     </row>
     <row r="28" spans="1:8">
-      <c r="A28" s="323"/>
+      <c r="A28" s="321"/>
       <c r="B28" s="28"/>
-      <c r="C28" s="277"/>
-      <c r="D28" s="277"/>
-      <c r="E28" s="279">
+      <c r="C28" s="276"/>
+      <c r="D28" s="276"/>
+      <c r="E28" s="278">
         <f>E27+C28-D28</f>
-        <v>6038</v>
+        <v>436038</v>
       </c>
       <c r="F28" s="20"/>
       <c r="G28" s="2"/>
       <c r="H28" s="23"/>
     </row>
     <row r="29" spans="1:8">
-      <c r="A29" s="323"/>
+      <c r="A29" s="321"/>
       <c r="B29" s="28"/>
-      <c r="C29" s="277"/>
-      <c r="D29" s="277"/>
-      <c r="E29" s="279">
+      <c r="C29" s="276"/>
+      <c r="D29" s="276"/>
+      <c r="E29" s="278">
         <f t="shared" si="0"/>
-        <v>6038</v>
+        <v>436038</v>
       </c>
       <c r="F29" s="20"/>
       <c r="G29" s="2"/>
       <c r="H29" s="23"/>
     </row>
     <row r="30" spans="1:8">
-      <c r="A30" s="323"/>
+      <c r="A30" s="321"/>
       <c r="B30" s="28"/>
-      <c r="C30" s="277"/>
-      <c r="D30" s="277"/>
-      <c r="E30" s="279">
+      <c r="C30" s="276"/>
+      <c r="D30" s="276"/>
+      <c r="E30" s="278">
         <f t="shared" si="0"/>
-        <v>6038</v>
+        <v>436038</v>
       </c>
       <c r="F30" s="20"/>
       <c r="G30" s="2"/>
       <c r="H30" s="23"/>
     </row>
     <row r="31" spans="1:8">
-      <c r="A31" s="323"/>
+      <c r="A31" s="321"/>
       <c r="B31" s="28"/>
-      <c r="C31" s="277"/>
-      <c r="D31" s="277"/>
-      <c r="E31" s="279">
+      <c r="C31" s="276"/>
+      <c r="D31" s="276"/>
+      <c r="E31" s="278">
         <f t="shared" si="0"/>
-        <v>6038</v>
+        <v>436038</v>
       </c>
       <c r="F31" s="20"/>
       <c r="G31" s="2"/>
       <c r="H31" s="23"/>
     </row>
     <row r="32" spans="1:8">
-      <c r="A32" s="323"/>
+      <c r="A32" s="321"/>
       <c r="B32" s="28"/>
-      <c r="C32" s="277"/>
-      <c r="D32" s="277"/>
-      <c r="E32" s="279">
+      <c r="C32" s="276"/>
+      <c r="D32" s="276"/>
+      <c r="E32" s="278">
         <f>E31+C32-D32</f>
-        <v>6038</v>
+        <v>436038</v>
       </c>
       <c r="F32" s="20"/>
       <c r="G32" s="2"/>
       <c r="H32" s="23"/>
     </row>
     <row r="33" spans="1:8">
-      <c r="A33" s="323"/>
+      <c r="A33" s="321"/>
       <c r="B33" s="28"/>
-      <c r="C33" s="277"/>
-      <c r="D33" s="280"/>
-      <c r="E33" s="279">
+      <c r="C33" s="276"/>
+      <c r="D33" s="279"/>
+      <c r="E33" s="278">
         <f t="shared" si="0"/>
-        <v>6038</v>
+        <v>436038</v>
       </c>
       <c r="F33" s="20"/>
       <c r="G33" s="2"/>
       <c r="H33" s="23"/>
     </row>
     <row r="34" spans="1:8">
-      <c r="A34" s="323"/>
+      <c r="A34" s="321"/>
       <c r="B34" s="28"/>
-      <c r="C34" s="277"/>
-      <c r="D34" s="277"/>
-      <c r="E34" s="279">
+      <c r="C34" s="276"/>
+      <c r="D34" s="276"/>
+      <c r="E34" s="278">
         <f t="shared" si="0"/>
-        <v>6038</v>
+        <v>436038</v>
       </c>
       <c r="F34" s="20"/>
       <c r="G34" s="2"/>
       <c r="H34" s="23"/>
     </row>
     <row r="35" spans="1:8">
-      <c r="A35" s="323"/>
+      <c r="A35" s="321"/>
       <c r="B35" s="28"/>
-      <c r="C35" s="277"/>
-      <c r="D35" s="277"/>
-      <c r="E35" s="279">
+      <c r="C35" s="276"/>
+      <c r="D35" s="276"/>
+      <c r="E35" s="278">
         <f t="shared" si="0"/>
-        <v>6038</v>
+        <v>436038</v>
       </c>
       <c r="F35" s="20"/>
       <c r="G35" s="2"/>
       <c r="H35" s="23"/>
     </row>
     <row r="36" spans="1:8">
-      <c r="A36" s="323"/>
+      <c r="A36" s="321"/>
       <c r="B36" s="28"/>
-      <c r="C36" s="277"/>
-      <c r="D36" s="277"/>
-      <c r="E36" s="279">
+      <c r="C36" s="276"/>
+      <c r="D36" s="276"/>
+      <c r="E36" s="278">
         <f t="shared" si="0"/>
-        <v>6038</v>
+        <v>436038</v>
       </c>
       <c r="F36" s="20"/>
       <c r="G36" s="2"/>
       <c r="H36" s="23"/>
     </row>
     <row r="37" spans="1:8">
-      <c r="A37" s="323"/>
+      <c r="A37" s="321"/>
       <c r="B37" s="28"/>
-      <c r="C37" s="277"/>
-      <c r="D37" s="277"/>
-      <c r="E37" s="279">
+      <c r="C37" s="276"/>
+      <c r="D37" s="276"/>
+      <c r="E37" s="278">
         <f t="shared" si="0"/>
-        <v>6038</v>
+        <v>436038</v>
       </c>
       <c r="F37" s="20"/>
       <c r="G37" s="2"/>
       <c r="H37" s="23"/>
     </row>
     <row r="38" spans="1:8">
-      <c r="A38" s="323"/>
+      <c r="A38" s="321"/>
       <c r="B38" s="28"/>
-      <c r="C38" s="277"/>
-      <c r="D38" s="277"/>
-      <c r="E38" s="279">
+      <c r="C38" s="276"/>
+      <c r="D38" s="276"/>
+      <c r="E38" s="278">
         <f t="shared" si="0"/>
-        <v>6038</v>
+        <v>436038</v>
       </c>
       <c r="F38" s="20"/>
       <c r="G38" s="2"/>
       <c r="H38" s="23"/>
     </row>
     <row r="39" spans="1:8">
-      <c r="A39" s="323"/>
+      <c r="A39" s="321"/>
       <c r="B39" s="28"/>
-      <c r="C39" s="277"/>
-      <c r="D39" s="277"/>
-      <c r="E39" s="279">
+      <c r="C39" s="276"/>
+      <c r="D39" s="276"/>
+      <c r="E39" s="278">
         <f t="shared" si="0"/>
-        <v>6038</v>
+        <v>436038</v>
       </c>
       <c r="F39" s="20"/>
       <c r="G39" s="2"/>
       <c r="H39" s="23"/>
     </row>
     <row r="40" spans="1:8">
-      <c r="A40" s="323"/>
+      <c r="A40" s="321"/>
       <c r="B40" s="28"/>
-      <c r="C40" s="277"/>
-      <c r="D40" s="277"/>
-      <c r="E40" s="279">
+      <c r="C40" s="276"/>
+      <c r="D40" s="276"/>
+      <c r="E40" s="278">
         <f t="shared" si="0"/>
-        <v>6038</v>
+        <v>436038</v>
       </c>
       <c r="F40" s="20"/>
       <c r="G40" s="2"/>
       <c r="H40" s="23"/>
     </row>
     <row r="41" spans="1:8">
-      <c r="A41" s="323"/>
+      <c r="A41" s="321"/>
       <c r="B41" s="28"/>
-      <c r="C41" s="277"/>
-      <c r="D41" s="277"/>
-      <c r="E41" s="279">
+      <c r="C41" s="276"/>
+      <c r="D41" s="276"/>
+      <c r="E41" s="278">
         <f t="shared" si="0"/>
-        <v>6038</v>
+        <v>436038</v>
       </c>
       <c r="F41" s="20"/>
       <c r="G41" s="2"/>
       <c r="H41" s="23"/>
     </row>
     <row r="42" spans="1:8">
-      <c r="A42" s="323"/>
+      <c r="A42" s="321"/>
       <c r="B42" s="28"/>
-      <c r="C42" s="277"/>
-      <c r="D42" s="277"/>
-      <c r="E42" s="279">
+      <c r="C42" s="276"/>
+      <c r="D42" s="276"/>
+      <c r="E42" s="278">
         <f t="shared" si="0"/>
-        <v>6038</v>
+        <v>436038</v>
       </c>
       <c r="F42" s="20"/>
       <c r="G42" s="2"/>
       <c r="H42" s="23"/>
     </row>
     <row r="43" spans="1:8">
-      <c r="A43" s="323"/>
+      <c r="A43" s="321"/>
       <c r="B43" s="28"/>
-      <c r="C43" s="277"/>
-      <c r="D43" s="277"/>
-      <c r="E43" s="279">
+      <c r="C43" s="276"/>
+      <c r="D43" s="276"/>
+      <c r="E43" s="278">
         <f t="shared" si="0"/>
-        <v>6038</v>
+        <v>436038</v>
       </c>
       <c r="F43" s="20"/>
       <c r="G43" s="2"/>
       <c r="H43" s="23"/>
     </row>
     <row r="44" spans="1:8">
-      <c r="A44" s="323"/>
+      <c r="A44" s="321"/>
       <c r="B44" s="28"/>
-      <c r="C44" s="277"/>
-      <c r="D44" s="277"/>
-      <c r="E44" s="279">
+      <c r="C44" s="276"/>
+      <c r="D44" s="276"/>
+      <c r="E44" s="278">
         <f t="shared" si="0"/>
-        <v>6038</v>
+        <v>436038</v>
       </c>
       <c r="F44" s="20"/>
       <c r="G44" s="2"/>
       <c r="H44" s="23"/>
     </row>
     <row r="45" spans="1:8">
-      <c r="A45" s="323"/>
+      <c r="A45" s="321"/>
       <c r="B45" s="28"/>
-      <c r="C45" s="277"/>
-      <c r="D45" s="277"/>
-      <c r="E45" s="279">
+      <c r="C45" s="276"/>
+      <c r="D45" s="276"/>
+      <c r="E45" s="278">
         <f t="shared" si="0"/>
-        <v>6038</v>
+        <v>436038</v>
       </c>
       <c r="F45" s="20"/>
       <c r="G45" s="2"/>
       <c r="H45" s="23"/>
     </row>
     <row r="46" spans="1:8">
-      <c r="A46" s="323"/>
+      <c r="A46" s="321"/>
       <c r="B46" s="28"/>
-      <c r="C46" s="277"/>
-      <c r="D46" s="277"/>
-      <c r="E46" s="279">
+      <c r="C46" s="276"/>
+      <c r="D46" s="276"/>
+      <c r="E46" s="278">
         <f t="shared" si="0"/>
-        <v>6038</v>
+        <v>436038</v>
       </c>
       <c r="F46" s="20"/>
       <c r="G46" s="2"/>
       <c r="H46" s="23"/>
     </row>
     <row r="47" spans="1:8">
-      <c r="A47" s="323"/>
+      <c r="A47" s="321"/>
       <c r="B47" s="28"/>
-      <c r="C47" s="277"/>
-      <c r="D47" s="277"/>
-      <c r="E47" s="279">
+      <c r="C47" s="276"/>
+      <c r="D47" s="276"/>
+      <c r="E47" s="278">
         <f t="shared" si="0"/>
-        <v>6038</v>
+        <v>436038</v>
       </c>
       <c r="F47" s="20"/>
       <c r="G47" s="2"/>
       <c r="H47" s="23"/>
     </row>
     <row r="48" spans="1:8">
-      <c r="A48" s="323"/>
+      <c r="A48" s="321"/>
       <c r="B48" s="28"/>
-      <c r="C48" s="277"/>
-      <c r="D48" s="277"/>
-      <c r="E48" s="279">
+      <c r="C48" s="276"/>
+      <c r="D48" s="276"/>
+      <c r="E48" s="278">
         <f t="shared" si="0"/>
-        <v>6038</v>
+        <v>436038</v>
       </c>
       <c r="F48" s="20"/>
       <c r="G48" s="2"/>
       <c r="H48" s="23"/>
     </row>
     <row r="49" spans="1:8">
-      <c r="A49" s="323"/>
+      <c r="A49" s="321"/>
       <c r="B49" s="28"/>
-      <c r="C49" s="277"/>
-      <c r="D49" s="277"/>
-      <c r="E49" s="279">
+      <c r="C49" s="276"/>
+      <c r="D49" s="276"/>
+      <c r="E49" s="278">
         <f t="shared" si="0"/>
-        <v>6038</v>
+        <v>436038</v>
       </c>
       <c r="F49" s="20"/>
       <c r="G49" s="2"/>
       <c r="H49" s="23"/>
     </row>
     <row r="50" spans="1:8">
-      <c r="A50" s="323"/>
+      <c r="A50" s="321"/>
       <c r="B50" s="28"/>
-      <c r="C50" s="277"/>
-      <c r="D50" s="277"/>
-      <c r="E50" s="279">
+      <c r="C50" s="276"/>
+      <c r="D50" s="276"/>
+      <c r="E50" s="278">
         <f t="shared" si="0"/>
-        <v>6038</v>
+        <v>436038</v>
       </c>
       <c r="F50" s="20"/>
       <c r="G50" s="2"/>
       <c r="H50" s="23"/>
     </row>
     <row r="51" spans="1:8">
-      <c r="A51" s="323"/>
+      <c r="A51" s="321"/>
       <c r="B51" s="28"/>
-      <c r="C51" s="277"/>
-      <c r="D51" s="277"/>
-      <c r="E51" s="279">
+      <c r="C51" s="276"/>
+      <c r="D51" s="276"/>
+      <c r="E51" s="278">
         <f t="shared" si="0"/>
-        <v>6038</v>
+        <v>436038</v>
       </c>
       <c r="F51" s="20"/>
       <c r="G51" s="2"/>
       <c r="H51" s="23"/>
     </row>
     <row r="52" spans="1:8">
-      <c r="A52" s="323"/>
+      <c r="A52" s="321"/>
       <c r="B52" s="28"/>
-      <c r="C52" s="277"/>
-      <c r="D52" s="277"/>
-      <c r="E52" s="279">
+      <c r="C52" s="276"/>
+      <c r="D52" s="276"/>
+      <c r="E52" s="278">
         <f t="shared" si="0"/>
-        <v>6038</v>
+        <v>436038</v>
       </c>
       <c r="F52" s="20"/>
       <c r="G52" s="2"/>
       <c r="H52" s="23"/>
     </row>
     <row r="53" spans="1:8">
-      <c r="A53" s="323"/>
+      <c r="A53" s="321"/>
       <c r="B53" s="28"/>
-      <c r="C53" s="277"/>
-      <c r="D53" s="277"/>
-      <c r="E53" s="279">
+      <c r="C53" s="276"/>
+      <c r="D53" s="276"/>
+      <c r="E53" s="278">
         <f t="shared" si="0"/>
-        <v>6038</v>
+        <v>436038</v>
       </c>
       <c r="F53" s="20"/>
       <c r="G53" s="2"/>
       <c r="H53" s="23"/>
     </row>
     <row r="54" spans="1:8">
-      <c r="A54" s="323"/>
+      <c r="A54" s="321"/>
       <c r="B54" s="28"/>
-      <c r="C54" s="277"/>
-      <c r="D54" s="277"/>
-      <c r="E54" s="279">
+      <c r="C54" s="276"/>
+      <c r="D54" s="276"/>
+      <c r="E54" s="278">
         <f t="shared" si="0"/>
-        <v>6038</v>
+        <v>436038</v>
       </c>
       <c r="F54" s="20"/>
       <c r="G54" s="2"/>
       <c r="H54" s="23"/>
     </row>
     <row r="55" spans="1:8">
-      <c r="A55" s="323"/>
+      <c r="A55" s="321"/>
       <c r="B55" s="28"/>
-      <c r="C55" s="277"/>
-      <c r="D55" s="277"/>
-      <c r="E55" s="279">
+      <c r="C55" s="276"/>
+      <c r="D55" s="276"/>
+      <c r="E55" s="278">
         <f t="shared" si="0"/>
-        <v>6038</v>
+        <v>436038</v>
       </c>
       <c r="F55" s="20"/>
       <c r="G55" s="2"/>
     </row>
     <row r="56" spans="1:8">
-      <c r="A56" s="323"/>
+      <c r="A56" s="321"/>
       <c r="B56" s="28"/>
-      <c r="C56" s="277"/>
-      <c r="D56" s="277"/>
-      <c r="E56" s="279">
+      <c r="C56" s="276"/>
+      <c r="D56" s="276"/>
+      <c r="E56" s="278">
         <f t="shared" si="0"/>
-        <v>6038</v>
+        <v>436038</v>
       </c>
       <c r="F56" s="20"/>
       <c r="G56" s="2"/>
     </row>
     <row r="57" spans="1:8">
-      <c r="A57" s="323"/>
+      <c r="A57" s="321"/>
       <c r="B57" s="28"/>
-      <c r="C57" s="277"/>
-      <c r="D57" s="277"/>
-      <c r="E57" s="279">
+      <c r="C57" s="276"/>
+      <c r="D57" s="276"/>
+      <c r="E57" s="278">
         <f t="shared" si="0"/>
-        <v>6038</v>
+        <v>436038</v>
       </c>
       <c r="F57" s="20"/>
       <c r="G57" s="2"/>
     </row>
     <row r="58" spans="1:8">
-      <c r="A58" s="323"/>
+      <c r="A58" s="321"/>
       <c r="B58" s="28"/>
-      <c r="C58" s="277"/>
-      <c r="D58" s="277"/>
-      <c r="E58" s="279">
+      <c r="C58" s="276"/>
+      <c r="D58" s="276"/>
+      <c r="E58" s="278">
         <f t="shared" si="0"/>
-        <v>6038</v>
+        <v>436038</v>
       </c>
       <c r="F58" s="20"/>
       <c r="G58" s="2"/>
     </row>
     <row r="59" spans="1:8">
-      <c r="A59" s="323"/>
+      <c r="A59" s="321"/>
       <c r="B59" s="28"/>
-      <c r="C59" s="277"/>
-      <c r="D59" s="277"/>
-      <c r="E59" s="279">
+      <c r="C59" s="276"/>
+      <c r="D59" s="276"/>
+      <c r="E59" s="278">
         <f t="shared" si="0"/>
-        <v>6038</v>
+        <v>436038</v>
       </c>
       <c r="F59" s="20"/>
       <c r="G59" s="2"/>
     </row>
     <row r="60" spans="1:8">
-      <c r="A60" s="323"/>
+      <c r="A60" s="321"/>
       <c r="B60" s="28"/>
-      <c r="C60" s="277"/>
-      <c r="D60" s="277"/>
-      <c r="E60" s="279">
+      <c r="C60" s="276"/>
+      <c r="D60" s="276"/>
+      <c r="E60" s="278">
         <f t="shared" si="0"/>
-        <v>6038</v>
+        <v>436038</v>
       </c>
       <c r="F60" s="20"/>
       <c r="G60" s="2"/>
     </row>
     <row r="61" spans="1:8">
-      <c r="A61" s="323"/>
+      <c r="A61" s="321"/>
       <c r="B61" s="28"/>
-      <c r="C61" s="277"/>
-      <c r="D61" s="277"/>
-      <c r="E61" s="279">
+      <c r="C61" s="276"/>
+      <c r="D61" s="276"/>
+      <c r="E61" s="278">
         <f t="shared" si="0"/>
-        <v>6038</v>
+        <v>436038</v>
       </c>
       <c r="F61" s="20"/>
       <c r="G61" s="2"/>
     </row>
     <row r="62" spans="1:8">
-      <c r="A62" s="323"/>
+      <c r="A62" s="321"/>
       <c r="B62" s="28"/>
-      <c r="C62" s="277"/>
-      <c r="D62" s="277"/>
-      <c r="E62" s="279">
+      <c r="C62" s="276"/>
+      <c r="D62" s="276"/>
+      <c r="E62" s="278">
         <f t="shared" si="0"/>
-        <v>6038</v>
+        <v>436038</v>
       </c>
       <c r="F62" s="20"/>
       <c r="G62" s="2"/>
     </row>
     <row r="63" spans="1:8">
-      <c r="A63" s="323"/>
+      <c r="A63" s="321"/>
       <c r="B63" s="28"/>
-      <c r="C63" s="277"/>
-      <c r="D63" s="277"/>
-      <c r="E63" s="279">
+      <c r="C63" s="276"/>
+      <c r="D63" s="276"/>
+      <c r="E63" s="278">
         <f t="shared" si="0"/>
-        <v>6038</v>
+        <v>436038</v>
       </c>
       <c r="F63" s="20"/>
       <c r="G63" s="2"/>
     </row>
     <row r="64" spans="1:8">
-      <c r="A64" s="323"/>
+      <c r="A64" s="321"/>
       <c r="B64" s="28"/>
-      <c r="C64" s="277"/>
-      <c r="D64" s="277"/>
-      <c r="E64" s="279">
+      <c r="C64" s="276"/>
+      <c r="D64" s="276"/>
+      <c r="E64" s="278">
         <f t="shared" si="0"/>
-        <v>6038</v>
+        <v>436038</v>
       </c>
       <c r="F64" s="20"/>
       <c r="G64" s="2"/>
     </row>
     <row r="65" spans="1:7">
-      <c r="A65" s="323"/>
+      <c r="A65" s="321"/>
       <c r="B65" s="28"/>
-      <c r="C65" s="277"/>
-      <c r="D65" s="277"/>
-      <c r="E65" s="279">
+      <c r="C65" s="276"/>
+      <c r="D65" s="276"/>
+      <c r="E65" s="278">
         <f t="shared" si="0"/>
-        <v>6038</v>
+        <v>436038</v>
       </c>
       <c r="F65" s="20"/>
       <c r="G65" s="2"/>
     </row>
     <row r="66" spans="1:7">
-      <c r="A66" s="323"/>
+      <c r="A66" s="321"/>
       <c r="B66" s="28"/>
-      <c r="C66" s="277"/>
-      <c r="D66" s="277"/>
-      <c r="E66" s="279">
+      <c r="C66" s="276"/>
+      <c r="D66" s="276"/>
+      <c r="E66" s="278">
         <f t="shared" si="0"/>
-        <v>6038</v>
+        <v>436038</v>
       </c>
       <c r="F66" s="20"/>
       <c r="G66" s="2"/>
     </row>
     <row r="67" spans="1:7">
-      <c r="A67" s="323"/>
+      <c r="A67" s="321"/>
       <c r="B67" s="28"/>
-      <c r="C67" s="277"/>
-      <c r="D67" s="277"/>
-      <c r="E67" s="279">
+      <c r="C67" s="276"/>
+      <c r="D67" s="276"/>
+      <c r="E67" s="278">
         <f t="shared" si="0"/>
-        <v>6038</v>
+        <v>436038</v>
       </c>
       <c r="F67" s="20"/>
       <c r="G67" s="2"/>
     </row>
     <row r="68" spans="1:7">
-      <c r="A68" s="323"/>
+      <c r="A68" s="321"/>
       <c r="B68" s="28"/>
-      <c r="C68" s="277"/>
-      <c r="D68" s="277"/>
-      <c r="E68" s="279">
+      <c r="C68" s="276"/>
+      <c r="D68" s="276"/>
+      <c r="E68" s="278">
         <f t="shared" si="0"/>
-        <v>6038</v>
+        <v>436038</v>
       </c>
       <c r="F68" s="20"/>
       <c r="G68" s="2"/>
     </row>
     <row r="69" spans="1:7">
-      <c r="A69" s="323"/>
+      <c r="A69" s="321"/>
       <c r="B69" s="28"/>
-      <c r="C69" s="277"/>
-      <c r="D69" s="277"/>
-      <c r="E69" s="279">
+      <c r="C69" s="276"/>
+      <c r="D69" s="276"/>
+      <c r="E69" s="278">
         <f t="shared" si="0"/>
-        <v>6038</v>
+        <v>436038</v>
       </c>
       <c r="F69" s="20"/>
       <c r="G69" s="2"/>
     </row>
     <row r="70" spans="1:7">
-      <c r="A70" s="323"/>
+      <c r="A70" s="321"/>
       <c r="B70" s="28"/>
-      <c r="C70" s="277"/>
-      <c r="D70" s="277"/>
-      <c r="E70" s="279">
+      <c r="C70" s="276"/>
+      <c r="D70" s="276"/>
+      <c r="E70" s="278">
         <f t="shared" ref="E70:E82" si="1">E69+C70-D70</f>
-        <v>6038</v>
+        <v>436038</v>
       </c>
       <c r="F70" s="20"/>
       <c r="G70" s="2"/>
     </row>
     <row r="71" spans="1:7">
-      <c r="A71" s="323"/>
+      <c r="A71" s="321"/>
       <c r="B71" s="28"/>
-      <c r="C71" s="277"/>
-      <c r="D71" s="277"/>
-      <c r="E71" s="279">
+      <c r="C71" s="276"/>
+      <c r="D71" s="276"/>
+      <c r="E71" s="278">
         <f t="shared" si="1"/>
-        <v>6038</v>
+        <v>436038</v>
       </c>
       <c r="F71" s="20"/>
       <c r="G71" s="2"/>
     </row>
     <row r="72" spans="1:7">
-      <c r="A72" s="323"/>
+      <c r="A72" s="321"/>
       <c r="B72" s="28"/>
-      <c r="C72" s="277"/>
-      <c r="D72" s="277"/>
-      <c r="E72" s="279">
+      <c r="C72" s="276"/>
+      <c r="D72" s="276"/>
+      <c r="E72" s="278">
         <f t="shared" si="1"/>
-        <v>6038</v>
+        <v>436038</v>
       </c>
       <c r="F72" s="20"/>
       <c r="G72" s="2"/>
     </row>
     <row r="73" spans="1:7">
-      <c r="A73" s="323"/>
+      <c r="A73" s="321"/>
       <c r="B73" s="28"/>
-      <c r="C73" s="277"/>
-      <c r="D73" s="277"/>
-      <c r="E73" s="279">
+      <c r="C73" s="276"/>
+      <c r="D73" s="276"/>
+      <c r="E73" s="278">
         <f t="shared" si="1"/>
-        <v>6038</v>
+        <v>436038</v>
       </c>
       <c r="F73" s="20"/>
       <c r="G73" s="2"/>
     </row>
     <row r="74" spans="1:7">
-      <c r="A74" s="323"/>
+      <c r="A74" s="321"/>
       <c r="B74" s="28"/>
-      <c r="C74" s="277"/>
-      <c r="D74" s="277"/>
-      <c r="E74" s="279">
+      <c r="C74" s="276"/>
+      <c r="D74" s="276"/>
+      <c r="E74" s="278">
         <f t="shared" si="1"/>
-        <v>6038</v>
+        <v>436038</v>
       </c>
       <c r="F74" s="20"/>
       <c r="G74" s="2"/>
     </row>
     <row r="75" spans="1:7">
-      <c r="A75" s="323"/>
+      <c r="A75" s="321"/>
       <c r="B75" s="28"/>
-      <c r="C75" s="277"/>
-      <c r="D75" s="277"/>
-      <c r="E75" s="279">
+      <c r="C75" s="276"/>
+      <c r="D75" s="276"/>
+      <c r="E75" s="278">
         <f t="shared" si="1"/>
-        <v>6038</v>
+        <v>436038</v>
       </c>
       <c r="F75" s="22"/>
       <c r="G75" s="2"/>
     </row>
     <row r="76" spans="1:7">
-      <c r="A76" s="323"/>
+      <c r="A76" s="321"/>
       <c r="B76" s="28"/>
-      <c r="C76" s="277"/>
-      <c r="D76" s="277"/>
-      <c r="E76" s="279">
+      <c r="C76" s="276"/>
+      <c r="D76" s="276"/>
+      <c r="E76" s="278">
         <f t="shared" si="1"/>
-        <v>6038</v>
+        <v>436038</v>
       </c>
       <c r="F76" s="20"/>
       <c r="G76" s="2"/>
     </row>
     <row r="77" spans="1:7">
-      <c r="A77" s="323"/>
+      <c r="A77" s="321"/>
       <c r="B77" s="28"/>
-      <c r="C77" s="277"/>
-      <c r="D77" s="277"/>
-      <c r="E77" s="279">
+      <c r="C77" s="276"/>
+      <c r="D77" s="276"/>
+      <c r="E77" s="278">
         <f t="shared" si="1"/>
-        <v>6038</v>
+        <v>436038</v>
       </c>
       <c r="F77" s="20"/>
       <c r="G77" s="2"/>
     </row>
     <row r="78" spans="1:7">
-      <c r="A78" s="323"/>
+      <c r="A78" s="321"/>
       <c r="B78" s="28"/>
-      <c r="C78" s="277"/>
-      <c r="D78" s="277"/>
-      <c r="E78" s="279">
+      <c r="C78" s="276"/>
+      <c r="D78" s="276"/>
+      <c r="E78" s="278">
         <f t="shared" si="1"/>
-        <v>6038</v>
+        <v>436038</v>
       </c>
       <c r="F78" s="20"/>
       <c r="G78" s="2"/>
     </row>
     <row r="79" spans="1:7">
-      <c r="A79" s="323"/>
+      <c r="A79" s="321"/>
       <c r="B79" s="28"/>
-      <c r="C79" s="277"/>
-      <c r="D79" s="277"/>
-      <c r="E79" s="279">
+      <c r="C79" s="276"/>
+      <c r="D79" s="276"/>
+      <c r="E79" s="278">
         <f t="shared" si="1"/>
-        <v>6038</v>
+        <v>436038</v>
       </c>
       <c r="F79" s="20"/>
       <c r="G79" s="2"/>
     </row>
     <row r="80" spans="1:7">
-      <c r="A80" s="323"/>
+      <c r="A80" s="321"/>
       <c r="B80" s="28"/>
-      <c r="C80" s="277"/>
-      <c r="D80" s="277"/>
-      <c r="E80" s="279">
+      <c r="C80" s="276"/>
+      <c r="D80" s="276"/>
+      <c r="E80" s="278">
         <f t="shared" si="1"/>
-        <v>6038</v>
+        <v>436038</v>
       </c>
       <c r="F80" s="20"/>
       <c r="G80" s="2"/>
     </row>
     <row r="81" spans="1:7">
-      <c r="A81" s="323"/>
+      <c r="A81" s="321"/>
       <c r="B81" s="28"/>
-      <c r="C81" s="277"/>
-      <c r="D81" s="277"/>
-      <c r="E81" s="279">
+      <c r="C81" s="276"/>
+      <c r="D81" s="276"/>
+      <c r="E81" s="278">
         <f t="shared" si="1"/>
-        <v>6038</v>
+        <v>436038</v>
       </c>
       <c r="F81" s="20"/>
       <c r="G81" s="2"/>
     </row>
     <row r="82" spans="1:7">
-      <c r="A82" s="323"/>
+      <c r="A82" s="321"/>
       <c r="B82" s="28"/>
-      <c r="C82" s="277"/>
-      <c r="D82" s="277"/>
-      <c r="E82" s="279">
+      <c r="C82" s="276"/>
+      <c r="D82" s="276"/>
+      <c r="E82" s="278">
         <f t="shared" si="1"/>
-        <v>6038</v>
+        <v>436038</v>
       </c>
       <c r="F82" s="20"/>
       <c r="G82" s="2"/>
     </row>
     <row r="83" spans="1:7">
-      <c r="A83" s="323"/>
+      <c r="A83" s="321"/>
       <c r="B83" s="33"/>
-      <c r="C83" s="279">
+      <c r="C83" s="278">
         <f>SUM(C5:C72)</f>
-        <v>2701038</v>
-      </c>
-      <c r="D83" s="279">
+        <v>3631038</v>
+      </c>
+      <c r="D83" s="278">
         <f>SUM(D5:D77)</f>
-        <v>2695000</v>
-      </c>
-      <c r="E83" s="281">
+        <v>3195000</v>
+      </c>
+      <c r="E83" s="280">
         <f>E71</f>
-        <v>6038</v>
+        <v>436038</v>
       </c>
       <c r="F83" s="21"/>
       <c r="G83" s="2"/>
@@ -6150,7 +6147,7 @@
   <dimension ref="A1:X320"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="5" topLeftCell="A30" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="5" topLeftCell="A24" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="Q37" sqref="Q37"/>
     </sheetView>
   </sheetViews>
@@ -6165,67 +6162,67 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" ht="23.25">
-      <c r="A1" s="328" t="s">
+      <c r="A1" s="322" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="328"/>
-      <c r="C1" s="328"/>
-      <c r="D1" s="328"/>
-      <c r="E1" s="328"/>
-      <c r="F1" s="328"/>
-      <c r="G1" s="328"/>
-      <c r="H1" s="328"/>
-      <c r="I1" s="328"/>
-      <c r="J1" s="328"/>
-      <c r="K1" s="328"/>
-      <c r="L1" s="328"/>
-      <c r="M1" s="328"/>
-      <c r="N1" s="328"/>
-      <c r="O1" s="328"/>
-      <c r="P1" s="328"/>
-      <c r="Q1" s="328"/>
+      <c r="B1" s="322"/>
+      <c r="C1" s="322"/>
+      <c r="D1" s="322"/>
+      <c r="E1" s="322"/>
+      <c r="F1" s="322"/>
+      <c r="G1" s="322"/>
+      <c r="H1" s="322"/>
+      <c r="I1" s="322"/>
+      <c r="J1" s="322"/>
+      <c r="K1" s="322"/>
+      <c r="L1" s="322"/>
+      <c r="M1" s="322"/>
+      <c r="N1" s="322"/>
+      <c r="O1" s="322"/>
+      <c r="P1" s="322"/>
+      <c r="Q1" s="322"/>
     </row>
     <row r="2" spans="1:24" s="74" customFormat="1" ht="18">
-      <c r="A2" s="329" t="s">
+      <c r="A2" s="323" t="s">
         <v>138</v>
       </c>
-      <c r="B2" s="329"/>
-      <c r="C2" s="329"/>
-      <c r="D2" s="329"/>
-      <c r="E2" s="329"/>
-      <c r="F2" s="329"/>
-      <c r="G2" s="329"/>
-      <c r="H2" s="329"/>
-      <c r="I2" s="329"/>
-      <c r="J2" s="329"/>
-      <c r="K2" s="329"/>
-      <c r="L2" s="329"/>
-      <c r="M2" s="329"/>
-      <c r="N2" s="329"/>
-      <c r="O2" s="329"/>
-      <c r="P2" s="329"/>
-      <c r="Q2" s="329"/>
+      <c r="B2" s="323"/>
+      <c r="C2" s="323"/>
+      <c r="D2" s="323"/>
+      <c r="E2" s="323"/>
+      <c r="F2" s="323"/>
+      <c r="G2" s="323"/>
+      <c r="H2" s="323"/>
+      <c r="I2" s="323"/>
+      <c r="J2" s="323"/>
+      <c r="K2" s="323"/>
+      <c r="L2" s="323"/>
+      <c r="M2" s="323"/>
+      <c r="N2" s="323"/>
+      <c r="O2" s="323"/>
+      <c r="P2" s="323"/>
+      <c r="Q2" s="323"/>
     </row>
     <row r="3" spans="1:24" s="75" customFormat="1" ht="16.5" thickBot="1">
-      <c r="A3" s="330" t="s">
+      <c r="A3" s="324" t="s">
         <v>180</v>
       </c>
-      <c r="B3" s="331"/>
-      <c r="C3" s="331"/>
-      <c r="D3" s="331"/>
-      <c r="E3" s="331"/>
-      <c r="F3" s="331"/>
-      <c r="G3" s="331"/>
-      <c r="H3" s="331"/>
-      <c r="I3" s="331"/>
-      <c r="J3" s="331"/>
-      <c r="K3" s="331"/>
-      <c r="L3" s="331"/>
-      <c r="M3" s="331"/>
-      <c r="N3" s="331"/>
-      <c r="O3" s="331"/>
-      <c r="P3" s="331"/>
-      <c r="Q3" s="332"/>
+      <c r="B3" s="325"/>
+      <c r="C3" s="325"/>
+      <c r="D3" s="325"/>
+      <c r="E3" s="325"/>
+      <c r="F3" s="325"/>
+      <c r="G3" s="325"/>
+      <c r="H3" s="325"/>
+      <c r="I3" s="325"/>
+      <c r="J3" s="325"/>
+      <c r="K3" s="325"/>
+      <c r="L3" s="325"/>
+      <c r="M3" s="325"/>
+      <c r="N3" s="325"/>
+      <c r="O3" s="325"/>
+      <c r="P3" s="325"/>
+      <c r="Q3" s="326"/>
       <c r="S3" s="58"/>
       <c r="T3" s="8"/>
       <c r="U3" s="8"/>
@@ -6234,52 +6231,52 @@
       <c r="X3" s="18"/>
     </row>
     <row r="4" spans="1:24" s="76" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A4" s="333" t="s">
+      <c r="A4" s="327" t="s">
         <v>36</v>
       </c>
-      <c r="B4" s="335" t="s">
+      <c r="B4" s="329" t="s">
         <v>37</v>
       </c>
-      <c r="C4" s="324" t="s">
+      <c r="C4" s="331" t="s">
         <v>38</v>
       </c>
-      <c r="D4" s="324" t="s">
+      <c r="D4" s="331" t="s">
         <v>39</v>
       </c>
-      <c r="E4" s="324" t="s">
+      <c r="E4" s="331" t="s">
         <v>40</v>
       </c>
-      <c r="F4" s="324" t="s">
+      <c r="F4" s="331" t="s">
         <v>148</v>
       </c>
-      <c r="G4" s="324" t="s">
+      <c r="G4" s="331" t="s">
         <v>41</v>
       </c>
-      <c r="H4" s="324" t="s">
+      <c r="H4" s="331" t="s">
         <v>190</v>
       </c>
-      <c r="I4" s="324" t="s">
+      <c r="I4" s="331" t="s">
         <v>191</v>
       </c>
-      <c r="J4" s="324" t="s">
+      <c r="J4" s="331" t="s">
         <v>42</v>
       </c>
-      <c r="K4" s="324" t="s">
+      <c r="K4" s="331" t="s">
         <v>43</v>
       </c>
-      <c r="L4" s="324" t="s">
+      <c r="L4" s="331" t="s">
         <v>44</v>
       </c>
-      <c r="M4" s="324" t="s">
+      <c r="M4" s="331" t="s">
         <v>45</v>
       </c>
-      <c r="N4" s="324" t="s">
+      <c r="N4" s="331" t="s">
         <v>46</v>
       </c>
-      <c r="O4" s="326" t="s">
+      <c r="O4" s="335" t="s">
         <v>47</v>
       </c>
-      <c r="P4" s="337" t="s">
+      <c r="P4" s="333" t="s">
         <v>73</v>
       </c>
       <c r="Q4" s="137" t="s">
@@ -6292,22 +6289,22 @@
       <c r="W4" s="78"/>
     </row>
     <row r="5" spans="1:24" s="76" customFormat="1" ht="13.5" thickBot="1">
-      <c r="A5" s="334"/>
-      <c r="B5" s="336"/>
-      <c r="C5" s="325"/>
-      <c r="D5" s="325"/>
-      <c r="E5" s="325"/>
-      <c r="F5" s="325"/>
-      <c r="G5" s="325"/>
-      <c r="H5" s="325"/>
-      <c r="I5" s="325"/>
-      <c r="J5" s="325"/>
-      <c r="K5" s="325"/>
-      <c r="L5" s="325"/>
-      <c r="M5" s="325"/>
-      <c r="N5" s="325"/>
-      <c r="O5" s="327"/>
-      <c r="P5" s="338"/>
+      <c r="A5" s="328"/>
+      <c r="B5" s="330"/>
+      <c r="C5" s="332"/>
+      <c r="D5" s="332"/>
+      <c r="E5" s="332"/>
+      <c r="F5" s="332"/>
+      <c r="G5" s="332"/>
+      <c r="H5" s="332"/>
+      <c r="I5" s="332"/>
+      <c r="J5" s="332"/>
+      <c r="K5" s="332"/>
+      <c r="L5" s="332"/>
+      <c r="M5" s="332"/>
+      <c r="N5" s="332"/>
+      <c r="O5" s="336"/>
+      <c r="P5" s="334"/>
       <c r="Q5" s="138" t="s">
         <v>48</v>
       </c>
@@ -6466,7 +6463,7 @@
         <v>2360</v>
       </c>
       <c r="I9" s="92">
-        <v>1826</v>
+        <v>1856</v>
       </c>
       <c r="J9" s="93">
         <v>40</v>
@@ -6483,7 +6480,7 @@
       <c r="P9" s="94"/>
       <c r="Q9" s="88">
         <f t="shared" si="0"/>
-        <v>6126</v>
+        <v>6156</v>
       </c>
       <c r="R9" s="89"/>
       <c r="S9" s="10"/>
@@ -6494,7 +6491,7 @@
     </row>
     <row r="10" spans="1:24" s="14" customFormat="1">
       <c r="A10" s="83" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B10" s="91">
         <v>500</v>
@@ -6534,7 +6531,7 @@
     </row>
     <row r="11" spans="1:24" s="14" customFormat="1">
       <c r="A11" s="83" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B11" s="91">
         <v>1350</v>
@@ -6578,7 +6575,7 @@
     </row>
     <row r="12" spans="1:24" s="14" customFormat="1">
       <c r="A12" s="83" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B12" s="91">
         <v>500</v>
@@ -6620,7 +6617,7 @@
     </row>
     <row r="13" spans="1:24" s="14" customFormat="1">
       <c r="A13" s="83" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="B13" s="91">
         <v>1200</v>
@@ -6666,7 +6663,7 @@
     </row>
     <row r="14" spans="1:24" s="14" customFormat="1">
       <c r="A14" s="83" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="B14" s="91">
         <v>550</v>
@@ -6707,17 +6704,27 @@
       <c r="W14" s="5"/>
     </row>
     <row r="15" spans="1:24" s="14" customFormat="1">
-      <c r="A15" s="83"/>
-      <c r="B15" s="91"/>
+      <c r="A15" s="83" t="s">
+        <v>222</v>
+      </c>
+      <c r="B15" s="91">
+        <v>900</v>
+      </c>
       <c r="C15" s="84"/>
       <c r="D15" s="92"/>
       <c r="E15" s="92"/>
       <c r="F15" s="92"/>
-      <c r="G15" s="92"/>
+      <c r="G15" s="92">
+        <v>180</v>
+      </c>
       <c r="H15" s="92"/>
       <c r="I15" s="92"/>
-      <c r="J15" s="92"/>
-      <c r="K15" s="92"/>
+      <c r="J15" s="92">
+        <v>30</v>
+      </c>
+      <c r="K15" s="92">
+        <v>480</v>
+      </c>
       <c r="L15" s="85"/>
       <c r="M15" s="92"/>
       <c r="N15" s="123"/>
@@ -6725,7 +6732,7 @@
       <c r="P15" s="94"/>
       <c r="Q15" s="88">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1590</v>
       </c>
       <c r="R15" s="89"/>
       <c r="S15" s="7"/>
@@ -7268,7 +7275,7 @@
       </c>
       <c r="B37" s="109">
         <f>SUM(B6:B36)</f>
-        <v>8050</v>
+        <v>8950</v>
       </c>
       <c r="C37" s="110">
         <f t="shared" ref="C37:P37" si="1">SUM(C6:C36)</f>
@@ -7288,7 +7295,7 @@
       </c>
       <c r="G37" s="110">
         <f>SUM(G6:G36)</f>
-        <v>2770</v>
+        <v>2950</v>
       </c>
       <c r="H37" s="110">
         <f t="shared" si="1"/>
@@ -7296,15 +7303,15 @@
       </c>
       <c r="I37" s="110">
         <f t="shared" si="1"/>
-        <v>1826</v>
+        <v>1856</v>
       </c>
       <c r="J37" s="110">
         <f t="shared" si="1"/>
-        <v>300</v>
+        <v>330</v>
       </c>
       <c r="K37" s="110">
         <f t="shared" si="1"/>
-        <v>4350</v>
+        <v>4830</v>
       </c>
       <c r="L37" s="110">
         <f t="shared" si="1"/>
@@ -7328,9 +7335,9 @@
       </c>
       <c r="Q37" s="112">
         <f>SUM(Q6:Q36)</f>
-        <v>23531</v>
-      </c>
-      <c r="S37" s="244" t="s">
+        <v>25151</v>
+      </c>
+      <c r="S37" s="243" t="s">
         <v>55</v>
       </c>
     </row>
@@ -7393,8 +7400,8 @@
       <c r="D43" s="118"/>
       <c r="E43" s="118"/>
     </row>
-    <row r="44" spans="1:19" s="295" customFormat="1">
-      <c r="A44" s="295" t="s">
+    <row r="44" spans="1:19" s="294" customFormat="1">
+      <c r="A44" s="294" t="s">
         <v>153</v>
       </c>
     </row>
@@ -9332,6 +9339,7 @@
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
     <mergeCell ref="A1:Q1"/>
@@ -9350,7 +9358,6 @@
     <mergeCell ref="J4:J5"/>
     <mergeCell ref="K4:K5"/>
     <mergeCell ref="L4:L5"/>
-    <mergeCell ref="M4:M5"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0" right="0" top="0.39370078740157483" bottom="0" header="0" footer="0"/>
@@ -9392,14 +9399,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:97" ht="19.5">
-      <c r="A1" s="343" t="s">
+      <c r="A1" s="341" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="344"/>
-      <c r="C1" s="344"/>
-      <c r="D1" s="344"/>
-      <c r="E1" s="344"/>
-      <c r="F1" s="345"/>
+      <c r="B1" s="342"/>
+      <c r="C1" s="342"/>
+      <c r="D1" s="342"/>
+      <c r="E1" s="342"/>
+      <c r="F1" s="343"/>
       <c r="G1" s="69"/>
       <c r="H1" s="69"/>
       <c r="I1" s="154"/>
@@ -9493,14 +9500,14 @@
       <c r="CS1" s="149"/>
     </row>
     <row r="2" spans="1:97" ht="15" customHeight="1">
-      <c r="A2" s="346" t="s">
+      <c r="A2" s="344" t="s">
         <v>181</v>
       </c>
-      <c r="B2" s="347"/>
-      <c r="C2" s="347"/>
-      <c r="D2" s="347"/>
-      <c r="E2" s="347"/>
-      <c r="F2" s="348"/>
+      <c r="B2" s="345"/>
+      <c r="C2" s="345"/>
+      <c r="D2" s="345"/>
+      <c r="E2" s="345"/>
+      <c r="F2" s="346"/>
       <c r="G2" s="69"/>
       <c r="H2" s="69"/>
       <c r="I2" s="154"/>
@@ -9594,14 +9601,14 @@
       <c r="CS2" s="149"/>
     </row>
     <row r="3" spans="1:97" ht="13.5" thickBot="1">
-      <c r="A3" s="349" t="s">
+      <c r="A3" s="347" t="s">
         <v>119</v>
       </c>
-      <c r="B3" s="350"/>
-      <c r="C3" s="350"/>
-      <c r="D3" s="350"/>
-      <c r="E3" s="350"/>
-      <c r="F3" s="351"/>
+      <c r="B3" s="348"/>
+      <c r="C3" s="348"/>
+      <c r="D3" s="348"/>
+      <c r="E3" s="348"/>
+      <c r="F3" s="349"/>
       <c r="G3" s="69"/>
       <c r="H3" s="69"/>
       <c r="I3" s="154"/>
@@ -9695,25 +9702,25 @@
       <c r="CS3" s="149"/>
     </row>
     <row r="4" spans="1:97" ht="16.5" thickBot="1">
-      <c r="A4" s="283" t="s">
+      <c r="A4" s="282" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="218" t="s">
+      <c r="B4" s="217" t="s">
         <v>21</v>
       </c>
-      <c r="C4" s="217" t="s">
+      <c r="C4" s="216" t="s">
         <v>22</v>
       </c>
-      <c r="D4" s="218" t="s">
+      <c r="D4" s="217" t="s">
         <v>23</v>
       </c>
-      <c r="E4" s="218" t="s">
+      <c r="E4" s="217" t="s">
         <v>24</v>
       </c>
-      <c r="F4" s="218" t="s">
+      <c r="F4" s="217" t="s">
         <v>1</v>
       </c>
-      <c r="G4" s="282" t="s">
+      <c r="G4" s="281" t="s">
         <v>151</v>
       </c>
       <c r="H4" s="69"/>
@@ -9814,7 +9821,7 @@
       <c r="B5" s="56">
         <v>299550</v>
       </c>
-      <c r="C5" s="206">
+      <c r="C5" s="205">
         <v>294890</v>
       </c>
       <c r="D5" s="56">
@@ -9824,8 +9831,8 @@
         <f>C5+D5</f>
         <v>296660</v>
       </c>
-      <c r="F5" s="245"/>
-      <c r="G5" s="261">
+      <c r="F5" s="244"/>
+      <c r="G5" s="260">
         <v>300</v>
       </c>
       <c r="H5" s="154"/>
@@ -9936,8 +9943,8 @@
         <f t="shared" ref="E6:E32" si="0">C6+D6</f>
         <v>408530</v>
       </c>
-      <c r="F6" s="246"/>
-      <c r="G6" s="262">
+      <c r="F6" s="245"/>
+      <c r="G6" s="261">
         <v>2100</v>
       </c>
       <c r="H6" s="162"/>
@@ -10048,8 +10055,8 @@
         <f t="shared" si="0"/>
         <v>365110</v>
       </c>
-      <c r="F7" s="246"/>
-      <c r="G7" s="262">
+      <c r="F7" s="245"/>
+      <c r="G7" s="261">
         <v>3150</v>
       </c>
       <c r="H7" s="162"/>
@@ -10160,8 +10167,8 @@
         <f t="shared" si="0"/>
         <v>1049456</v>
       </c>
-      <c r="F8" s="247"/>
-      <c r="G8" s="261">
+      <c r="F8" s="246"/>
+      <c r="G8" s="260">
         <v>900</v>
       </c>
       <c r="H8" s="154"/>
@@ -10257,7 +10264,7 @@
     </row>
     <row r="9" spans="1:97">
       <c r="A9" s="194" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B9" s="57">
         <v>413530</v>
@@ -10272,8 +10279,8 @@
         <f t="shared" si="0"/>
         <v>258920</v>
       </c>
-      <c r="F9" s="248"/>
-      <c r="G9" s="261">
+      <c r="F9" s="247"/>
+      <c r="G9" s="260">
         <v>4000</v>
       </c>
       <c r="H9" s="154"/>
@@ -10369,7 +10376,7 @@
     </row>
     <row r="10" spans="1:97">
       <c r="A10" s="194" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B10" s="57">
         <v>286370</v>
@@ -10384,8 +10391,8 @@
         <f t="shared" si="0"/>
         <v>314950</v>
       </c>
-      <c r="F10" s="249"/>
-      <c r="G10" s="261">
+      <c r="F10" s="248"/>
+      <c r="G10" s="260">
         <v>850</v>
       </c>
       <c r="H10" s="154"/>
@@ -10481,7 +10488,7 @@
     </row>
     <row r="11" spans="1:97">
       <c r="A11" s="194" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B11" s="57">
         <v>655560</v>
@@ -10496,8 +10503,8 @@
         <f t="shared" si="0"/>
         <v>282890</v>
       </c>
-      <c r="F11" s="247"/>
-      <c r="G11" s="261">
+      <c r="F11" s="246"/>
+      <c r="G11" s="260">
         <v>4400</v>
       </c>
       <c r="H11" s="159"/>
@@ -10593,7 +10600,7 @@
     </row>
     <row r="12" spans="1:97">
       <c r="A12" s="194" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="B12" s="57">
         <v>415190</v>
@@ -10608,8 +10615,8 @@
         <f t="shared" si="0"/>
         <v>454090</v>
       </c>
-      <c r="F12" s="247"/>
-      <c r="G12" s="261">
+      <c r="F12" s="246"/>
+      <c r="G12" s="260">
         <v>900</v>
       </c>
       <c r="H12" s="159"/>
@@ -10705,7 +10712,7 @@
     </row>
     <row r="13" spans="1:97">
       <c r="A13" s="194" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="B13" s="57">
         <v>378010</v>
@@ -10720,8 +10727,8 @@
         <f t="shared" si="0"/>
         <v>365170</v>
       </c>
-      <c r="F13" s="249"/>
-      <c r="G13" s="261">
+      <c r="F13" s="248"/>
+      <c r="G13" s="260">
         <v>2000</v>
       </c>
       <c r="H13" s="154"/>
@@ -10816,16 +10823,26 @@
       <c r="CS13" s="149"/>
     </row>
     <row r="14" spans="1:97">
-      <c r="A14" s="194"/>
-      <c r="B14" s="57"/>
-      <c r="C14" s="60"/>
-      <c r="D14" s="57"/>
+      <c r="A14" s="194" t="s">
+        <v>222</v>
+      </c>
+      <c r="B14" s="57">
+        <v>388440</v>
+      </c>
+      <c r="C14" s="60">
+        <v>365780</v>
+      </c>
+      <c r="D14" s="57">
+        <v>1590</v>
+      </c>
       <c r="E14" s="57">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F14" s="248"/>
-      <c r="G14" s="261"/>
+        <v>367370</v>
+      </c>
+      <c r="F14" s="247"/>
+      <c r="G14" s="260">
+        <v>1750</v>
+      </c>
       <c r="H14" s="154"/>
       <c r="I14" s="159"/>
       <c r="J14" s="159"/>
@@ -10926,8 +10943,8 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F15" s="247"/>
-      <c r="G15" s="261"/>
+      <c r="F15" s="246"/>
+      <c r="G15" s="260"/>
       <c r="H15" s="159"/>
       <c r="I15" s="159"/>
       <c r="J15" s="159"/>
@@ -11028,8 +11045,8 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F16" s="247"/>
-      <c r="G16" s="261"/>
+      <c r="F16" s="246"/>
+      <c r="G16" s="260"/>
       <c r="H16" s="159"/>
       <c r="I16" s="159"/>
       <c r="J16" s="159"/>
@@ -11130,8 +11147,8 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F17" s="246"/>
-      <c r="G17" s="262"/>
+      <c r="F17" s="245"/>
+      <c r="G17" s="261"/>
       <c r="H17" s="162"/>
       <c r="I17" s="159"/>
       <c r="J17" s="159"/>
@@ -11232,8 +11249,8 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F18" s="249"/>
-      <c r="G18" s="261"/>
+      <c r="F18" s="248"/>
+      <c r="G18" s="260"/>
       <c r="H18" s="154"/>
       <c r="I18" s="159"/>
       <c r="J18" s="159"/>
@@ -11334,8 +11351,8 @@
         <f>C19+D19</f>
         <v>0</v>
       </c>
-      <c r="F19" s="248"/>
-      <c r="G19" s="261"/>
+      <c r="F19" s="247"/>
+      <c r="G19" s="260"/>
       <c r="H19" s="154"/>
       <c r="I19" s="159"/>
       <c r="J19" s="159"/>
@@ -11436,8 +11453,8 @@
         <f t="shared" ref="E20:E23" si="1">C20+D20</f>
         <v>0</v>
       </c>
-      <c r="F20" s="246"/>
-      <c r="G20" s="261"/>
+      <c r="F20" s="245"/>
+      <c r="G20" s="260"/>
       <c r="H20" s="154"/>
       <c r="I20" s="159"/>
       <c r="J20" s="159"/>
@@ -11538,8 +11555,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F21" s="246"/>
-      <c r="G21" s="261"/>
+      <c r="F21" s="245"/>
+      <c r="G21" s="260"/>
       <c r="H21" s="154"/>
       <c r="I21" s="159"/>
       <c r="J21" s="159"/>
@@ -11640,8 +11657,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F22" s="246"/>
-      <c r="G22" s="261"/>
+      <c r="F22" s="245"/>
+      <c r="G22" s="260"/>
       <c r="H22" s="154"/>
       <c r="I22" s="159"/>
       <c r="J22" s="159"/>
@@ -11742,8 +11759,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F23" s="246"/>
-      <c r="G23" s="262"/>
+      <c r="F23" s="245"/>
+      <c r="G23" s="261"/>
       <c r="H23" s="162"/>
       <c r="I23" s="159"/>
       <c r="J23" s="159"/>
@@ -11844,8 +11861,8 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F24" s="246"/>
-      <c r="G24" s="262"/>
+      <c r="F24" s="245"/>
+      <c r="G24" s="261"/>
       <c r="H24" s="162"/>
       <c r="I24" s="159"/>
       <c r="J24" s="159"/>
@@ -11946,8 +11963,8 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F25" s="248"/>
-      <c r="G25" s="261"/>
+      <c r="F25" s="247"/>
+      <c r="G25" s="260"/>
       <c r="H25" s="154"/>
       <c r="I25" s="159"/>
       <c r="J25" s="159"/>
@@ -12048,8 +12065,8 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F26" s="250"/>
-      <c r="G26" s="261"/>
+      <c r="F26" s="249"/>
+      <c r="G26" s="260"/>
       <c r="H26" s="154"/>
       <c r="I26" s="159"/>
       <c r="J26" s="159"/>
@@ -12150,8 +12167,8 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F27" s="248"/>
-      <c r="G27" s="261"/>
+      <c r="F27" s="247"/>
+      <c r="G27" s="260"/>
       <c r="H27" s="154"/>
       <c r="I27" s="159"/>
       <c r="J27" s="159"/>
@@ -12252,8 +12269,8 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F28" s="248"/>
-      <c r="G28" s="261"/>
+      <c r="F28" s="247"/>
+      <c r="G28" s="260"/>
       <c r="H28" s="154"/>
       <c r="I28" s="159"/>
       <c r="J28" s="159"/>
@@ -12354,8 +12371,8 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F29" s="248"/>
-      <c r="G29" s="261"/>
+      <c r="F29" s="247"/>
+      <c r="G29" s="260"/>
       <c r="H29" s="154"/>
       <c r="I29" s="159"/>
       <c r="J29" s="159"/>
@@ -12456,8 +12473,8 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F30" s="247"/>
-      <c r="G30" s="263"/>
+      <c r="F30" s="246"/>
+      <c r="G30" s="262"/>
       <c r="H30" s="152"/>
       <c r="I30" s="171"/>
       <c r="J30" s="152"/>
@@ -12558,8 +12575,8 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F31" s="247"/>
-      <c r="G31" s="264"/>
+      <c r="F31" s="246"/>
+      <c r="G31" s="263"/>
       <c r="H31" s="152"/>
       <c r="I31" s="171"/>
       <c r="J31" s="172"/>
@@ -12652,16 +12669,16 @@
       <c r="CS31" s="149"/>
     </row>
     <row r="32" spans="1:97" ht="13.5" thickBot="1">
-      <c r="A32" s="199"/>
+      <c r="A32" s="198"/>
       <c r="B32" s="141"/>
-      <c r="C32" s="260"/>
+      <c r="C32" s="259"/>
       <c r="D32" s="141"/>
       <c r="E32" s="141">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F32" s="251"/>
-      <c r="G32" s="264"/>
+      <c r="F32" s="250"/>
+      <c r="G32" s="263"/>
       <c r="H32" s="163"/>
       <c r="I32" s="151"/>
       <c r="J32" s="172"/>
@@ -12754,30 +12771,30 @@
       <c r="CS32" s="149"/>
     </row>
     <row r="33" spans="1:97" ht="13.5" thickBot="1">
-      <c r="A33" s="217" t="s">
+      <c r="A33" s="216" t="s">
         <v>4</v>
       </c>
-      <c r="B33" s="284">
+      <c r="B33" s="283">
         <f>SUM(B5:B32)</f>
-        <v>3658870</v>
-      </c>
-      <c r="C33" s="285">
+        <v>4047310</v>
+      </c>
+      <c r="C33" s="284">
         <f>SUM(C5:C32)</f>
-        <v>3774891</v>
-      </c>
-      <c r="D33" s="284">
+        <v>4140671</v>
+      </c>
+      <c r="D33" s="283">
         <f>SUM(D5:D32)</f>
-        <v>20885</v>
-      </c>
-      <c r="E33" s="284">
+        <v>22475</v>
+      </c>
+      <c r="E33" s="283">
         <f>SUM(E5:E32)</f>
-        <v>3795776</v>
-      </c>
-      <c r="F33" s="284">
+        <v>4163146</v>
+      </c>
+      <c r="F33" s="283">
         <f>B33-E33</f>
-        <v>-136906</v>
-      </c>
-      <c r="G33" s="286"/>
+        <v>-115836</v>
+      </c>
+      <c r="G33" s="285"/>
       <c r="H33" s="150"/>
       <c r="I33" s="151"/>
       <c r="J33" s="152"/>
@@ -12970,12 +12987,12 @@
     </row>
     <row r="35" spans="1:97" ht="13.5" thickBot="1">
       <c r="A35" s="144"/>
-      <c r="B35" s="341" t="s">
+      <c r="B35" s="339" t="s">
         <v>25</v>
       </c>
-      <c r="C35" s="341"/>
-      <c r="D35" s="341"/>
-      <c r="E35" s="341"/>
+      <c r="C35" s="339"/>
+      <c r="D35" s="339"/>
+      <c r="E35" s="339"/>
       <c r="F35" s="145"/>
       <c r="G35" s="150"/>
       <c r="H35" s="150"/>
@@ -13070,19 +13087,19 @@
       <c r="CS35" s="149"/>
     </row>
     <row r="36" spans="1:97" ht="13.5" thickBot="1">
-      <c r="A36" s="217" t="s">
+      <c r="A36" s="216" t="s">
         <v>110</v>
       </c>
-      <c r="B36" s="217" t="s">
+      <c r="B36" s="216" t="s">
         <v>26</v>
       </c>
-      <c r="C36" s="217" t="s">
+      <c r="C36" s="216" t="s">
         <v>27</v>
       </c>
-      <c r="D36" s="218" t="s">
+      <c r="D36" s="217" t="s">
         <v>28</v>
       </c>
-      <c r="E36" s="218" t="s">
+      <c r="E36" s="217" t="s">
         <v>0</v>
       </c>
       <c r="F36" s="195">
@@ -13182,19 +13199,19 @@
       <c r="CS36" s="149"/>
     </row>
     <row r="37" spans="1:97">
-      <c r="A37" s="197" t="s">
+      <c r="A37" s="196" t="s">
         <v>116</v>
       </c>
-      <c r="B37" s="259" t="s">
+      <c r="B37" s="258" t="s">
         <v>146</v>
       </c>
       <c r="C37" s="139" t="s">
         <v>134</v>
       </c>
-      <c r="D37" s="220">
+      <c r="D37" s="219">
         <v>1000</v>
       </c>
-      <c r="E37" s="297" t="s">
+      <c r="E37" s="296" t="s">
         <v>133</v>
       </c>
       <c r="F37" s="145"/>
@@ -13291,20 +13308,20 @@
       <c r="CS37" s="149"/>
     </row>
     <row r="38" spans="1:97">
-      <c r="A38" s="197" t="s">
+      <c r="A38" s="196" t="s">
         <v>116</v>
       </c>
       <c r="B38" s="128" t="s">
-        <v>157</v>
+        <v>193</v>
       </c>
       <c r="C38" s="127" t="s">
-        <v>134</v>
-      </c>
-      <c r="D38" s="221">
-        <v>3360</v>
+        <v>182</v>
+      </c>
+      <c r="D38" s="220">
+        <v>2390</v>
       </c>
       <c r="E38" s="187" t="s">
-        <v>168</v>
+        <v>214</v>
       </c>
       <c r="F38" s="143"/>
       <c r="G38" s="150"/>
@@ -13400,20 +13417,20 @@
       <c r="CS38" s="149"/>
     </row>
     <row r="39" spans="1:97">
-      <c r="A39" s="197" t="s">
+      <c r="A39" s="196" t="s">
         <v>116</v>
       </c>
       <c r="B39" s="66" t="s">
         <v>186</v>
       </c>
-      <c r="C39" s="296" t="s">
+      <c r="C39" s="295" t="s">
         <v>182</v>
       </c>
-      <c r="D39" s="221">
+      <c r="D39" s="220">
         <v>4140</v>
       </c>
       <c r="E39" s="187" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="F39" s="143"/>
       <c r="G39" s="150"/>
@@ -13509,20 +13526,20 @@
       <c r="CS39" s="149"/>
     </row>
     <row r="40" spans="1:97">
-      <c r="A40" s="197" t="s">
+      <c r="A40" s="196" t="s">
         <v>116</v>
       </c>
       <c r="B40" s="128" t="s">
-        <v>193</v>
+        <v>157</v>
       </c>
       <c r="C40" s="127" t="s">
-        <v>182</v>
-      </c>
-      <c r="D40" s="221">
-        <v>200</v>
+        <v>134</v>
+      </c>
+      <c r="D40" s="220">
+        <v>3360</v>
       </c>
       <c r="E40" s="187" t="s">
-        <v>189</v>
+        <v>168</v>
       </c>
       <c r="F40" s="143"/>
       <c r="G40" s="156"/>
@@ -13618,21 +13635,13 @@
       <c r="CS40" s="149"/>
     </row>
     <row r="41" spans="1:97">
-      <c r="A41" s="197" t="s">
+      <c r="A41" s="196" t="s">
         <v>116</v>
       </c>
-      <c r="B41" s="128" t="s">
-        <v>194</v>
-      </c>
-      <c r="C41" s="127" t="s">
-        <v>182</v>
-      </c>
-      <c r="D41" s="221">
-        <v>2390</v>
-      </c>
-      <c r="E41" s="187" t="s">
-        <v>216</v>
-      </c>
+      <c r="B41" s="128"/>
+      <c r="C41" s="127"/>
+      <c r="D41" s="220"/>
+      <c r="E41" s="187"/>
       <c r="F41" s="148"/>
       <c r="G41" s="157" t="s">
         <v>55</v>
@@ -13729,19 +13738,13 @@
       <c r="CS41" s="149"/>
     </row>
     <row r="42" spans="1:97">
-      <c r="A42" s="197" t="s">
+      <c r="A42" s="196" t="s">
         <v>116</v>
       </c>
-      <c r="B42" s="128" t="s">
-        <v>220</v>
-      </c>
+      <c r="B42" s="128"/>
       <c r="C42" s="127"/>
-      <c r="D42" s="221">
-        <v>1060</v>
-      </c>
-      <c r="E42" s="187" t="s">
-        <v>225</v>
-      </c>
+      <c r="D42" s="220"/>
+      <c r="E42" s="187"/>
       <c r="F42" s="149"/>
       <c r="G42" s="158" t="s">
         <v>13</v>
@@ -13838,18 +13841,18 @@
       <c r="CS42" s="149"/>
     </row>
     <row r="43" spans="1:97">
-      <c r="A43" s="197" t="s">
+      <c r="A43" s="196" t="s">
         <v>116</v>
       </c>
       <c r="B43" s="66"/>
       <c r="C43" s="127"/>
-      <c r="D43" s="221"/>
+      <c r="D43" s="220"/>
       <c r="E43" s="188"/>
       <c r="F43" s="145"/>
-      <c r="G43" s="342"/>
-      <c r="H43" s="342"/>
-      <c r="I43" s="342"/>
-      <c r="J43" s="342"/>
+      <c r="G43" s="340"/>
+      <c r="H43" s="340"/>
+      <c r="I43" s="340"/>
+      <c r="J43" s="340"/>
       <c r="K43" s="69"/>
       <c r="L43" s="154"/>
       <c r="M43" s="69"/>
@@ -13939,12 +13942,12 @@
       <c r="CS43" s="149"/>
     </row>
     <row r="44" spans="1:97" ht="13.5" thickBot="1">
-      <c r="A44" s="197" t="s">
+      <c r="A44" s="196" t="s">
         <v>116</v>
       </c>
       <c r="B44" s="66"/>
       <c r="C44" s="127"/>
-      <c r="D44" s="221"/>
+      <c r="D44" s="220"/>
       <c r="E44" s="187"/>
       <c r="F44" s="146"/>
       <c r="G44" s="184"/>
@@ -14040,39 +14043,39 @@
       <c r="CS44" s="149"/>
     </row>
     <row r="45" spans="1:97" ht="13.5" thickBot="1">
-      <c r="A45" s="215" t="s">
+      <c r="A45" s="214" t="s">
         <v>110</v>
       </c>
-      <c r="B45" s="215" t="s">
+      <c r="B45" s="214" t="s">
         <v>106</v>
       </c>
-      <c r="C45" s="215" t="s">
+      <c r="C45" s="214" t="s">
         <v>107</v>
       </c>
-      <c r="D45" s="222" t="s">
+      <c r="D45" s="221" t="s">
         <v>75</v>
       </c>
-      <c r="E45" s="216" t="s">
+      <c r="E45" s="215" t="s">
         <v>108</v>
       </c>
       <c r="F45" s="143"/>
       <c r="G45" s="149"/>
-      <c r="H45" s="236" t="s">
+      <c r="H45" s="235" t="s">
         <v>120</v>
       </c>
-      <c r="I45" s="232" t="s">
+      <c r="I45" s="231" t="s">
         <v>121</v>
       </c>
-      <c r="J45" s="232" t="s">
+      <c r="J45" s="231" t="s">
         <v>75</v>
       </c>
-      <c r="K45" s="237" t="s">
+      <c r="K45" s="236" t="s">
         <v>122</v>
       </c>
-      <c r="L45" s="238" t="s">
+      <c r="L45" s="237" t="s">
         <v>29</v>
       </c>
-      <c r="M45" s="239" t="s">
+      <c r="M45" s="238" t="s">
         <v>30</v>
       </c>
       <c r="N45" s="69"/>
@@ -14161,39 +14164,37 @@
       <c r="CS45" s="149"/>
     </row>
     <row r="46" spans="1:97">
-      <c r="A46" s="240" t="s">
+      <c r="A46" s="239" t="s">
         <v>123</v>
       </c>
-      <c r="B46" s="309" t="s">
-        <v>127</v>
-      </c>
-      <c r="C46" s="139">
-        <v>1711460131</v>
-      </c>
-      <c r="D46" s="223">
-        <v>151260</v>
-      </c>
-      <c r="E46" s="196" t="s">
-        <v>225</v>
+      <c r="B46" s="308" t="s">
+        <v>202</v>
+      </c>
+      <c r="C46" s="139"/>
+      <c r="D46" s="222">
+        <v>68280</v>
+      </c>
+      <c r="E46" s="317" t="s">
+        <v>214</v>
       </c>
       <c r="F46" s="142"/>
       <c r="G46" s="149"/>
-      <c r="H46" s="204" t="s">
+      <c r="H46" s="203" t="s">
         <v>124</v>
       </c>
-      <c r="I46" s="205">
+      <c r="I46" s="204">
         <v>1718911905</v>
       </c>
-      <c r="J46" s="206">
+      <c r="J46" s="205">
         <v>387330</v>
       </c>
       <c r="K46" s="139" t="s">
         <v>176</v>
       </c>
-      <c r="L46" s="207">
+      <c r="L46" s="206">
         <v>387330</v>
       </c>
-      <c r="M46" s="208">
+      <c r="M46" s="207">
         <f>SUM(J46-L46)</f>
         <v>0</v>
       </c>
@@ -14283,16 +14284,24 @@
       <c r="CS46" s="149"/>
     </row>
     <row r="47" spans="1:97">
-      <c r="A47" s="240" t="s">
+      <c r="A47" s="239" t="s">
         <v>123</v>
       </c>
-      <c r="B47" s="61"/>
-      <c r="C47" s="127"/>
-      <c r="D47" s="224"/>
-      <c r="E47" s="191"/>
+      <c r="B47" s="62" t="s">
+        <v>127</v>
+      </c>
+      <c r="C47" s="127">
+        <v>1711460131</v>
+      </c>
+      <c r="D47" s="223">
+        <v>151260</v>
+      </c>
+      <c r="E47" s="189" t="s">
+        <v>220</v>
+      </c>
       <c r="F47" s="143"/>
       <c r="G47" s="149"/>
-      <c r="H47" s="200" t="s">
+      <c r="H47" s="199" t="s">
         <v>130</v>
       </c>
       <c r="I47" s="64">
@@ -14307,7 +14316,7 @@
       <c r="L47" s="140">
         <v>29856</v>
       </c>
-      <c r="M47" s="201">
+      <c r="M47" s="200">
         <f t="shared" ref="M47:M110" si="2">SUM(J47-L47)</f>
         <v>0</v>
       </c>
@@ -14397,24 +14406,22 @@
       <c r="CS47" s="149"/>
     </row>
     <row r="48" spans="1:97">
-      <c r="A48" s="240" t="s">
+      <c r="A48" s="239" t="s">
         <v>123</v>
       </c>
-      <c r="B48" s="129" t="s">
-        <v>124</v>
-      </c>
-      <c r="C48" s="127">
-        <v>1718911905</v>
-      </c>
-      <c r="D48" s="224">
-        <v>594340</v>
-      </c>
-      <c r="E48" s="189" t="s">
-        <v>216</v>
+      <c r="B48" s="61" t="s">
+        <v>197</v>
+      </c>
+      <c r="C48" s="127"/>
+      <c r="D48" s="223">
+        <v>200000</v>
+      </c>
+      <c r="E48" s="191" t="s">
+        <v>194</v>
       </c>
       <c r="F48" s="143"/>
       <c r="G48" s="149"/>
-      <c r="H48" s="200" t="s">
+      <c r="H48" s="199" t="s">
         <v>126</v>
       </c>
       <c r="I48" s="64">
@@ -14429,7 +14436,7 @@
       <c r="L48" s="140">
         <v>168306</v>
       </c>
-      <c r="M48" s="201">
+      <c r="M48" s="200">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -14519,22 +14526,22 @@
       <c r="CS48" s="149"/>
     </row>
     <row r="49" spans="1:97">
-      <c r="A49" s="240" t="s">
+      <c r="A49" s="239" t="s">
         <v>123</v>
       </c>
-      <c r="B49" s="61" t="s">
-        <v>198</v>
+      <c r="B49" s="129" t="s">
+        <v>203</v>
       </c>
       <c r="C49" s="127"/>
-      <c r="D49" s="224">
-        <v>200000</v>
-      </c>
-      <c r="E49" s="191" t="s">
-        <v>195</v>
+      <c r="D49" s="223">
+        <v>30000</v>
+      </c>
+      <c r="E49" s="189" t="s">
+        <v>222</v>
       </c>
       <c r="F49" s="143"/>
       <c r="G49" s="149"/>
-      <c r="H49" s="200" t="s">
+      <c r="H49" s="199" t="s">
         <v>127</v>
       </c>
       <c r="I49" s="64">
@@ -14549,7 +14556,7 @@
       <c r="L49" s="140">
         <v>206500</v>
       </c>
-      <c r="M49" s="201">
+      <c r="M49" s="200">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -14639,18 +14646,20 @@
       <c r="CS49" s="149"/>
     </row>
     <row r="50" spans="1:97">
-      <c r="A50" s="240" t="s">
+      <c r="A50" s="239" t="s">
         <v>123</v>
       </c>
-      <c r="B50" s="62" t="s">
-        <v>203</v>
-      </c>
-      <c r="C50" s="127"/>
-      <c r="D50" s="224">
-        <v>68280</v>
-      </c>
-      <c r="E50" s="190" t="s">
-        <v>216</v>
+      <c r="B50" s="129" t="s">
+        <v>124</v>
+      </c>
+      <c r="C50" s="127">
+        <v>1718911905</v>
+      </c>
+      <c r="D50" s="223">
+        <v>564340</v>
+      </c>
+      <c r="E50" s="189" t="s">
+        <v>222</v>
       </c>
       <c r="F50" s="143"/>
       <c r="G50" s="149"/>
@@ -14669,7 +14678,7 @@
       <c r="L50" s="140">
         <v>228825</v>
       </c>
-      <c r="M50" s="201">
+      <c r="M50" s="200">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -14759,22 +14768,22 @@
       <c r="CS50" s="149"/>
     </row>
     <row r="51" spans="1:97">
-      <c r="A51" s="240" t="s">
+      <c r="A51" s="239" t="s">
         <v>123</v>
       </c>
-      <c r="B51" s="129" t="s">
+      <c r="B51" s="61" t="s">
         <v>204</v>
       </c>
       <c r="C51" s="127"/>
-      <c r="D51" s="224">
-        <v>21000</v>
-      </c>
-      <c r="E51" s="189" t="s">
-        <v>225</v>
+      <c r="D51" s="223">
+        <v>30000</v>
+      </c>
+      <c r="E51" s="191" t="s">
+        <v>222</v>
       </c>
       <c r="F51" s="143"/>
       <c r="G51" s="149"/>
-      <c r="H51" s="200" t="s">
+      <c r="H51" s="199" t="s">
         <v>129</v>
       </c>
       <c r="I51" s="64">
@@ -14789,7 +14798,7 @@
       <c r="L51" s="140">
         <v>71530</v>
       </c>
-      <c r="M51" s="201">
+      <c r="M51" s="200">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -14879,27 +14888,27 @@
       <c r="CS51" s="149"/>
     </row>
     <row r="52" spans="1:97">
-      <c r="A52" s="240" t="s">
+      <c r="A52" s="239" t="s">
         <v>123</v>
       </c>
-      <c r="B52" s="61" t="s">
+      <c r="B52" s="62" t="s">
         <v>205</v>
       </c>
       <c r="C52" s="127"/>
-      <c r="D52" s="224">
-        <v>31500</v>
-      </c>
-      <c r="E52" s="191" t="s">
-        <v>200</v>
+      <c r="D52" s="223">
+        <v>150000</v>
+      </c>
+      <c r="E52" s="190" t="s">
+        <v>199</v>
       </c>
       <c r="F52" s="143"/>
       <c r="G52" s="149"/>
-      <c r="H52" s="200"/>
+      <c r="H52" s="199"/>
       <c r="I52" s="64"/>
       <c r="J52" s="60"/>
       <c r="K52" s="182"/>
       <c r="L52" s="140"/>
-      <c r="M52" s="201">
+      <c r="M52" s="200">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -14989,22 +14998,22 @@
       <c r="CS52" s="149"/>
     </row>
     <row r="53" spans="1:97">
-      <c r="A53" s="240" t="s">
+      <c r="A53" s="239" t="s">
         <v>123</v>
       </c>
-      <c r="B53" s="62" t="s">
-        <v>206</v>
+      <c r="B53" s="61" t="s">
+        <v>126</v>
       </c>
       <c r="C53" s="127"/>
-      <c r="D53" s="224">
-        <v>150000</v>
-      </c>
-      <c r="E53" s="190" t="s">
-        <v>200</v>
+      <c r="D53" s="223">
+        <v>74020</v>
+      </c>
+      <c r="E53" s="191" t="s">
+        <v>222</v>
       </c>
       <c r="F53" s="143"/>
       <c r="G53" s="149"/>
-      <c r="H53" s="200" t="s">
+      <c r="H53" s="199" t="s">
         <v>131</v>
       </c>
       <c r="I53" s="64">
@@ -15019,7 +15028,7 @@
       <c r="L53" s="140">
         <v>33000</v>
       </c>
-      <c r="M53" s="201">
+      <c r="M53" s="200">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -15109,14 +15118,14 @@
       <c r="CS53" s="149"/>
     </row>
     <row r="54" spans="1:97">
-      <c r="A54" s="240"/>
+      <c r="A54" s="239"/>
       <c r="B54" s="61"/>
       <c r="C54" s="127"/>
-      <c r="D54" s="224"/>
+      <c r="D54" s="223"/>
       <c r="E54" s="189"/>
       <c r="F54" s="143"/>
       <c r="G54" s="149"/>
-      <c r="H54" s="202" t="s">
+      <c r="H54" s="201" t="s">
         <v>128</v>
       </c>
       <c r="I54" s="70">
@@ -15131,7 +15140,7 @@
       <c r="L54" s="140">
         <v>182359</v>
       </c>
-      <c r="M54" s="201">
+      <c r="M54" s="200">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -15221,19 +15230,19 @@
       <c r="CS54" s="149"/>
     </row>
     <row r="55" spans="1:97">
-      <c r="A55" s="240"/>
+      <c r="A55" s="239"/>
       <c r="B55" s="62"/>
       <c r="C55" s="127"/>
-      <c r="D55" s="224"/>
+      <c r="D55" s="223"/>
       <c r="E55" s="190"/>
       <c r="F55" s="143"/>
       <c r="G55" s="149"/>
-      <c r="H55" s="200"/>
+      <c r="H55" s="199"/>
       <c r="I55" s="64"/>
       <c r="J55" s="60"/>
       <c r="K55" s="182"/>
       <c r="L55" s="140"/>
-      <c r="M55" s="201">
+      <c r="M55" s="200">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -15323,19 +15332,19 @@
       <c r="CS55" s="149"/>
     </row>
     <row r="56" spans="1:97">
-      <c r="A56" s="241"/>
+      <c r="A56" s="240"/>
       <c r="B56" s="63"/>
       <c r="C56" s="127"/>
-      <c r="D56" s="225"/>
+      <c r="D56" s="224"/>
       <c r="E56" s="191"/>
       <c r="F56" s="143"/>
       <c r="G56" s="149"/>
-      <c r="H56" s="200"/>
+      <c r="H56" s="199"/>
       <c r="I56" s="64"/>
       <c r="J56" s="60"/>
       <c r="K56" s="127"/>
       <c r="L56" s="140"/>
-      <c r="M56" s="201">
+      <c r="M56" s="200">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -15425,14 +15434,14 @@
       <c r="CS56" s="149"/>
     </row>
     <row r="57" spans="1:97">
-      <c r="A57" s="241"/>
+      <c r="A57" s="240"/>
       <c r="B57" s="62"/>
       <c r="C57" s="127"/>
-      <c r="D57" s="224"/>
+      <c r="D57" s="223"/>
       <c r="E57" s="191"/>
       <c r="F57" s="143"/>
       <c r="G57" s="149"/>
-      <c r="H57" s="200" t="s">
+      <c r="H57" s="199" t="s">
         <v>101</v>
       </c>
       <c r="I57" s="64" t="s">
@@ -15447,7 +15456,7 @@
       <c r="L57" s="140">
         <v>13000</v>
       </c>
-      <c r="M57" s="201">
+      <c r="M57" s="200">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -15537,14 +15546,14 @@
       <c r="CS57" s="149"/>
     </row>
     <row r="58" spans="1:97">
-      <c r="A58" s="241"/>
+      <c r="A58" s="240"/>
       <c r="B58" s="63"/>
       <c r="C58" s="127"/>
-      <c r="D58" s="224"/>
+      <c r="D58" s="223"/>
       <c r="E58" s="189"/>
       <c r="F58" s="143"/>
       <c r="G58" s="149"/>
-      <c r="H58" s="200" t="s">
+      <c r="H58" s="199" t="s">
         <v>102</v>
       </c>
       <c r="I58" s="64" t="s">
@@ -15559,7 +15568,7 @@
       <c r="L58" s="140">
         <v>2000</v>
       </c>
-      <c r="M58" s="201">
+      <c r="M58" s="200">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -15649,7 +15658,7 @@
       <c r="CS58" s="149"/>
     </row>
     <row r="59" spans="1:97">
-      <c r="A59" s="241" t="s">
+      <c r="A59" s="240" t="s">
         <v>111</v>
       </c>
       <c r="B59" s="129" t="s">
@@ -15658,15 +15667,15 @@
       <c r="C59" s="127" t="s">
         <v>90</v>
       </c>
-      <c r="D59" s="224">
+      <c r="D59" s="223">
         <v>7000</v>
       </c>
       <c r="E59" s="191" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="F59" s="143"/>
       <c r="G59" s="149"/>
-      <c r="H59" s="200" t="s">
+      <c r="H59" s="199" t="s">
         <v>105</v>
       </c>
       <c r="I59" s="64" t="s">
@@ -15681,7 +15690,7 @@
       <c r="L59" s="140">
         <v>22000</v>
       </c>
-      <c r="M59" s="201">
+      <c r="M59" s="200">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -15771,7 +15780,7 @@
       <c r="CS59" s="149"/>
     </row>
     <row r="60" spans="1:97">
-      <c r="A60" s="241" t="s">
+      <c r="A60" s="240" t="s">
         <v>112</v>
       </c>
       <c r="B60" s="62" t="s">
@@ -15780,7 +15789,7 @@
       <c r="C60" s="127" t="s">
         <v>84</v>
       </c>
-      <c r="D60" s="224">
+      <c r="D60" s="223">
         <v>3500</v>
       </c>
       <c r="E60" s="189" t="s">
@@ -15803,7 +15812,7 @@
       <c r="L60" s="140">
         <v>3500</v>
       </c>
-      <c r="M60" s="201">
+      <c r="M60" s="200">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -15893,7 +15902,7 @@
       <c r="CS60" s="149"/>
     </row>
     <row r="61" spans="1:97">
-      <c r="A61" s="241" t="s">
+      <c r="A61" s="240" t="s">
         <v>109</v>
       </c>
       <c r="B61" s="62" t="s">
@@ -15902,7 +15911,7 @@
       <c r="C61" s="127" t="s">
         <v>85</v>
       </c>
-      <c r="D61" s="224">
+      <c r="D61" s="223">
         <v>13500</v>
       </c>
       <c r="E61" s="190" t="s">
@@ -15910,7 +15919,7 @@
       </c>
       <c r="F61" s="145"/>
       <c r="G61" s="149"/>
-      <c r="H61" s="200" t="s">
+      <c r="H61" s="199" t="s">
         <v>100</v>
       </c>
       <c r="I61" s="64" t="s">
@@ -15925,7 +15934,7 @@
       <c r="L61" s="140">
         <v>13500</v>
       </c>
-      <c r="M61" s="201">
+      <c r="M61" s="200">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -16015,7 +16024,7 @@
       <c r="CS61" s="149"/>
     </row>
     <row r="62" spans="1:97">
-      <c r="A62" s="241" t="s">
+      <c r="A62" s="240" t="s">
         <v>111</v>
       </c>
       <c r="B62" s="61" t="s">
@@ -16024,7 +16033,7 @@
       <c r="C62" s="127" t="s">
         <v>89</v>
       </c>
-      <c r="D62" s="224">
+      <c r="D62" s="223">
         <v>129590</v>
       </c>
       <c r="E62" s="189" t="s">
@@ -16032,7 +16041,7 @@
       </c>
       <c r="F62" s="142"/>
       <c r="G62" s="149"/>
-      <c r="H62" s="200" t="s">
+      <c r="H62" s="199" t="s">
         <v>104</v>
       </c>
       <c r="I62" s="64" t="s">
@@ -16047,7 +16056,7 @@
       <c r="L62" s="140">
         <v>129590</v>
       </c>
-      <c r="M62" s="201">
+      <c r="M62" s="200">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -16137,10 +16146,10 @@
       <c r="CS62" s="149"/>
     </row>
     <row r="63" spans="1:97">
-      <c r="A63" s="241"/>
+      <c r="A63" s="240"/>
       <c r="B63" s="61"/>
       <c r="C63" s="127"/>
-      <c r="D63" s="224"/>
+      <c r="D63" s="223"/>
       <c r="E63" s="190"/>
       <c r="F63" s="143"/>
       <c r="G63" s="149"/>
@@ -16149,7 +16158,7 @@
       <c r="J63" s="180"/>
       <c r="K63" s="181"/>
       <c r="L63" s="140"/>
-      <c r="M63" s="201">
+      <c r="M63" s="200">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -16239,10 +16248,10 @@
       <c r="CS63" s="149"/>
     </row>
     <row r="64" spans="1:97">
-      <c r="A64" s="241"/>
+      <c r="A64" s="240"/>
       <c r="B64" s="61"/>
       <c r="C64" s="127"/>
-      <c r="D64" s="224"/>
+      <c r="D64" s="223"/>
       <c r="E64" s="189"/>
       <c r="F64" s="143"/>
       <c r="G64" s="149"/>
@@ -16251,7 +16260,7 @@
       <c r="J64" s="180"/>
       <c r="K64" s="181"/>
       <c r="L64" s="140"/>
-      <c r="M64" s="201">
+      <c r="M64" s="200">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -16341,19 +16350,19 @@
       <c r="CS64" s="149"/>
     </row>
     <row r="65" spans="1:97">
-      <c r="A65" s="241"/>
+      <c r="A65" s="240"/>
       <c r="B65" s="62"/>
       <c r="C65" s="127"/>
-      <c r="D65" s="224"/>
+      <c r="D65" s="223"/>
       <c r="E65" s="189"/>
       <c r="F65" s="143"/>
       <c r="G65" s="149"/>
-      <c r="H65" s="200"/>
+      <c r="H65" s="199"/>
       <c r="I65" s="64"/>
       <c r="J65" s="60"/>
       <c r="K65" s="182"/>
       <c r="L65" s="140"/>
-      <c r="M65" s="201">
+      <c r="M65" s="200">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -16443,19 +16452,19 @@
       <c r="CS65" s="149"/>
     </row>
     <row r="66" spans="1:97">
-      <c r="A66" s="241"/>
+      <c r="A66" s="240"/>
       <c r="B66" s="62"/>
       <c r="C66" s="127"/>
-      <c r="D66" s="224"/>
+      <c r="D66" s="223"/>
       <c r="E66" s="191"/>
       <c r="F66" s="143"/>
       <c r="G66" s="149"/>
-      <c r="H66" s="200"/>
+      <c r="H66" s="199"/>
       <c r="I66" s="64"/>
       <c r="J66" s="60"/>
       <c r="K66" s="182"/>
       <c r="L66" s="140"/>
-      <c r="M66" s="201">
+      <c r="M66" s="200">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -16545,7 +16554,7 @@
       <c r="CS66" s="149"/>
     </row>
     <row r="67" spans="1:97">
-      <c r="A67" s="241" t="s">
+      <c r="A67" s="240" t="s">
         <v>115</v>
       </c>
       <c r="B67" s="62" t="s">
@@ -16554,7 +16563,7 @@
       <c r="C67" s="127" t="s">
         <v>77</v>
       </c>
-      <c r="D67" s="224">
+      <c r="D67" s="223">
         <v>58750</v>
       </c>
       <c r="E67" s="190" t="s">
@@ -16562,7 +16571,7 @@
       </c>
       <c r="F67" s="143"/>
       <c r="G67" s="149"/>
-      <c r="H67" s="200" t="s">
+      <c r="H67" s="199" t="s">
         <v>92</v>
       </c>
       <c r="I67" s="64" t="s">
@@ -16577,7 +16586,7 @@
       <c r="L67" s="140">
         <v>85740</v>
       </c>
-      <c r="M67" s="201">
+      <c r="M67" s="200">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -16667,24 +16676,24 @@
       <c r="CS67" s="149"/>
     </row>
     <row r="68" spans="1:97">
-      <c r="A68" s="241" t="s">
-        <v>114</v>
-      </c>
-      <c r="B68" s="62" t="s">
-        <v>93</v>
+      <c r="A68" s="240" t="s">
+        <v>115</v>
+      </c>
+      <c r="B68" s="61" t="s">
+        <v>91</v>
       </c>
       <c r="C68" s="127" t="s">
-        <v>78</v>
-      </c>
-      <c r="D68" s="224">
-        <v>20000</v>
+        <v>76</v>
+      </c>
+      <c r="D68" s="223">
+        <v>10915</v>
       </c>
       <c r="E68" s="189" t="s">
-        <v>189</v>
+        <v>60</v>
       </c>
       <c r="F68" s="143"/>
       <c r="G68" s="149"/>
-      <c r="H68" s="200" t="s">
+      <c r="H68" s="199" t="s">
         <v>93</v>
       </c>
       <c r="I68" s="64" t="s">
@@ -16699,7 +16708,7 @@
       <c r="L68" s="140">
         <v>28000</v>
       </c>
-      <c r="M68" s="201">
+      <c r="M68" s="200">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -16789,24 +16798,24 @@
       <c r="CS68" s="149"/>
     </row>
     <row r="69" spans="1:97">
-      <c r="A69" s="241" t="s">
+      <c r="A69" s="240" t="s">
         <v>114</v>
       </c>
       <c r="B69" s="62" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="C69" s="127" t="s">
-        <v>83</v>
-      </c>
-      <c r="D69" s="224">
-        <v>11000</v>
-      </c>
-      <c r="E69" s="190" t="s">
+        <v>78</v>
+      </c>
+      <c r="D69" s="223">
+        <v>20000</v>
+      </c>
+      <c r="E69" s="189" t="s">
         <v>189</v>
       </c>
       <c r="F69" s="69"/>
       <c r="G69" s="149"/>
-      <c r="H69" s="200" t="s">
+      <c r="H69" s="199" t="s">
         <v>98</v>
       </c>
       <c r="I69" s="64" t="s">
@@ -16821,7 +16830,7 @@
       <c r="L69" s="140">
         <v>16000</v>
       </c>
-      <c r="M69" s="201">
+      <c r="M69" s="200">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -16911,20 +16920,20 @@
       <c r="CS69" s="149"/>
     </row>
     <row r="70" spans="1:97">
-      <c r="A70" s="241" t="s">
+      <c r="A70" s="240" t="s">
         <v>114</v>
       </c>
       <c r="B70" s="62" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="C70" s="127" t="s">
-        <v>79</v>
-      </c>
-      <c r="D70" s="224">
-        <v>19460</v>
+        <v>83</v>
+      </c>
+      <c r="D70" s="223">
+        <v>11000</v>
       </c>
       <c r="E70" s="190" t="s">
-        <v>199</v>
+        <v>189</v>
       </c>
       <c r="F70" s="143"/>
       <c r="G70" s="149"/>
@@ -16943,7 +16952,7 @@
       <c r="L70" s="140">
         <v>29460</v>
       </c>
-      <c r="M70" s="201">
+      <c r="M70" s="200">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -17033,24 +17042,24 @@
       <c r="CS70" s="149"/>
     </row>
     <row r="71" spans="1:97">
-      <c r="A71" s="241" t="s">
+      <c r="A71" s="240" t="s">
         <v>114</v>
       </c>
       <c r="B71" s="62" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C71" s="127" t="s">
-        <v>80</v>
-      </c>
-      <c r="D71" s="224">
-        <v>3000</v>
+        <v>79</v>
+      </c>
+      <c r="D71" s="223">
+        <v>19460</v>
       </c>
       <c r="E71" s="190" t="s">
-        <v>225</v>
+        <v>198</v>
       </c>
       <c r="F71" s="145"/>
       <c r="G71" s="149"/>
-      <c r="H71" s="203" t="s">
+      <c r="H71" s="202" t="s">
         <v>95</v>
       </c>
       <c r="I71" s="67" t="s">
@@ -17065,7 +17074,7 @@
       <c r="L71" s="140">
         <v>33000</v>
       </c>
-      <c r="M71" s="201">
+      <c r="M71" s="200">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -17155,7 +17164,7 @@
       <c r="CS71" s="149"/>
     </row>
     <row r="72" spans="1:97">
-      <c r="A72" s="241" t="s">
+      <c r="A72" s="240" t="s">
         <v>114</v>
       </c>
       <c r="B72" s="62" t="s">
@@ -17164,7 +17173,7 @@
       <c r="C72" s="127" t="s">
         <v>81</v>
       </c>
-      <c r="D72" s="224">
+      <c r="D72" s="223">
         <v>19370</v>
       </c>
       <c r="E72" s="191" t="s">
@@ -17187,7 +17196,7 @@
       <c r="L72" s="140">
         <v>19370</v>
       </c>
-      <c r="M72" s="201">
+      <c r="M72" s="200">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -17277,7 +17286,7 @@
       <c r="CS72" s="149"/>
     </row>
     <row r="73" spans="1:97">
-      <c r="A73" s="241" t="s">
+      <c r="A73" s="240" t="s">
         <v>114</v>
       </c>
       <c r="B73" s="62" t="s">
@@ -17286,7 +17295,7 @@
       <c r="C73" s="127" t="s">
         <v>82</v>
       </c>
-      <c r="D73" s="224">
+      <c r="D73" s="223">
         <v>22000</v>
       </c>
       <c r="E73" s="191" t="s">
@@ -17294,7 +17303,7 @@
       </c>
       <c r="F73" s="145"/>
       <c r="G73" s="149"/>
-      <c r="H73" s="200" t="s">
+      <c r="H73" s="199" t="s">
         <v>97</v>
       </c>
       <c r="I73" s="64" t="s">
@@ -17309,7 +17318,7 @@
       <c r="L73" s="140">
         <v>22000</v>
       </c>
-      <c r="M73" s="201">
+      <c r="M73" s="200">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -17399,21 +17408,11 @@
       <c r="CS73" s="149"/>
     </row>
     <row r="74" spans="1:97">
-      <c r="A74" s="241" t="s">
-        <v>115</v>
-      </c>
-      <c r="B74" s="61" t="s">
-        <v>91</v>
-      </c>
-      <c r="C74" s="127" t="s">
-        <v>76</v>
-      </c>
-      <c r="D74" s="224">
-        <v>10915</v>
-      </c>
-      <c r="E74" s="189" t="s">
-        <v>60</v>
-      </c>
+      <c r="A74" s="240"/>
+      <c r="B74" s="62"/>
+      <c r="C74" s="127"/>
+      <c r="D74" s="223"/>
+      <c r="E74" s="190"/>
       <c r="F74" s="145"/>
       <c r="G74" s="149"/>
       <c r="H74" s="186" t="s">
@@ -17431,7 +17430,7 @@
       <c r="L74" s="140">
         <v>10915</v>
       </c>
-      <c r="M74" s="201">
+      <c r="M74" s="200">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -17521,19 +17520,19 @@
       <c r="CS74" s="149"/>
     </row>
     <row r="75" spans="1:97">
-      <c r="A75" s="241"/>
+      <c r="A75" s="240"/>
       <c r="B75" s="62"/>
       <c r="C75" s="127"/>
-      <c r="D75" s="224"/>
+      <c r="D75" s="223"/>
       <c r="E75" s="191"/>
       <c r="F75" s="143"/>
       <c r="G75" s="149"/>
-      <c r="H75" s="200"/>
+      <c r="H75" s="199"/>
       <c r="I75" s="64"/>
       <c r="J75" s="60"/>
       <c r="K75" s="127"/>
       <c r="L75" s="140"/>
-      <c r="M75" s="201">
+      <c r="M75" s="200">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -17623,10 +17622,10 @@
       <c r="CS75" s="149"/>
     </row>
     <row r="76" spans="1:97">
-      <c r="A76" s="241"/>
+      <c r="A76" s="240"/>
       <c r="B76" s="62"/>
       <c r="C76" s="127"/>
-      <c r="D76" s="224"/>
+      <c r="D76" s="223"/>
       <c r="E76" s="190"/>
       <c r="F76" s="143"/>
       <c r="G76" s="149"/>
@@ -17635,7 +17634,7 @@
       <c r="J76" s="180"/>
       <c r="K76" s="180"/>
       <c r="L76" s="140"/>
-      <c r="M76" s="201">
+      <c r="M76" s="200">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -17725,27 +17724,19 @@
       <c r="CS76" s="149"/>
     </row>
     <row r="77" spans="1:97">
-      <c r="A77" s="241" t="s">
-        <v>117</v>
-      </c>
-      <c r="B77" s="62" t="s">
-        <v>177</v>
-      </c>
+      <c r="A77" s="240"/>
+      <c r="B77" s="62"/>
       <c r="C77" s="127"/>
-      <c r="D77" s="224">
-        <v>400</v>
-      </c>
-      <c r="E77" s="190" t="s">
-        <v>187</v>
-      </c>
+      <c r="D77" s="223"/>
+      <c r="E77" s="190"/>
       <c r="F77" s="143"/>
       <c r="G77" s="149"/>
-      <c r="H77" s="200"/>
+      <c r="H77" s="199"/>
       <c r="I77" s="64"/>
       <c r="J77" s="60"/>
       <c r="K77" s="182"/>
       <c r="L77" s="140"/>
-      <c r="M77" s="201">
+      <c r="M77" s="200">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -17835,14 +17826,22 @@
       <c r="CS77" s="149"/>
     </row>
     <row r="78" spans="1:97">
-      <c r="A78" s="241"/>
-      <c r="B78" s="62"/>
+      <c r="A78" s="240" t="s">
+        <v>117</v>
+      </c>
+      <c r="B78" s="62" t="s">
+        <v>177</v>
+      </c>
       <c r="C78" s="127"/>
-      <c r="D78" s="224"/>
-      <c r="E78" s="189"/>
+      <c r="D78" s="223">
+        <v>400</v>
+      </c>
+      <c r="E78" s="189" t="s">
+        <v>187</v>
+      </c>
       <c r="F78" s="143"/>
       <c r="G78" s="149"/>
-      <c r="H78" s="200" t="s">
+      <c r="H78" s="199" t="s">
         <v>56</v>
       </c>
       <c r="I78" s="64">
@@ -17857,7 +17856,7 @@
       <c r="L78" s="140">
         <v>17500</v>
       </c>
-      <c r="M78" s="201">
+      <c r="M78" s="200">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -17947,22 +17946,22 @@
       <c r="CS78" s="149"/>
     </row>
     <row r="79" spans="1:97">
-      <c r="A79" s="241" t="s">
+      <c r="A79" s="240" t="s">
+        <v>206</v>
+      </c>
+      <c r="B79" s="62" t="s">
         <v>207</v>
       </c>
-      <c r="B79" s="62" t="s">
-        <v>208</v>
-      </c>
       <c r="C79" s="127"/>
-      <c r="D79" s="224">
-        <v>19430</v>
+      <c r="D79" s="223">
+        <v>7000</v>
       </c>
       <c r="E79" s="190" t="s">
-        <v>200</v>
+        <v>222</v>
       </c>
       <c r="F79" s="143"/>
       <c r="G79" s="149"/>
-      <c r="H79" s="200" t="s">
+      <c r="H79" s="199" t="s">
         <v>159</v>
       </c>
       <c r="I79" s="64">
@@ -17977,7 +17976,7 @@
       <c r="L79" s="140">
         <v>30000</v>
       </c>
-      <c r="M79" s="201">
+      <c r="M79" s="200">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -18067,7 +18066,7 @@
       <c r="CS79" s="149"/>
     </row>
     <row r="80" spans="1:97">
-      <c r="A80" s="241" t="s">
+      <c r="A80" s="240" t="s">
         <v>113</v>
       </c>
       <c r="B80" s="62" t="s">
@@ -18076,7 +18075,7 @@
       <c r="C80" s="127" t="s">
         <v>88</v>
       </c>
-      <c r="D80" s="224">
+      <c r="D80" s="223">
         <v>7000</v>
       </c>
       <c r="E80" s="190" t="s">
@@ -18086,12 +18085,12 @@
         <v>13</v>
       </c>
       <c r="G80" s="149"/>
-      <c r="H80" s="200"/>
+      <c r="H80" s="199"/>
       <c r="I80" s="64"/>
       <c r="J80" s="60"/>
       <c r="K80" s="182"/>
       <c r="L80" s="140"/>
-      <c r="M80" s="201">
+      <c r="M80" s="200">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -18181,22 +18180,22 @@
       <c r="CS80" s="149"/>
     </row>
     <row r="81" spans="1:97">
-      <c r="A81" s="276" t="s">
+      <c r="A81" s="275" t="s">
         <v>113</v>
       </c>
       <c r="B81" s="62" t="s">
         <v>160</v>
       </c>
       <c r="C81" s="127"/>
-      <c r="D81" s="224">
+      <c r="D81" s="223">
         <v>27180</v>
       </c>
       <c r="E81" s="190" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="F81" s="143"/>
       <c r="G81" s="149"/>
-      <c r="H81" s="200" t="s">
+      <c r="H81" s="199" t="s">
         <v>103</v>
       </c>
       <c r="I81" s="64" t="s">
@@ -18211,7 +18210,7 @@
       <c r="L81" s="140">
         <v>9000</v>
       </c>
-      <c r="M81" s="201">
+      <c r="M81" s="200">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -18301,22 +18300,22 @@
       <c r="CS81" s="149"/>
     </row>
     <row r="82" spans="1:97">
-      <c r="A82" s="241" t="s">
+      <c r="A82" s="240" t="s">
         <v>113</v>
       </c>
       <c r="B82" s="62" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="C82" s="127"/>
-      <c r="D82" s="224">
+      <c r="D82" s="223">
         <v>3000</v>
       </c>
       <c r="E82" s="190" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="F82" s="145"/>
       <c r="G82" s="149"/>
-      <c r="H82" s="200" t="s">
+      <c r="H82" s="199" t="s">
         <v>160</v>
       </c>
       <c r="I82" s="64" t="s">
@@ -18331,7 +18330,7 @@
       <c r="L82" s="140">
         <v>14040</v>
       </c>
-      <c r="M82" s="201">
+      <c r="M82" s="200">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -18421,22 +18420,22 @@
       <c r="CS82" s="149"/>
     </row>
     <row r="83" spans="1:97">
-      <c r="A83" s="241" t="s">
-        <v>218</v>
+      <c r="A83" s="240" t="s">
+        <v>216</v>
       </c>
       <c r="B83" s="62" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="C83" s="127"/>
-      <c r="D83" s="224">
+      <c r="D83" s="223">
         <v>1060</v>
       </c>
       <c r="E83" s="191" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="F83" s="145"/>
       <c r="G83" s="149"/>
-      <c r="H83" s="200" t="s">
+      <c r="H83" s="199" t="s">
         <v>137</v>
       </c>
       <c r="I83" s="64" t="s">
@@ -18451,7 +18450,7 @@
       <c r="L83" s="140">
         <v>15000</v>
       </c>
-      <c r="M83" s="201">
+      <c r="M83" s="200">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -18541,22 +18540,22 @@
       <c r="CS83" s="149"/>
     </row>
     <row r="84" spans="1:97">
-      <c r="A84" s="241" t="s">
-        <v>201</v>
+      <c r="A84" s="240" t="s">
+        <v>200</v>
       </c>
       <c r="B84" s="62" t="s">
         <v>137</v>
       </c>
       <c r="C84" s="127"/>
-      <c r="D84" s="224">
-        <v>6000</v>
+      <c r="D84" s="223">
+        <v>5000</v>
       </c>
       <c r="E84" s="189" t="s">
-        <v>200</v>
+        <v>222</v>
       </c>
       <c r="F84" s="145"/>
       <c r="G84" s="149"/>
-      <c r="H84" s="200" t="s">
+      <c r="H84" s="199" t="s">
         <v>149</v>
       </c>
       <c r="I84" s="64" t="s">
@@ -18571,7 +18570,7 @@
       <c r="L84" s="140">
         <v>20000</v>
       </c>
-      <c r="M84" s="201">
+      <c r="M84" s="200">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -18661,22 +18660,22 @@
       <c r="CS84" s="149"/>
     </row>
     <row r="85" spans="1:97">
-      <c r="A85" s="241" t="s">
+      <c r="A85" s="240" t="s">
+        <v>200</v>
+      </c>
+      <c r="B85" s="62" t="s">
         <v>201</v>
       </c>
-      <c r="B85" s="62" t="s">
-        <v>202</v>
-      </c>
       <c r="C85" s="127"/>
-      <c r="D85" s="224">
+      <c r="D85" s="223">
         <v>40000</v>
       </c>
       <c r="E85" s="189" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="F85" s="145"/>
       <c r="G85" s="149"/>
-      <c r="H85" s="200" t="s">
+      <c r="H85" s="199" t="s">
         <v>165</v>
       </c>
       <c r="I85" s="64"/>
@@ -18689,7 +18688,7 @@
       <c r="L85" s="140">
         <v>2000</v>
       </c>
-      <c r="M85" s="201">
+      <c r="M85" s="200">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -18779,22 +18778,22 @@
       <c r="CS85" s="149"/>
     </row>
     <row r="86" spans="1:97">
-      <c r="A86" s="241" t="s">
-        <v>221</v>
+      <c r="A86" s="240" t="s">
+        <v>218</v>
       </c>
       <c r="B86" s="128" t="s">
         <v>169</v>
       </c>
       <c r="C86" s="127"/>
-      <c r="D86" s="224">
-        <v>20000</v>
+      <c r="D86" s="223">
+        <v>10000</v>
       </c>
       <c r="E86" s="190" t="s">
-        <v>216</v>
+        <v>222</v>
       </c>
       <c r="F86" s="145"/>
       <c r="G86" s="149"/>
-      <c r="H86" s="200" t="s">
+      <c r="H86" s="199" t="s">
         <v>169</v>
       </c>
       <c r="I86" s="64"/>
@@ -18807,7 +18806,7 @@
       <c r="L86" s="140">
         <v>10000</v>
       </c>
-      <c r="M86" s="201">
+      <c r="M86" s="200">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -18897,14 +18896,22 @@
       <c r="CS86" s="149"/>
     </row>
     <row r="87" spans="1:97">
-      <c r="A87" s="241"/>
-      <c r="B87" s="62"/>
+      <c r="A87" s="240" t="s">
+        <v>224</v>
+      </c>
+      <c r="B87" s="62" t="s">
+        <v>225</v>
+      </c>
       <c r="C87" s="127"/>
-      <c r="D87" s="224"/>
-      <c r="E87" s="190"/>
+      <c r="D87" s="223">
+        <v>7240</v>
+      </c>
+      <c r="E87" s="190" t="s">
+        <v>222</v>
+      </c>
       <c r="F87" s="143"/>
       <c r="G87" s="149"/>
-      <c r="H87" s="200" t="s">
+      <c r="H87" s="199" t="s">
         <v>177</v>
       </c>
       <c r="I87" s="64"/>
@@ -18917,7 +18924,7 @@
       <c r="L87" s="140">
         <v>7900</v>
       </c>
-      <c r="M87" s="201">
+      <c r="M87" s="200">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -19007,14 +19014,14 @@
       <c r="CS87" s="149"/>
     </row>
     <row r="88" spans="1:97">
-      <c r="A88" s="241"/>
+      <c r="A88" s="240"/>
       <c r="B88" s="62"/>
       <c r="C88" s="127"/>
-      <c r="D88" s="224"/>
+      <c r="D88" s="223"/>
       <c r="E88" s="191"/>
       <c r="F88" s="143"/>
       <c r="G88" s="149"/>
-      <c r="H88" s="200" t="s">
+      <c r="H88" s="199" t="s">
         <v>173</v>
       </c>
       <c r="I88" s="64"/>
@@ -19027,7 +19034,7 @@
       <c r="L88" s="140">
         <v>2120</v>
       </c>
-      <c r="M88" s="201">
+      <c r="M88" s="200">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -19117,14 +19124,14 @@
       <c r="CS88" s="149"/>
     </row>
     <row r="89" spans="1:97">
-      <c r="A89" s="241"/>
+      <c r="A89" s="240"/>
       <c r="B89" s="62"/>
       <c r="C89" s="127"/>
-      <c r="D89" s="224"/>
+      <c r="D89" s="223"/>
       <c r="E89" s="191"/>
       <c r="F89" s="143"/>
       <c r="G89" s="149"/>
-      <c r="H89" s="200" t="s">
+      <c r="H89" s="199" t="s">
         <v>51</v>
       </c>
       <c r="I89" s="64">
@@ -19139,7 +19146,7 @@
       <c r="L89" s="140">
         <v>17500</v>
       </c>
-      <c r="M89" s="201">
+      <c r="M89" s="200">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -19229,14 +19236,14 @@
       <c r="CS89" s="149"/>
     </row>
     <row r="90" spans="1:97">
-      <c r="A90" s="240"/>
+      <c r="A90" s="239"/>
       <c r="B90" s="62"/>
       <c r="C90" s="127"/>
-      <c r="D90" s="224"/>
+      <c r="D90" s="223"/>
       <c r="E90" s="190"/>
       <c r="F90" s="143"/>
       <c r="G90" s="149"/>
-      <c r="H90" s="200" t="s">
+      <c r="H90" s="199" t="s">
         <v>139</v>
       </c>
       <c r="I90" s="64">
@@ -19251,7 +19258,7 @@
       <c r="L90" s="140">
         <v>3500</v>
       </c>
-      <c r="M90" s="201">
+      <c r="M90" s="200">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -19341,10 +19348,10 @@
       <c r="CS90" s="149"/>
     </row>
     <row r="91" spans="1:97">
-      <c r="A91" s="240"/>
+      <c r="A91" s="239"/>
       <c r="B91" s="62"/>
       <c r="C91" s="127"/>
-      <c r="D91" s="224"/>
+      <c r="D91" s="223"/>
       <c r="E91" s="191"/>
       <c r="F91" s="143"/>
       <c r="G91" s="149"/>
@@ -19363,7 +19370,7 @@
       <c r="L91" s="140">
         <v>2300</v>
       </c>
-      <c r="M91" s="201">
+      <c r="M91" s="200">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -19453,14 +19460,14 @@
       <c r="CS91" s="149"/>
     </row>
     <row r="92" spans="1:97">
-      <c r="A92" s="241"/>
+      <c r="A92" s="240"/>
       <c r="B92" s="62"/>
       <c r="C92" s="127"/>
-      <c r="D92" s="224"/>
+      <c r="D92" s="223"/>
       <c r="E92" s="190"/>
       <c r="F92" s="149"/>
       <c r="G92" s="149"/>
-      <c r="H92" s="200" t="s">
+      <c r="H92" s="199" t="s">
         <v>146</v>
       </c>
       <c r="I92" s="64" t="s">
@@ -19475,7 +19482,7 @@
       <c r="L92" s="140">
         <v>1000</v>
       </c>
-      <c r="M92" s="201">
+      <c r="M92" s="200">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -19565,14 +19572,14 @@
       <c r="CS92" s="149"/>
     </row>
     <row r="93" spans="1:97">
-      <c r="A93" s="241"/>
+      <c r="A93" s="240"/>
       <c r="B93" s="62"/>
       <c r="C93" s="127"/>
-      <c r="D93" s="224"/>
+      <c r="D93" s="223"/>
       <c r="E93" s="189"/>
       <c r="F93" s="149"/>
       <c r="G93" s="149"/>
-      <c r="H93" s="200" t="s">
+      <c r="H93" s="199" t="s">
         <v>157</v>
       </c>
       <c r="I93" s="64" t="s">
@@ -19587,7 +19594,7 @@
       <c r="L93" s="140">
         <v>3360</v>
       </c>
-      <c r="M93" s="201">
+      <c r="M93" s="200">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -19677,19 +19684,19 @@
       <c r="CS93" s="149"/>
     </row>
     <row r="94" spans="1:97">
-      <c r="A94" s="241"/>
+      <c r="A94" s="240"/>
       <c r="B94" s="61"/>
       <c r="C94" s="127"/>
-      <c r="D94" s="224"/>
+      <c r="D94" s="223"/>
       <c r="E94" s="190"/>
       <c r="F94" s="149"/>
       <c r="G94" s="149"/>
-      <c r="H94" s="200"/>
+      <c r="H94" s="199"/>
       <c r="I94" s="64"/>
       <c r="J94" s="60"/>
       <c r="K94" s="182"/>
       <c r="L94" s="140"/>
-      <c r="M94" s="201">
+      <c r="M94" s="200">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -19779,10 +19786,10 @@
       <c r="CS94" s="149"/>
     </row>
     <row r="95" spans="1:97">
-      <c r="A95" s="241"/>
+      <c r="A95" s="240"/>
       <c r="B95" s="62"/>
       <c r="C95" s="127"/>
-      <c r="D95" s="226"/>
+      <c r="D95" s="225"/>
       <c r="E95" s="190"/>
       <c r="F95" s="149"/>
       <c r="G95" s="149"/>
@@ -19791,7 +19798,7 @@
       <c r="J95" s="180"/>
       <c r="K95" s="181"/>
       <c r="L95" s="140"/>
-      <c r="M95" s="201">
+      <c r="M95" s="200">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -19881,19 +19888,19 @@
       <c r="CS95" s="149"/>
     </row>
     <row r="96" spans="1:97">
-      <c r="A96" s="241"/>
+      <c r="A96" s="240"/>
       <c r="B96" s="62"/>
       <c r="C96" s="127"/>
-      <c r="D96" s="224"/>
+      <c r="D96" s="223"/>
       <c r="E96" s="191"/>
       <c r="F96" s="149"/>
       <c r="G96" s="149"/>
-      <c r="H96" s="200"/>
+      <c r="H96" s="199"/>
       <c r="I96" s="64"/>
       <c r="J96" s="60"/>
       <c r="K96" s="127"/>
       <c r="L96" s="140"/>
-      <c r="M96" s="201">
+      <c r="M96" s="200">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -19983,19 +19990,19 @@
       <c r="CS96" s="149"/>
     </row>
     <row r="97" spans="1:97">
-      <c r="A97" s="241"/>
+      <c r="A97" s="240"/>
       <c r="B97" s="62"/>
-      <c r="C97" s="243"/>
-      <c r="D97" s="224"/>
+      <c r="C97" s="242"/>
+      <c r="D97" s="223"/>
       <c r="E97" s="191"/>
       <c r="F97" s="149"/>
       <c r="G97" s="149"/>
-      <c r="H97" s="200"/>
+      <c r="H97" s="199"/>
       <c r="I97" s="64"/>
       <c r="J97" s="60"/>
       <c r="K97" s="60"/>
       <c r="L97" s="140"/>
-      <c r="M97" s="201">
+      <c r="M97" s="200">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -20085,10 +20092,10 @@
       <c r="CS97" s="149"/>
     </row>
     <row r="98" spans="1:97">
-      <c r="A98" s="241"/>
+      <c r="A98" s="240"/>
       <c r="B98" s="61"/>
       <c r="C98" s="60"/>
-      <c r="D98" s="224"/>
+      <c r="D98" s="223"/>
       <c r="E98" s="190"/>
       <c r="F98" s="149"/>
       <c r="G98" s="149"/>
@@ -20097,7 +20104,7 @@
       <c r="J98" s="180"/>
       <c r="K98" s="181"/>
       <c r="L98" s="140"/>
-      <c r="M98" s="201">
+      <c r="M98" s="200">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -20187,19 +20194,19 @@
       <c r="CS98" s="149"/>
     </row>
     <row r="99" spans="1:97">
-      <c r="A99" s="241"/>
+      <c r="A99" s="240"/>
       <c r="B99" s="62"/>
       <c r="C99" s="127"/>
-      <c r="D99" s="224"/>
+      <c r="D99" s="223"/>
       <c r="E99" s="189"/>
       <c r="F99" s="149"/>
       <c r="G99" s="149"/>
-      <c r="H99" s="200"/>
+      <c r="H99" s="199"/>
       <c r="I99" s="64"/>
       <c r="J99" s="60"/>
       <c r="K99" s="182"/>
       <c r="L99" s="140"/>
-      <c r="M99" s="201">
+      <c r="M99" s="200">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -20289,19 +20296,19 @@
       <c r="CS99" s="149"/>
     </row>
     <row r="100" spans="1:97">
-      <c r="A100" s="241"/>
+      <c r="A100" s="240"/>
       <c r="B100" s="62"/>
       <c r="C100" s="127"/>
-      <c r="D100" s="224"/>
+      <c r="D100" s="223"/>
       <c r="E100" s="191"/>
       <c r="F100" s="149"/>
       <c r="G100" s="149"/>
-      <c r="H100" s="200"/>
+      <c r="H100" s="199"/>
       <c r="I100" s="64"/>
       <c r="J100" s="60"/>
       <c r="K100" s="182"/>
       <c r="L100" s="140"/>
-      <c r="M100" s="201">
+      <c r="M100" s="200">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -20391,10 +20398,10 @@
       <c r="CS100" s="149"/>
     </row>
     <row r="101" spans="1:97">
-      <c r="A101" s="241"/>
+      <c r="A101" s="240"/>
       <c r="B101" s="62"/>
       <c r="C101" s="127"/>
-      <c r="D101" s="224"/>
+      <c r="D101" s="223"/>
       <c r="E101" s="191"/>
       <c r="F101" s="149"/>
       <c r="G101" s="149"/>
@@ -20403,7 +20410,7 @@
       <c r="J101" s="180"/>
       <c r="K101" s="181"/>
       <c r="L101" s="140"/>
-      <c r="M101" s="201">
+      <c r="M101" s="200">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -20493,10 +20500,10 @@
       <c r="CS101" s="149"/>
     </row>
     <row r="102" spans="1:97">
-      <c r="A102" s="241"/>
+      <c r="A102" s="240"/>
       <c r="B102" s="62"/>
       <c r="C102" s="127"/>
-      <c r="D102" s="224"/>
+      <c r="D102" s="223"/>
       <c r="E102" s="191"/>
       <c r="F102" s="149"/>
       <c r="G102" s="149"/>
@@ -20505,7 +20512,7 @@
       <c r="J102" s="180"/>
       <c r="K102" s="181"/>
       <c r="L102" s="140"/>
-      <c r="M102" s="201">
+      <c r="M102" s="200">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -20595,10 +20602,10 @@
       <c r="CS102" s="149"/>
     </row>
     <row r="103" spans="1:97">
-      <c r="A103" s="241"/>
+      <c r="A103" s="240"/>
       <c r="B103" s="62"/>
       <c r="C103" s="127"/>
-      <c r="D103" s="224"/>
+      <c r="D103" s="223"/>
       <c r="E103" s="191"/>
       <c r="F103" s="149"/>
       <c r="G103" s="149"/>
@@ -20607,7 +20614,7 @@
       <c r="J103" s="180"/>
       <c r="K103" s="181"/>
       <c r="L103" s="140"/>
-      <c r="M103" s="201">
+      <c r="M103" s="200">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -20697,19 +20704,19 @@
       <c r="CS103" s="149"/>
     </row>
     <row r="104" spans="1:97">
-      <c r="A104" s="241"/>
+      <c r="A104" s="240"/>
       <c r="B104" s="62"/>
       <c r="C104" s="127"/>
-      <c r="D104" s="224"/>
+      <c r="D104" s="223"/>
       <c r="E104" s="191"/>
       <c r="F104" s="149"/>
       <c r="G104" s="149"/>
-      <c r="H104" s="200"/>
+      <c r="H104" s="199"/>
       <c r="I104" s="64"/>
       <c r="J104" s="60"/>
       <c r="K104" s="182"/>
       <c r="L104" s="140"/>
-      <c r="M104" s="201">
+      <c r="M104" s="200">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -20799,19 +20806,19 @@
       <c r="CS104" s="149"/>
     </row>
     <row r="105" spans="1:97">
-      <c r="A105" s="241"/>
+      <c r="A105" s="240"/>
       <c r="B105" s="62"/>
       <c r="C105" s="127"/>
-      <c r="D105" s="224"/>
+      <c r="D105" s="223"/>
       <c r="E105" s="190"/>
       <c r="F105" s="149"/>
       <c r="G105" s="149"/>
-      <c r="H105" s="200"/>
+      <c r="H105" s="199"/>
       <c r="I105" s="64"/>
       <c r="J105" s="60"/>
       <c r="K105" s="127"/>
       <c r="L105" s="140"/>
-      <c r="M105" s="201">
+      <c r="M105" s="200">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -20901,19 +20908,19 @@
       <c r="CS105" s="149"/>
     </row>
     <row r="106" spans="1:97">
-      <c r="A106" s="241"/>
+      <c r="A106" s="240"/>
       <c r="B106" s="62"/>
       <c r="C106" s="127"/>
-      <c r="D106" s="224"/>
+      <c r="D106" s="223"/>
       <c r="E106" s="191"/>
       <c r="F106" s="149"/>
       <c r="G106" s="149"/>
-      <c r="H106" s="200"/>
+      <c r="H106" s="199"/>
       <c r="I106" s="64"/>
       <c r="J106" s="60"/>
       <c r="K106" s="182"/>
       <c r="L106" s="140"/>
-      <c r="M106" s="201">
+      <c r="M106" s="200">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -21003,10 +21010,10 @@
       <c r="CS106" s="149"/>
     </row>
     <row r="107" spans="1:97">
-      <c r="A107" s="241"/>
+      <c r="A107" s="240"/>
       <c r="B107" s="62"/>
       <c r="C107" s="127"/>
-      <c r="D107" s="224"/>
+      <c r="D107" s="223"/>
       <c r="E107" s="191"/>
       <c r="F107" s="149"/>
       <c r="G107" s="149"/>
@@ -21015,7 +21022,7 @@
       <c r="J107" s="180"/>
       <c r="K107" s="181"/>
       <c r="L107" s="140"/>
-      <c r="M107" s="201">
+      <c r="M107" s="200">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -21105,10 +21112,10 @@
       <c r="CS107" s="149"/>
     </row>
     <row r="108" spans="1:97">
-      <c r="A108" s="241"/>
+      <c r="A108" s="240"/>
       <c r="B108" s="62"/>
       <c r="C108" s="127"/>
-      <c r="D108" s="224"/>
+      <c r="D108" s="223"/>
       <c r="E108" s="191"/>
       <c r="F108" s="149"/>
       <c r="G108" s="149" t="s">
@@ -21119,7 +21126,7 @@
       <c r="J108" s="180"/>
       <c r="K108" s="181"/>
       <c r="L108" s="140"/>
-      <c r="M108" s="201">
+      <c r="M108" s="200">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -21209,10 +21216,10 @@
       <c r="CS108" s="149"/>
     </row>
     <row r="109" spans="1:97">
-      <c r="A109" s="241"/>
+      <c r="A109" s="240"/>
       <c r="B109" s="62"/>
       <c r="C109" s="127"/>
-      <c r="D109" s="224"/>
+      <c r="D109" s="223"/>
       <c r="E109" s="191"/>
       <c r="F109" s="149"/>
       <c r="G109" s="149"/>
@@ -21221,7 +21228,7 @@
       <c r="J109" s="180"/>
       <c r="K109" s="181"/>
       <c r="L109" s="140"/>
-      <c r="M109" s="201">
+      <c r="M109" s="200">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -21311,19 +21318,19 @@
       <c r="CS109" s="149"/>
     </row>
     <row r="110" spans="1:97">
-      <c r="A110" s="241"/>
+      <c r="A110" s="240"/>
       <c r="B110" s="62"/>
       <c r="C110" s="127"/>
-      <c r="D110" s="224"/>
+      <c r="D110" s="223"/>
       <c r="E110" s="191"/>
       <c r="F110" s="149"/>
       <c r="G110" s="149"/>
-      <c r="H110" s="202"/>
+      <c r="H110" s="201"/>
       <c r="I110" s="70"/>
       <c r="J110" s="60"/>
       <c r="K110" s="182"/>
       <c r="L110" s="140"/>
-      <c r="M110" s="201">
+      <c r="M110" s="200">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -21413,27 +21420,19 @@
       <c r="CS110" s="149"/>
     </row>
     <row r="111" spans="1:97">
-      <c r="A111" s="241" t="s">
-        <v>116</v>
-      </c>
-      <c r="B111" s="62" t="s">
-        <v>223</v>
-      </c>
+      <c r="A111" s="240"/>
+      <c r="B111" s="62"/>
       <c r="C111" s="127"/>
-      <c r="D111" s="224">
-        <v>10000</v>
-      </c>
-      <c r="E111" s="191" t="s">
-        <v>216</v>
-      </c>
+      <c r="D111" s="223"/>
+      <c r="E111" s="191"/>
       <c r="F111" s="149"/>
       <c r="G111" s="149"/>
-      <c r="H111" s="200"/>
+      <c r="H111" s="199"/>
       <c r="I111" s="64"/>
       <c r="J111" s="60"/>
       <c r="K111" s="182"/>
       <c r="L111" s="140"/>
-      <c r="M111" s="201">
+      <c r="M111" s="200">
         <f>SUM(J111-L111)</f>
         <v>0</v>
       </c>
@@ -21523,16 +21522,16 @@
       <c r="CS111" s="149"/>
     </row>
     <row r="112" spans="1:97">
-      <c r="A112" s="241" t="s">
+      <c r="A112" s="240" t="s">
         <v>117</v>
       </c>
       <c r="B112" s="61" t="s">
         <v>56</v>
       </c>
-      <c r="C112" s="243">
+      <c r="C112" s="242">
         <v>1739992171</v>
       </c>
-      <c r="D112" s="224">
+      <c r="D112" s="223">
         <v>17500</v>
       </c>
       <c r="E112" s="191" t="s">
@@ -21540,12 +21539,12 @@
       </c>
       <c r="F112" s="149"/>
       <c r="G112" s="149"/>
-      <c r="H112" s="200"/>
+      <c r="H112" s="199"/>
       <c r="I112" s="64"/>
       <c r="J112" s="60"/>
       <c r="K112" s="182"/>
       <c r="L112" s="140"/>
-      <c r="M112" s="201">
+      <c r="M112" s="200">
         <f>SUM(J112-L112)</f>
         <v>0</v>
       </c>
@@ -21635,7 +21634,7 @@
       <c r="CS112" s="149"/>
     </row>
     <row r="113" spans="1:97">
-      <c r="A113" s="241" t="s">
+      <c r="A113" s="240" t="s">
         <v>113</v>
       </c>
       <c r="B113" s="62" t="s">
@@ -21644,7 +21643,7 @@
       <c r="C113" s="127">
         <v>1758900692</v>
       </c>
-      <c r="D113" s="224">
+      <c r="D113" s="223">
         <v>30000</v>
       </c>
       <c r="E113" s="191" t="s">
@@ -21652,12 +21651,12 @@
       </c>
       <c r="F113" s="149"/>
       <c r="G113" s="149"/>
-      <c r="H113" s="200"/>
+      <c r="H113" s="199"/>
       <c r="I113" s="64"/>
       <c r="J113" s="60"/>
       <c r="K113" s="60"/>
       <c r="L113" s="140"/>
-      <c r="M113" s="201">
+      <c r="M113" s="200">
         <f t="shared" ref="M113:M120" si="3">SUM(J113-L113)</f>
         <v>0</v>
       </c>
@@ -21747,27 +21746,27 @@
       <c r="CS113" s="149"/>
     </row>
     <row r="114" spans="1:97">
-      <c r="A114" s="241" t="s">
+      <c r="A114" s="240" t="s">
         <v>116</v>
       </c>
       <c r="B114" s="62" t="s">
         <v>185</v>
       </c>
       <c r="C114" s="127"/>
-      <c r="D114" s="224">
+      <c r="D114" s="223">
         <v>490</v>
       </c>
       <c r="E114" s="191" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="F114" s="149"/>
       <c r="G114" s="149"/>
-      <c r="H114" s="200"/>
+      <c r="H114" s="199"/>
       <c r="I114" s="64"/>
       <c r="J114" s="60"/>
       <c r="K114" s="182"/>
       <c r="L114" s="140"/>
-      <c r="M114" s="201">
+      <c r="M114" s="200">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -21857,14 +21856,14 @@
       <c r="CS114" s="149"/>
     </row>
     <row r="115" spans="1:97">
-      <c r="A115" s="241" t="s">
+      <c r="A115" s="240" t="s">
         <v>172</v>
       </c>
       <c r="B115" s="62" t="s">
         <v>173</v>
       </c>
       <c r="C115" s="127"/>
-      <c r="D115" s="224">
+      <c r="D115" s="223">
         <v>2120</v>
       </c>
       <c r="E115" s="191" t="s">
@@ -21872,12 +21871,12 @@
       </c>
       <c r="F115" s="149"/>
       <c r="G115" s="149"/>
-      <c r="H115" s="200"/>
+      <c r="H115" s="199"/>
       <c r="I115" s="64"/>
       <c r="J115" s="60"/>
       <c r="K115" s="182"/>
       <c r="L115" s="140"/>
-      <c r="M115" s="201">
+      <c r="M115" s="200">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -21967,7 +21966,7 @@
       <c r="CS115" s="149"/>
     </row>
     <row r="116" spans="1:97">
-      <c r="A116" s="241" t="s">
+      <c r="A116" s="240" t="s">
         <v>118</v>
       </c>
       <c r="B116" s="62" t="s">
@@ -21976,7 +21975,7 @@
       <c r="C116" s="127">
         <v>1755626210</v>
       </c>
-      <c r="D116" s="224">
+      <c r="D116" s="223">
         <v>17500</v>
       </c>
       <c r="E116" s="191" t="s">
@@ -21989,7 +21988,7 @@
       <c r="J116" s="180"/>
       <c r="K116" s="181"/>
       <c r="L116" s="140"/>
-      <c r="M116" s="201">
+      <c r="M116" s="200">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -22079,7 +22078,7 @@
       <c r="CS116" s="149"/>
     </row>
     <row r="117" spans="1:97">
-      <c r="A117" s="241" t="s">
+      <c r="A117" s="240" t="s">
         <v>113</v>
       </c>
       <c r="B117" s="62" t="s">
@@ -22088,7 +22087,7 @@
       <c r="C117" s="127">
         <v>1746818159</v>
       </c>
-      <c r="D117" s="224">
+      <c r="D117" s="223">
         <v>3500</v>
       </c>
       <c r="E117" s="191" t="s">
@@ -22096,12 +22095,12 @@
       </c>
       <c r="F117" s="149"/>
       <c r="G117" s="149"/>
-      <c r="H117" s="200"/>
+      <c r="H117" s="199"/>
       <c r="I117" s="64"/>
       <c r="J117" s="60"/>
       <c r="K117" s="182"/>
       <c r="L117" s="140"/>
-      <c r="M117" s="201">
+      <c r="M117" s="200">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -22191,7 +22190,7 @@
       <c r="CS117" s="149"/>
     </row>
     <row r="118" spans="1:97" ht="13.5" thickBot="1">
-      <c r="A118" s="242" t="s">
+      <c r="A118" s="241" t="s">
         <v>154</v>
       </c>
       <c r="B118" s="185" t="s">
@@ -22200,7 +22199,7 @@
       <c r="C118" s="127">
         <v>1713632915</v>
       </c>
-      <c r="D118" s="287">
+      <c r="D118" s="286">
         <v>2300</v>
       </c>
       <c r="E118" s="192" t="s">
@@ -22213,7 +22212,7 @@
       <c r="J118" s="180"/>
       <c r="K118" s="182"/>
       <c r="L118" s="140"/>
-      <c r="M118" s="201">
+      <c r="M118" s="200">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -22303,23 +22302,23 @@
       <c r="CS118" s="149"/>
     </row>
     <row r="119" spans="1:97" ht="13.5" thickBot="1">
-      <c r="A119" s="339" t="s">
+      <c r="A119" s="337" t="s">
         <v>34</v>
       </c>
-      <c r="B119" s="340"/>
-      <c r="C119" s="352"/>
-      <c r="D119" s="227">
+      <c r="B119" s="338"/>
+      <c r="C119" s="350"/>
+      <c r="D119" s="226">
         <f>SUM(D37:D118)</f>
-        <v>1754095</v>
-      </c>
-      <c r="E119" s="219"/>
+        <v>1775165</v>
+      </c>
+      <c r="E119" s="218"/>
       <c r="F119" s="149"/>
       <c r="H119" s="186"/>
       <c r="I119" s="65"/>
       <c r="J119" s="180"/>
       <c r="K119" s="182"/>
       <c r="L119" s="140"/>
-      <c r="M119" s="201">
+      <c r="M119" s="200">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -22415,12 +22414,12 @@
       <c r="E120" s="69"/>
       <c r="F120" s="149"/>
       <c r="G120" s="149"/>
-      <c r="H120" s="209"/>
-      <c r="I120" s="210"/>
-      <c r="J120" s="211"/>
-      <c r="K120" s="212"/>
-      <c r="L120" s="213"/>
-      <c r="M120" s="214">
+      <c r="H120" s="208"/>
+      <c r="I120" s="209"/>
+      <c r="J120" s="210"/>
+      <c r="K120" s="211"/>
+      <c r="L120" s="212"/>
+      <c r="M120" s="213">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -22510,30 +22509,30 @@
       <c r="CS120" s="149"/>
     </row>
     <row r="121" spans="1:97" ht="13.5" thickBot="1">
-      <c r="A121" s="339" t="s">
+      <c r="A121" s="337" t="s">
         <v>35</v>
       </c>
-      <c r="B121" s="340"/>
-      <c r="C121" s="340"/>
-      <c r="D121" s="227">
+      <c r="B121" s="338"/>
+      <c r="C121" s="338"/>
+      <c r="D121" s="226">
         <f>D119+M121</f>
-        <v>1754095</v>
-      </c>
-      <c r="E121" s="219"/>
+        <v>1775165</v>
+      </c>
+      <c r="E121" s="218"/>
       <c r="F121" s="149"/>
       <c r="G121" s="149"/>
-      <c r="H121" s="231"/>
-      <c r="I121" s="198"/>
-      <c r="J121" s="232">
+      <c r="H121" s="230"/>
+      <c r="I121" s="197"/>
+      <c r="J121" s="231">
         <f>SUM(J46:J120)</f>
         <v>1891001</v>
       </c>
-      <c r="K121" s="233"/>
-      <c r="L121" s="234">
+      <c r="K121" s="232"/>
+      <c r="L121" s="233">
         <f>SUM(L46:L120)</f>
         <v>1891001</v>
       </c>
-      <c r="M121" s="235">
+      <c r="M121" s="234">
         <f>SUM(J121-L121)</f>
         <v>0</v>
       </c>
@@ -22626,7 +22625,7 @@
       <c r="A122" s="149"/>
       <c r="B122" s="174"/>
       <c r="C122" s="174"/>
-      <c r="D122" s="228"/>
+      <c r="D122" s="227"/>
       <c r="E122" s="149"/>
       <c r="F122" s="149"/>
       <c r="G122" s="69"/>
@@ -23418,7 +23417,7 @@
       <c r="A130" s="149"/>
       <c r="B130" s="174"/>
       <c r="C130" s="174"/>
-      <c r="D130" s="228"/>
+      <c r="D130" s="227"/>
       <c r="E130" s="149"/>
       <c r="F130" s="149"/>
       <c r="G130" s="69"/>
@@ -23517,7 +23516,7 @@
       <c r="A131" s="149"/>
       <c r="B131" s="174"/>
       <c r="C131" s="174"/>
-      <c r="D131" s="228"/>
+      <c r="D131" s="227"/>
       <c r="E131" s="149"/>
       <c r="F131" s="149"/>
       <c r="G131" s="69"/>
@@ -23616,7 +23615,7 @@
       <c r="A132" s="149"/>
       <c r="B132" s="174"/>
       <c r="C132" s="174"/>
-      <c r="D132" s="229"/>
+      <c r="D132" s="228"/>
       <c r="E132" s="149"/>
       <c r="F132" s="149"/>
       <c r="G132" s="69"/>
@@ -23715,7 +23714,7 @@
       <c r="A133" s="149"/>
       <c r="B133" s="174"/>
       <c r="C133" s="174"/>
-      <c r="D133" s="229"/>
+      <c r="D133" s="228"/>
       <c r="E133" s="149"/>
       <c r="F133" s="149"/>
       <c r="G133" s="69"/>
@@ -23814,7 +23813,7 @@
       <c r="A134" s="149"/>
       <c r="B134" s="174"/>
       <c r="C134" s="174"/>
-      <c r="D134" s="229"/>
+      <c r="D134" s="228"/>
       <c r="E134" s="149"/>
       <c r="F134" s="149"/>
       <c r="G134" s="69"/>
@@ -23913,7 +23912,7 @@
       <c r="A135" s="149"/>
       <c r="B135" s="174"/>
       <c r="C135" s="174"/>
-      <c r="D135" s="229"/>
+      <c r="D135" s="228"/>
       <c r="E135" s="149"/>
       <c r="F135" s="149"/>
       <c r="G135" s="69"/>
@@ -24012,7 +24011,7 @@
       <c r="A136" s="149"/>
       <c r="B136" s="174"/>
       <c r="C136" s="174"/>
-      <c r="D136" s="229"/>
+      <c r="D136" s="228"/>
       <c r="E136" s="149"/>
       <c r="F136" s="149"/>
       <c r="G136" s="69"/>
@@ -24111,7 +24110,7 @@
       <c r="A137" s="149"/>
       <c r="B137" s="167"/>
       <c r="C137" s="167"/>
-      <c r="D137" s="230"/>
+      <c r="D137" s="229"/>
       <c r="E137" s="69"/>
       <c r="F137" s="69"/>
       <c r="G137" s="69"/>
@@ -24210,7 +24209,7 @@
       <c r="A138" s="149"/>
       <c r="B138" s="167"/>
       <c r="C138" s="167"/>
-      <c r="D138" s="230"/>
+      <c r="D138" s="229"/>
       <c r="E138" s="69"/>
       <c r="F138" s="69"/>
       <c r="G138" s="69"/>
@@ -24309,7 +24308,7 @@
       <c r="A139" s="69"/>
       <c r="B139" s="167"/>
       <c r="C139" s="167"/>
-      <c r="D139" s="230"/>
+      <c r="D139" s="229"/>
       <c r="E139" s="69"/>
       <c r="F139" s="69"/>
       <c r="G139" s="69"/>
@@ -24407,7 +24406,7 @@
     <row r="140" spans="1:97" s="149" customFormat="1">
       <c r="B140" s="167"/>
       <c r="C140" s="167"/>
-      <c r="D140" s="230"/>
+      <c r="D140" s="229"/>
       <c r="E140" s="69"/>
       <c r="F140" s="69"/>
       <c r="G140" s="69"/>
@@ -24469,7 +24468,7 @@
     <row r="141" spans="1:97" s="149" customFormat="1">
       <c r="B141" s="167"/>
       <c r="C141" s="167"/>
-      <c r="D141" s="230"/>
+      <c r="D141" s="229"/>
       <c r="E141" s="69"/>
       <c r="F141" s="69"/>
       <c r="G141" s="69"/>
@@ -24494,7 +24493,7 @@
     <row r="142" spans="1:97" s="149" customFormat="1">
       <c r="B142" s="174"/>
       <c r="C142" s="174"/>
-      <c r="D142" s="229"/>
+      <c r="D142" s="228"/>
       <c r="G142" s="69"/>
       <c r="H142" s="69"/>
       <c r="I142" s="154"/>
@@ -24517,7 +24516,7 @@
     <row r="143" spans="1:97" s="149" customFormat="1">
       <c r="B143" s="174"/>
       <c r="C143" s="174"/>
-      <c r="D143" s="229"/>
+      <c r="D143" s="228"/>
       <c r="G143" s="69"/>
       <c r="H143" s="69"/>
       <c r="I143" s="154"/>
@@ -24540,7 +24539,7 @@
     <row r="144" spans="1:97" s="149" customFormat="1">
       <c r="B144" s="174"/>
       <c r="C144" s="174"/>
-      <c r="D144" s="229"/>
+      <c r="D144" s="228"/>
       <c r="G144" s="69"/>
       <c r="H144" s="69"/>
       <c r="I144" s="154"/>
@@ -24563,7 +24562,7 @@
     <row r="145" spans="2:24" s="149" customFormat="1">
       <c r="B145" s="174"/>
       <c r="C145" s="174"/>
-      <c r="D145" s="229"/>
+      <c r="D145" s="228"/>
       <c r="G145" s="69"/>
       <c r="H145" s="69"/>
       <c r="I145" s="154"/>
@@ -24586,7 +24585,7 @@
     <row r="146" spans="2:24" s="149" customFormat="1">
       <c r="B146" s="174"/>
       <c r="C146" s="174"/>
-      <c r="D146" s="229"/>
+      <c r="D146" s="228"/>
       <c r="G146" s="69"/>
       <c r="H146" s="69"/>
       <c r="I146" s="154"/>
@@ -24609,7 +24608,7 @@
     <row r="147" spans="2:24" s="149" customFormat="1">
       <c r="B147" s="174"/>
       <c r="C147" s="174"/>
-      <c r="D147" s="229"/>
+      <c r="D147" s="228"/>
       <c r="G147" s="69"/>
       <c r="H147" s="69"/>
       <c r="I147" s="154"/>
@@ -24632,7 +24631,7 @@
     <row r="148" spans="2:24" s="149" customFormat="1">
       <c r="B148" s="174"/>
       <c r="C148" s="174"/>
-      <c r="D148" s="229"/>
+      <c r="D148" s="228"/>
       <c r="G148" s="69"/>
       <c r="H148" s="69"/>
       <c r="I148" s="154"/>
@@ -24652,7 +24651,7 @@
     <row r="149" spans="2:24" s="149" customFormat="1">
       <c r="B149" s="174"/>
       <c r="C149" s="174"/>
-      <c r="D149" s="229"/>
+      <c r="D149" s="228"/>
       <c r="G149" s="69"/>
       <c r="H149" s="69"/>
       <c r="I149" s="154"/>
@@ -24672,7 +24671,7 @@
     <row r="150" spans="2:24" s="149" customFormat="1">
       <c r="B150" s="174"/>
       <c r="C150" s="174"/>
-      <c r="D150" s="229"/>
+      <c r="D150" s="228"/>
       <c r="G150" s="69"/>
       <c r="H150" s="69"/>
       <c r="I150" s="154"/>
@@ -24692,7 +24691,7 @@
     <row r="151" spans="2:24" s="149" customFormat="1">
       <c r="B151" s="174"/>
       <c r="C151" s="174"/>
-      <c r="D151" s="229"/>
+      <c r="D151" s="228"/>
       <c r="G151" s="69"/>
       <c r="H151" s="69"/>
       <c r="I151" s="154"/>
@@ -24712,7 +24711,7 @@
     <row r="152" spans="2:24" s="149" customFormat="1">
       <c r="B152" s="174"/>
       <c r="C152" s="174"/>
-      <c r="D152" s="229"/>
+      <c r="D152" s="228"/>
       <c r="G152" s="69"/>
       <c r="H152" s="69"/>
       <c r="I152" s="154"/>
@@ -24732,7 +24731,7 @@
     <row r="153" spans="2:24" s="149" customFormat="1">
       <c r="B153" s="174"/>
       <c r="C153" s="174"/>
-      <c r="D153" s="229"/>
+      <c r="D153" s="228"/>
       <c r="G153" s="69"/>
       <c r="H153" s="69"/>
       <c r="I153" s="154"/>
@@ -24752,7 +24751,7 @@
     <row r="154" spans="2:24" s="149" customFormat="1">
       <c r="B154" s="174"/>
       <c r="C154" s="174"/>
-      <c r="D154" s="229"/>
+      <c r="D154" s="228"/>
       <c r="G154" s="69"/>
       <c r="H154" s="69"/>
       <c r="I154" s="154"/>
@@ -24772,7 +24771,7 @@
     <row r="155" spans="2:24" s="149" customFormat="1">
       <c r="B155" s="174"/>
       <c r="C155" s="174"/>
-      <c r="D155" s="229"/>
+      <c r="D155" s="228"/>
       <c r="G155" s="69"/>
       <c r="H155" s="69"/>
       <c r="I155" s="154"/>
@@ -24792,7 +24791,7 @@
     <row r="156" spans="2:24" s="149" customFormat="1">
       <c r="B156" s="174"/>
       <c r="C156" s="174"/>
-      <c r="D156" s="229"/>
+      <c r="D156" s="228"/>
       <c r="G156" s="69"/>
       <c r="H156" s="69"/>
       <c r="I156" s="154"/>
@@ -24812,7 +24811,7 @@
     <row r="157" spans="2:24" s="149" customFormat="1">
       <c r="B157" s="174"/>
       <c r="C157" s="174"/>
-      <c r="D157" s="229"/>
+      <c r="D157" s="228"/>
       <c r="G157" s="69"/>
       <c r="H157" s="69"/>
       <c r="I157" s="154"/>
@@ -24824,7 +24823,7 @@
     <row r="158" spans="2:24" s="149" customFormat="1">
       <c r="B158" s="174"/>
       <c r="C158" s="174"/>
-      <c r="D158" s="229"/>
+      <c r="D158" s="228"/>
       <c r="G158" s="69"/>
       <c r="H158" s="69"/>
       <c r="I158" s="154"/>
@@ -24836,7 +24835,7 @@
     <row r="159" spans="2:24" s="149" customFormat="1">
       <c r="B159" s="174"/>
       <c r="C159" s="174"/>
-      <c r="D159" s="229"/>
+      <c r="D159" s="228"/>
       <c r="G159" s="69"/>
       <c r="H159" s="69"/>
       <c r="I159" s="154"/>
@@ -24848,7 +24847,7 @@
     <row r="160" spans="2:24" s="149" customFormat="1">
       <c r="B160" s="174"/>
       <c r="C160" s="174"/>
-      <c r="D160" s="229"/>
+      <c r="D160" s="228"/>
       <c r="G160" s="69"/>
       <c r="H160" s="69"/>
       <c r="I160" s="154"/>
@@ -24860,7 +24859,7 @@
     <row r="161" spans="2:14" s="149" customFormat="1">
       <c r="B161" s="174"/>
       <c r="C161" s="174"/>
-      <c r="D161" s="229"/>
+      <c r="D161" s="228"/>
       <c r="G161" s="69"/>
       <c r="H161" s="69"/>
       <c r="I161" s="154"/>
@@ -24872,7 +24871,7 @@
     <row r="162" spans="2:14" s="149" customFormat="1">
       <c r="B162" s="174"/>
       <c r="C162" s="174"/>
-      <c r="D162" s="229"/>
+      <c r="D162" s="228"/>
       <c r="G162" s="69"/>
       <c r="H162" s="69"/>
       <c r="I162" s="154"/>
@@ -24884,7 +24883,7 @@
     <row r="163" spans="2:14" s="149" customFormat="1">
       <c r="B163" s="174"/>
       <c r="C163" s="174"/>
-      <c r="D163" s="229"/>
+      <c r="D163" s="228"/>
       <c r="G163" s="69"/>
       <c r="H163" s="69"/>
       <c r="I163" s="154"/>
@@ -24896,7 +24895,7 @@
     <row r="164" spans="2:14" s="149" customFormat="1">
       <c r="B164" s="174"/>
       <c r="C164" s="174"/>
-      <c r="D164" s="229"/>
+      <c r="D164" s="228"/>
       <c r="G164" s="69"/>
       <c r="H164" s="69"/>
       <c r="I164" s="154"/>
@@ -24908,7 +24907,7 @@
     <row r="165" spans="2:14" s="149" customFormat="1">
       <c r="B165" s="174"/>
       <c r="C165" s="174"/>
-      <c r="D165" s="229"/>
+      <c r="D165" s="228"/>
       <c r="G165" s="69"/>
       <c r="H165" s="69"/>
       <c r="I165" s="154"/>
@@ -24920,7 +24919,7 @@
     <row r="166" spans="2:14" s="149" customFormat="1">
       <c r="B166" s="174"/>
       <c r="C166" s="174"/>
-      <c r="D166" s="229"/>
+      <c r="D166" s="228"/>
       <c r="G166" s="69"/>
       <c r="H166" s="69"/>
       <c r="I166" s="154"/>
@@ -24932,7 +24931,7 @@
     <row r="167" spans="2:14" s="149" customFormat="1">
       <c r="B167" s="174"/>
       <c r="C167" s="174"/>
-      <c r="D167" s="229"/>
+      <c r="D167" s="228"/>
       <c r="G167" s="69"/>
       <c r="H167" s="69"/>
       <c r="I167" s="154"/>
@@ -24944,7 +24943,7 @@
     <row r="168" spans="2:14" s="149" customFormat="1">
       <c r="B168" s="174"/>
       <c r="C168" s="174"/>
-      <c r="D168" s="229"/>
+      <c r="D168" s="228"/>
       <c r="G168" s="69"/>
       <c r="H168" s="69"/>
       <c r="I168" s="154"/>
@@ -24956,7 +24955,7 @@
     <row r="169" spans="2:14" s="149" customFormat="1">
       <c r="B169" s="174"/>
       <c r="C169" s="174"/>
-      <c r="D169" s="229"/>
+      <c r="D169" s="228"/>
       <c r="G169" s="69"/>
       <c r="H169" s="69"/>
       <c r="I169" s="154"/>
@@ -24969,7 +24968,7 @@
     <row r="170" spans="2:14" s="149" customFormat="1">
       <c r="B170" s="174"/>
       <c r="C170" s="174"/>
-      <c r="D170" s="229"/>
+      <c r="D170" s="228"/>
       <c r="G170" s="69"/>
       <c r="H170" s="69"/>
       <c r="I170" s="154"/>
@@ -24982,7 +24981,7 @@
     <row r="171" spans="2:14" s="149" customFormat="1">
       <c r="B171" s="174"/>
       <c r="C171" s="174"/>
-      <c r="D171" s="229"/>
+      <c r="D171" s="228"/>
       <c r="G171" s="69"/>
       <c r="H171" s="69"/>
       <c r="I171" s="154"/>
@@ -24995,7 +24994,7 @@
     <row r="172" spans="2:14" s="149" customFormat="1">
       <c r="B172" s="174"/>
       <c r="C172" s="174"/>
-      <c r="D172" s="229"/>
+      <c r="D172" s="228"/>
       <c r="G172" s="69"/>
       <c r="H172" s="69"/>
       <c r="I172" s="159"/>
@@ -25008,7 +25007,7 @@
     <row r="173" spans="2:14" s="149" customFormat="1">
       <c r="B173" s="174"/>
       <c r="C173" s="174"/>
-      <c r="D173" s="229"/>
+      <c r="D173" s="228"/>
       <c r="G173" s="69"/>
       <c r="H173" s="69"/>
       <c r="I173" s="154"/>
@@ -25021,7 +25020,7 @@
     <row r="174" spans="2:14" s="149" customFormat="1">
       <c r="B174" s="174"/>
       <c r="C174" s="174"/>
-      <c r="D174" s="229"/>
+      <c r="D174" s="228"/>
       <c r="F174" s="69"/>
       <c r="G174" s="69"/>
       <c r="H174" s="69"/>
@@ -25035,7 +25034,7 @@
     <row r="175" spans="2:14" s="149" customFormat="1">
       <c r="B175" s="174"/>
       <c r="C175" s="174"/>
-      <c r="D175" s="229"/>
+      <c r="D175" s="228"/>
       <c r="F175" s="69"/>
       <c r="G175" s="69"/>
       <c r="H175" s="69"/>
@@ -25049,7 +25048,7 @@
     <row r="176" spans="2:14" s="149" customFormat="1">
       <c r="B176" s="174"/>
       <c r="C176" s="174"/>
-      <c r="D176" s="229"/>
+      <c r="D176" s="228"/>
       <c r="F176" s="69"/>
       <c r="G176" s="69"/>
       <c r="H176" s="69"/>
@@ -25063,7 +25062,7 @@
     <row r="177" spans="2:13" s="149" customFormat="1">
       <c r="B177" s="174"/>
       <c r="C177" s="174"/>
-      <c r="D177" s="229"/>
+      <c r="D177" s="228"/>
       <c r="F177" s="69"/>
       <c r="G177" s="69"/>
       <c r="H177" s="69"/>
@@ -25076,7 +25075,7 @@
     <row r="178" spans="2:13" s="149" customFormat="1">
       <c r="B178" s="174"/>
       <c r="C178" s="174"/>
-      <c r="D178" s="229"/>
+      <c r="D178" s="228"/>
       <c r="F178" s="69"/>
       <c r="G178" s="69"/>
       <c r="H178" s="69"/>
@@ -25089,7 +25088,7 @@
     <row r="179" spans="2:13" s="149" customFormat="1">
       <c r="B179" s="174"/>
       <c r="C179" s="174"/>
-      <c r="D179" s="229"/>
+      <c r="D179" s="228"/>
       <c r="F179" s="69"/>
       <c r="G179" s="69"/>
       <c r="H179" s="69"/>
@@ -25102,7 +25101,7 @@
     <row r="180" spans="2:13" s="149" customFormat="1">
       <c r="B180" s="174"/>
       <c r="C180" s="174"/>
-      <c r="D180" s="229"/>
+      <c r="D180" s="228"/>
       <c r="F180" s="69"/>
       <c r="G180" s="69"/>
       <c r="H180" s="69"/>
@@ -25115,7 +25114,7 @@
     <row r="181" spans="2:13" s="149" customFormat="1">
       <c r="B181" s="174"/>
       <c r="C181" s="174"/>
-      <c r="D181" s="229"/>
+      <c r="D181" s="228"/>
       <c r="F181" s="69"/>
       <c r="G181" s="69"/>
       <c r="H181" s="69"/>
@@ -25128,7 +25127,7 @@
     <row r="182" spans="2:13" s="149" customFormat="1">
       <c r="B182" s="174"/>
       <c r="C182" s="174"/>
-      <c r="D182" s="229"/>
+      <c r="D182" s="228"/>
       <c r="F182" s="69"/>
       <c r="G182" s="69"/>
       <c r="H182" s="69"/>
@@ -25141,7 +25140,7 @@
     <row r="183" spans="2:13" s="149" customFormat="1">
       <c r="B183" s="174"/>
       <c r="C183" s="174"/>
-      <c r="D183" s="229"/>
+      <c r="D183" s="228"/>
       <c r="F183" s="69"/>
       <c r="G183" s="69"/>
       <c r="H183" s="69"/>
@@ -25154,7 +25153,7 @@
     <row r="184" spans="2:13" s="149" customFormat="1">
       <c r="B184" s="174"/>
       <c r="C184" s="174"/>
-      <c r="D184" s="229"/>
+      <c r="D184" s="228"/>
       <c r="F184" s="69"/>
       <c r="G184" s="69"/>
       <c r="H184" s="69"/>
@@ -25167,7 +25166,7 @@
     <row r="185" spans="2:13" s="149" customFormat="1">
       <c r="B185" s="174"/>
       <c r="C185" s="174"/>
-      <c r="D185" s="229"/>
+      <c r="D185" s="228"/>
       <c r="F185" s="69"/>
       <c r="G185" s="69"/>
       <c r="H185" s="69"/>
@@ -25180,7 +25179,7 @@
     <row r="186" spans="2:13" s="149" customFormat="1">
       <c r="B186" s="174"/>
       <c r="C186" s="174"/>
-      <c r="D186" s="229"/>
+      <c r="D186" s="228"/>
       <c r="F186" s="69"/>
       <c r="G186" s="69"/>
       <c r="H186" s="69"/>
@@ -25193,7 +25192,7 @@
     <row r="187" spans="2:13" s="149" customFormat="1">
       <c r="B187" s="174"/>
       <c r="C187" s="174"/>
-      <c r="D187" s="229"/>
+      <c r="D187" s="228"/>
       <c r="F187" s="69"/>
       <c r="G187" s="69"/>
       <c r="H187" s="69"/>
@@ -25206,7 +25205,7 @@
     <row r="188" spans="2:13" s="149" customFormat="1">
       <c r="B188" s="174"/>
       <c r="C188" s="174"/>
-      <c r="D188" s="229"/>
+      <c r="D188" s="228"/>
       <c r="F188" s="69"/>
       <c r="G188" s="69"/>
       <c r="H188" s="69"/>
@@ -25219,7 +25218,7 @@
     <row r="189" spans="2:13" s="149" customFormat="1">
       <c r="B189" s="174"/>
       <c r="C189" s="174"/>
-      <c r="D189" s="229"/>
+      <c r="D189" s="228"/>
       <c r="F189" s="69"/>
       <c r="G189" s="69"/>
       <c r="H189" s="69"/>
@@ -25232,7 +25231,7 @@
     <row r="190" spans="2:13" s="149" customFormat="1">
       <c r="B190" s="174"/>
       <c r="C190" s="174"/>
-      <c r="D190" s="229"/>
+      <c r="D190" s="228"/>
       <c r="F190" s="69"/>
       <c r="G190" s="69"/>
       <c r="H190" s="69"/>
@@ -25245,7 +25244,7 @@
     <row r="191" spans="2:13" s="149" customFormat="1">
       <c r="B191" s="174"/>
       <c r="C191" s="174"/>
-      <c r="D191" s="229"/>
+      <c r="D191" s="228"/>
       <c r="F191" s="69"/>
       <c r="G191" s="69"/>
       <c r="H191" s="69"/>
@@ -25258,7 +25257,7 @@
     <row r="192" spans="2:13" s="149" customFormat="1">
       <c r="B192" s="174"/>
       <c r="C192" s="174"/>
-      <c r="D192" s="229"/>
+      <c r="D192" s="228"/>
       <c r="F192" s="69"/>
       <c r="G192" s="69"/>
       <c r="H192" s="69"/>
@@ -25271,7 +25270,7 @@
     <row r="193" spans="2:13" s="149" customFormat="1">
       <c r="B193" s="174"/>
       <c r="C193" s="174"/>
-      <c r="D193" s="229"/>
+      <c r="D193" s="228"/>
       <c r="F193" s="69"/>
       <c r="G193" s="69"/>
       <c r="H193" s="69"/>
@@ -25284,7 +25283,7 @@
     <row r="194" spans="2:13" s="149" customFormat="1">
       <c r="B194" s="174"/>
       <c r="C194" s="174"/>
-      <c r="D194" s="229"/>
+      <c r="D194" s="228"/>
       <c r="F194" s="69"/>
       <c r="G194" s="69"/>
       <c r="H194" s="69"/>
@@ -25297,7 +25296,7 @@
     <row r="195" spans="2:13" s="149" customFormat="1">
       <c r="B195" s="174"/>
       <c r="C195" s="174"/>
-      <c r="D195" s="229"/>
+      <c r="D195" s="228"/>
       <c r="F195" s="69"/>
       <c r="G195" s="69"/>
       <c r="H195" s="69"/>
@@ -25310,7 +25309,7 @@
     <row r="196" spans="2:13" s="149" customFormat="1">
       <c r="B196" s="174"/>
       <c r="C196" s="174"/>
-      <c r="D196" s="229"/>
+      <c r="D196" s="228"/>
       <c r="F196" s="69"/>
       <c r="G196" s="69"/>
       <c r="H196" s="69"/>
@@ -25323,7 +25322,7 @@
     <row r="197" spans="2:13" s="149" customFormat="1">
       <c r="B197" s="174"/>
       <c r="C197" s="174"/>
-      <c r="D197" s="229"/>
+      <c r="D197" s="228"/>
       <c r="F197" s="69"/>
       <c r="G197" s="69"/>
       <c r="H197" s="69"/>
@@ -25336,7 +25335,7 @@
     <row r="198" spans="2:13" s="149" customFormat="1">
       <c r="B198" s="174"/>
       <c r="C198" s="174"/>
-      <c r="D198" s="229"/>
+      <c r="D198" s="228"/>
       <c r="F198" s="69"/>
       <c r="G198" s="69"/>
       <c r="H198" s="69"/>
@@ -25349,7 +25348,7 @@
     <row r="199" spans="2:13" s="149" customFormat="1">
       <c r="B199" s="174"/>
       <c r="C199" s="174"/>
-      <c r="D199" s="229"/>
+      <c r="D199" s="228"/>
       <c r="F199" s="69"/>
       <c r="G199" s="69"/>
       <c r="H199" s="69"/>
@@ -25362,7 +25361,7 @@
     <row r="200" spans="2:13" s="149" customFormat="1">
       <c r="B200" s="174"/>
       <c r="C200" s="174"/>
-      <c r="D200" s="229"/>
+      <c r="D200" s="228"/>
       <c r="F200" s="69"/>
       <c r="G200" s="69"/>
       <c r="H200" s="69"/>
@@ -25375,7 +25374,7 @@
     <row r="201" spans="2:13" s="149" customFormat="1">
       <c r="B201" s="174"/>
       <c r="C201" s="174"/>
-      <c r="D201" s="229"/>
+      <c r="D201" s="228"/>
       <c r="F201" s="69"/>
       <c r="G201" s="69"/>
       <c r="H201" s="69"/>
@@ -25388,7 +25387,7 @@
     <row r="202" spans="2:13" s="149" customFormat="1">
       <c r="B202" s="174"/>
       <c r="C202" s="174"/>
-      <c r="D202" s="229"/>
+      <c r="D202" s="228"/>
       <c r="F202" s="69"/>
       <c r="G202" s="69"/>
       <c r="H202" s="69"/>
@@ -25401,7 +25400,7 @@
     <row r="203" spans="2:13" s="149" customFormat="1">
       <c r="B203" s="174"/>
       <c r="C203" s="174"/>
-      <c r="D203" s="229"/>
+      <c r="D203" s="228"/>
       <c r="F203" s="69"/>
       <c r="G203" s="69"/>
       <c r="H203" s="69"/>
@@ -25414,7 +25413,7 @@
     <row r="204" spans="2:13" s="149" customFormat="1">
       <c r="B204" s="174"/>
       <c r="C204" s="174"/>
-      <c r="D204" s="229"/>
+      <c r="D204" s="228"/>
       <c r="F204" s="69"/>
       <c r="G204" s="69"/>
       <c r="H204" s="69"/>
@@ -25427,7 +25426,7 @@
     <row r="205" spans="2:13" s="149" customFormat="1">
       <c r="B205" s="174"/>
       <c r="C205" s="174"/>
-      <c r="D205" s="229"/>
+      <c r="D205" s="228"/>
       <c r="F205" s="69"/>
       <c r="G205" s="69"/>
       <c r="H205" s="69"/>
@@ -25440,7 +25439,7 @@
     <row r="206" spans="2:13" s="149" customFormat="1">
       <c r="B206" s="174"/>
       <c r="C206" s="174"/>
-      <c r="D206" s="229"/>
+      <c r="D206" s="228"/>
       <c r="F206" s="69"/>
       <c r="G206" s="69"/>
       <c r="H206" s="69"/>
@@ -25453,7 +25452,7 @@
     <row r="207" spans="2:13" s="149" customFormat="1">
       <c r="B207" s="174"/>
       <c r="C207" s="174"/>
-      <c r="D207" s="229"/>
+      <c r="D207" s="228"/>
       <c r="F207" s="69"/>
       <c r="G207" s="69"/>
       <c r="H207" s="69"/>
@@ -25466,7 +25465,7 @@
     <row r="208" spans="2:13" s="149" customFormat="1">
       <c r="B208" s="174"/>
       <c r="C208" s="174"/>
-      <c r="D208" s="229"/>
+      <c r="D208" s="228"/>
       <c r="F208" s="69"/>
       <c r="G208" s="69"/>
       <c r="H208" s="69"/>
@@ -25479,7 +25478,7 @@
     <row r="209" spans="2:13" s="149" customFormat="1">
       <c r="B209" s="174"/>
       <c r="C209" s="174"/>
-      <c r="D209" s="229"/>
+      <c r="D209" s="228"/>
       <c r="F209" s="69"/>
       <c r="G209" s="69"/>
       <c r="H209" s="69"/>
@@ -25492,7 +25491,7 @@
     <row r="210" spans="2:13" s="149" customFormat="1">
       <c r="B210" s="174"/>
       <c r="C210" s="174"/>
-      <c r="D210" s="229"/>
+      <c r="D210" s="228"/>
       <c r="F210" s="69"/>
       <c r="G210" s="69"/>
       <c r="H210" s="69"/>
@@ -25505,7 +25504,7 @@
     <row r="211" spans="2:13" s="149" customFormat="1">
       <c r="B211" s="174"/>
       <c r="C211" s="174"/>
-      <c r="D211" s="229"/>
+      <c r="D211" s="228"/>
       <c r="F211" s="69"/>
       <c r="G211" s="69"/>
       <c r="H211" s="69"/>
@@ -25518,7 +25517,7 @@
     <row r="212" spans="2:13" s="149" customFormat="1">
       <c r="B212" s="174"/>
       <c r="C212" s="174"/>
-      <c r="D212" s="229"/>
+      <c r="D212" s="228"/>
       <c r="F212" s="69"/>
       <c r="G212" s="69"/>
       <c r="H212" s="69"/>
@@ -25531,7 +25530,7 @@
     <row r="213" spans="2:13" s="149" customFormat="1">
       <c r="B213" s="174"/>
       <c r="C213" s="174"/>
-      <c r="D213" s="229"/>
+      <c r="D213" s="228"/>
       <c r="F213" s="69"/>
       <c r="G213" s="69"/>
       <c r="H213" s="69"/>
@@ -25544,7 +25543,7 @@
     <row r="214" spans="2:13" s="149" customFormat="1">
       <c r="B214" s="174"/>
       <c r="C214" s="174"/>
-      <c r="D214" s="229"/>
+      <c r="D214" s="228"/>
       <c r="F214" s="69"/>
       <c r="G214" s="69"/>
       <c r="H214" s="69"/>
@@ -25557,7 +25556,7 @@
     <row r="215" spans="2:13" s="149" customFormat="1">
       <c r="B215" s="174"/>
       <c r="C215" s="174"/>
-      <c r="D215" s="229"/>
+      <c r="D215" s="228"/>
       <c r="F215" s="69"/>
       <c r="G215" s="69"/>
       <c r="H215" s="69"/>
@@ -25570,7 +25569,7 @@
     <row r="216" spans="2:13" s="149" customFormat="1">
       <c r="B216" s="174"/>
       <c r="C216" s="174"/>
-      <c r="D216" s="229"/>
+      <c r="D216" s="228"/>
       <c r="F216" s="69"/>
       <c r="G216" s="69"/>
       <c r="H216" s="69"/>
@@ -25583,7 +25582,7 @@
     <row r="217" spans="2:13" s="149" customFormat="1">
       <c r="B217" s="174"/>
       <c r="C217" s="174"/>
-      <c r="D217" s="229"/>
+      <c r="D217" s="228"/>
       <c r="F217" s="69"/>
       <c r="G217" s="69"/>
       <c r="H217" s="69"/>
@@ -25596,7 +25595,7 @@
     <row r="218" spans="2:13" s="149" customFormat="1">
       <c r="B218" s="174"/>
       <c r="C218" s="174"/>
-      <c r="D218" s="229"/>
+      <c r="D218" s="228"/>
       <c r="F218" s="69"/>
       <c r="G218" s="69"/>
       <c r="H218" s="69"/>
@@ -25609,7 +25608,7 @@
     <row r="219" spans="2:13" s="149" customFormat="1">
       <c r="B219" s="174"/>
       <c r="C219" s="174"/>
-      <c r="D219" s="229"/>
+      <c r="D219" s="228"/>
       <c r="F219" s="69"/>
       <c r="G219" s="69"/>
       <c r="H219" s="69"/>
@@ -25622,7 +25621,7 @@
     <row r="220" spans="2:13" s="149" customFormat="1">
       <c r="B220" s="174"/>
       <c r="C220" s="174"/>
-      <c r="D220" s="229"/>
+      <c r="D220" s="228"/>
       <c r="F220" s="69"/>
       <c r="G220" s="69"/>
       <c r="H220" s="69"/>
@@ -25635,7 +25634,7 @@
     <row r="221" spans="2:13" s="149" customFormat="1">
       <c r="B221" s="174"/>
       <c r="C221" s="174"/>
-      <c r="D221" s="229"/>
+      <c r="D221" s="228"/>
       <c r="F221" s="69"/>
       <c r="G221" s="69"/>
       <c r="H221" s="69"/>
@@ -25648,7 +25647,7 @@
     <row r="222" spans="2:13" s="149" customFormat="1">
       <c r="B222" s="174"/>
       <c r="C222" s="174"/>
-      <c r="D222" s="229"/>
+      <c r="D222" s="228"/>
       <c r="F222" s="69"/>
       <c r="G222" s="69"/>
       <c r="H222" s="69"/>
@@ -25661,7 +25660,7 @@
     <row r="223" spans="2:13" s="149" customFormat="1">
       <c r="B223" s="174"/>
       <c r="C223" s="174"/>
-      <c r="D223" s="229"/>
+      <c r="D223" s="228"/>
       <c r="F223" s="69"/>
       <c r="G223" s="69"/>
       <c r="H223" s="69"/>
@@ -25674,7 +25673,7 @@
     <row r="224" spans="2:13" s="149" customFormat="1">
       <c r="B224" s="174"/>
       <c r="C224" s="174"/>
-      <c r="D224" s="229"/>
+      <c r="D224" s="228"/>
       <c r="F224" s="69"/>
       <c r="G224" s="69"/>
       <c r="H224" s="69"/>
@@ -33723,8 +33722,8 @@
       <c r="L1357" s="55"/>
     </row>
   </sheetData>
-  <sortState ref="A77:E88">
-    <sortCondition ref="A77"/>
+  <sortState ref="B46:E54">
+    <sortCondition ref="B46"/>
   </sortState>
   <mergeCells count="7">
     <mergeCell ref="A121:C121"/>
@@ -33750,7 +33749,7 @@
   <dimension ref="A1:AC219"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75"/>
@@ -33769,35 +33768,35 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:29" ht="26.25">
-      <c r="A1" s="353" t="s">
+      <c r="A1" s="351" t="s">
         <v>58</v>
       </c>
-      <c r="B1" s="354"/>
-      <c r="C1" s="354"/>
-      <c r="D1" s="354"/>
-      <c r="E1" s="355"/>
+      <c r="B1" s="352"/>
+      <c r="C1" s="352"/>
+      <c r="D1" s="352"/>
+      <c r="E1" s="353"/>
       <c r="F1" s="5"/>
       <c r="G1" s="5"/>
     </row>
     <row r="2" spans="1:29" ht="21.75">
-      <c r="A2" s="362" t="s">
+      <c r="A2" s="360" t="s">
         <v>74</v>
       </c>
-      <c r="B2" s="363"/>
-      <c r="C2" s="363"/>
-      <c r="D2" s="363"/>
-      <c r="E2" s="364"/>
+      <c r="B2" s="361"/>
+      <c r="C2" s="361"/>
+      <c r="D2" s="361"/>
+      <c r="E2" s="362"/>
       <c r="F2" s="5"/>
       <c r="G2" s="5"/>
     </row>
     <row r="3" spans="1:29" ht="23.25">
-      <c r="A3" s="356" t="s">
-        <v>226</v>
-      </c>
-      <c r="B3" s="357"/>
-      <c r="C3" s="357"/>
-      <c r="D3" s="357"/>
-      <c r="E3" s="358"/>
+      <c r="A3" s="354" t="s">
+        <v>223</v>
+      </c>
+      <c r="B3" s="355"/>
+      <c r="C3" s="355"/>
+      <c r="D3" s="355"/>
+      <c r="E3" s="356"/>
       <c r="F3" s="5"/>
       <c r="G3" s="11"/>
       <c r="H3" s="8"/>
@@ -33824,15 +33823,15 @@
       <c r="AC3" s="8"/>
     </row>
     <row r="4" spans="1:29" ht="23.25">
-      <c r="A4" s="365" t="s">
+      <c r="A4" s="363" t="s">
         <v>143</v>
       </c>
-      <c r="B4" s="366"/>
-      <c r="C4" s="301"/>
-      <c r="D4" s="367" t="s">
+      <c r="B4" s="364"/>
+      <c r="C4" s="300"/>
+      <c r="D4" s="365" t="s">
         <v>142</v>
       </c>
-      <c r="E4" s="368"/>
+      <c r="E4" s="366"/>
       <c r="F4" s="5"/>
       <c r="G4" s="50"/>
       <c r="H4" s="6"/>
@@ -33862,19 +33861,19 @@
       <c r="A5" s="42" t="s">
         <v>140</v>
       </c>
-      <c r="B5" s="269">
+      <c r="B5" s="268">
         <v>8000000</v>
       </c>
       <c r="C5" s="43"/>
       <c r="D5" s="43" t="s">
         <v>11</v>
       </c>
-      <c r="E5" s="265">
-        <v>5233821.1200619098</v>
+      <c r="E5" s="264">
+        <v>4855704.3241666704</v>
       </c>
       <c r="F5" s="38"/>
-      <c r="G5" s="288"/>
-      <c r="H5" s="290"/>
+      <c r="G5" s="287"/>
+      <c r="H5" s="289"/>
       <c r="I5" s="120"/>
       <c r="J5" s="8"/>
       <c r="K5" s="8"/>
@@ -33901,22 +33900,22 @@
       <c r="A6" s="42" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="269">
-        <v>96964.599195238101</v>
+      <c r="B6" s="268">
+        <v>107287.8033</v>
       </c>
       <c r="C6" s="45"/>
       <c r="D6" s="43" t="s">
         <v>18</v>
       </c>
-      <c r="E6" s="265">
-        <v>6038</v>
+      <c r="E6" s="264">
+        <v>436038</v>
       </c>
       <c r="F6" s="8"/>
-      <c r="G6" s="291"/>
-      <c r="H6" s="291" t="s">
+      <c r="G6" s="290"/>
+      <c r="H6" s="290" t="s">
         <v>55</v>
       </c>
-      <c r="I6" s="291"/>
+      <c r="I6" s="290"/>
       <c r="J6" s="8"/>
       <c r="K6" s="8"/>
       <c r="L6" s="8"/>
@@ -33939,19 +33938,19 @@
       <c r="AC6" s="8"/>
     </row>
     <row r="7" spans="1:29" ht="21.75">
-      <c r="A7" s="272"/>
-      <c r="B7" s="269"/>
+      <c r="A7" s="271"/>
+      <c r="B7" s="268"/>
       <c r="C7" s="45"/>
-      <c r="D7" s="308" t="s">
+      <c r="D7" s="307" t="s">
         <v>71</v>
       </c>
-      <c r="E7" s="265">
-        <v>380818.47913332842</v>
+      <c r="E7" s="264">
+        <v>414818.47913332935</v>
       </c>
       <c r="F7" s="8"/>
-      <c r="G7" s="291"/>
-      <c r="H7" s="291"/>
-      <c r="I7" s="291"/>
+      <c r="G7" s="290"/>
+      <c r="H7" s="290"/>
+      <c r="I7" s="290"/>
       <c r="J7" s="8"/>
       <c r="K7" s="8"/>
       <c r="L7" s="8"/>
@@ -33974,15 +33973,15 @@
       <c r="AC7" s="8"/>
     </row>
     <row r="8" spans="1:29" ht="21.75">
-      <c r="A8" s="272"/>
-      <c r="B8" s="269"/>
+      <c r="A8" s="271"/>
+      <c r="B8" s="268"/>
       <c r="C8" s="43"/>
-      <c r="D8" s="258"/>
-      <c r="E8" s="266"/>
+      <c r="D8" s="257"/>
+      <c r="E8" s="265"/>
       <c r="F8" s="8"/>
-      <c r="G8" s="253"/>
-      <c r="H8" s="290"/>
-      <c r="I8" s="289"/>
+      <c r="G8" s="252"/>
+      <c r="H8" s="289"/>
+      <c r="I8" s="288"/>
       <c r="J8" s="8"/>
       <c r="K8" s="8"/>
       <c r="L8" s="8"/>
@@ -34006,14 +34005,14 @@
     </row>
     <row r="9" spans="1:29" ht="21.75">
       <c r="A9" s="42"/>
-      <c r="B9" s="269"/>
+      <c r="B9" s="268"/>
       <c r="C9" s="44"/>
-      <c r="D9" s="298"/>
-      <c r="E9" s="267"/>
+      <c r="D9" s="297"/>
+      <c r="E9" s="266"/>
       <c r="F9" s="8"/>
       <c r="G9" s="120"/>
       <c r="H9" s="12"/>
-      <c r="I9" s="289"/>
+      <c r="I9" s="288"/>
       <c r="J9" s="8"/>
       <c r="K9" s="8"/>
       <c r="L9" s="8"/>
@@ -34039,20 +34038,20 @@
       <c r="A10" s="42" t="s">
         <v>14</v>
       </c>
-      <c r="B10" s="269">
-        <v>23531</v>
+      <c r="B10" s="268">
+        <v>25151</v>
       </c>
       <c r="C10" s="44"/>
-      <c r="D10" s="310" t="s">
+      <c r="D10" s="309" t="s">
         <v>12</v>
       </c>
-      <c r="E10" s="311">
-        <v>1754095</v>
+      <c r="E10" s="310">
+        <v>1775165</v>
       </c>
       <c r="F10" s="8"/>
-      <c r="G10" s="253"/>
-      <c r="H10" s="292"/>
-      <c r="I10" s="293"/>
+      <c r="G10" s="252"/>
+      <c r="H10" s="291"/>
+      <c r="I10" s="292"/>
       <c r="J10" s="8"/>
       <c r="K10" s="8"/>
       <c r="L10" s="8"/>
@@ -34078,20 +34077,20 @@
       <c r="A11" s="42" t="s">
         <v>136</v>
       </c>
-      <c r="B11" s="269">
+      <c r="B11" s="268">
         <v>0</v>
       </c>
       <c r="C11" s="44"/>
       <c r="D11" s="44" t="s">
         <v>72</v>
       </c>
-      <c r="E11" s="265">
-        <v>97910</v>
+      <c r="E11" s="264">
+        <v>99660</v>
       </c>
       <c r="F11" s="8"/>
-      <c r="G11" s="253"/>
-      <c r="H11" s="252"/>
-      <c r="I11" s="252"/>
+      <c r="G11" s="252"/>
+      <c r="H11" s="251"/>
+      <c r="I11" s="251"/>
       <c r="J11" s="8"/>
       <c r="K11" s="8"/>
       <c r="L11" s="8"/>
@@ -34114,28 +34113,28 @@
       <c r="AC11" s="8"/>
     </row>
     <row r="12" spans="1:29" ht="21.75">
-      <c r="A12" s="318" t="s">
+      <c r="A12" s="315" t="s">
         <v>8</v>
       </c>
-      <c r="B12" s="270">
+      <c r="B12" s="269">
         <f>B6+B7+B8-B10-B11</f>
-        <v>73433.599195238101</v>
+        <v>82136.8033</v>
       </c>
       <c r="C12" s="44"/>
       <c r="D12" s="43" t="s">
         <v>192</v>
       </c>
-      <c r="E12" s="268">
-        <v>751</v>
+      <c r="E12" s="267">
+        <v>500751</v>
       </c>
       <c r="F12" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="G12" s="254"/>
+      <c r="G12" s="253"/>
       <c r="H12" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="I12" s="255"/>
+      <c r="I12" s="254"/>
       <c r="J12" s="8"/>
       <c r="K12" s="8"/>
       <c r="L12" s="8"/>
@@ -34158,15 +34157,15 @@
       <c r="AC12" s="8"/>
     </row>
     <row r="13" spans="1:29" ht="21.75">
-      <c r="A13" s="272"/>
-      <c r="B13" s="269"/>
+      <c r="A13" s="271"/>
+      <c r="B13" s="268"/>
       <c r="C13" s="44"/>
       <c r="D13" s="134"/>
-      <c r="E13" s="267"/>
+      <c r="E13" s="266"/>
       <c r="F13" s="8"/>
-      <c r="G13" s="256"/>
-      <c r="H13" s="257"/>
-      <c r="I13" s="257"/>
+      <c r="G13" s="255"/>
+      <c r="H13" s="256"/>
+      <c r="I13" s="256"/>
       <c r="J13" s="8" t="s">
         <v>13</v>
       </c>
@@ -34191,15 +34190,11 @@
       <c r="AC13" s="8"/>
     </row>
     <row r="14" spans="1:29" ht="21.75">
-      <c r="A14" s="318" t="s">
-        <v>224</v>
-      </c>
-      <c r="B14" s="319">
-        <v>600000</v>
-      </c>
+      <c r="A14" s="315"/>
+      <c r="B14" s="316"/>
       <c r="C14" s="44"/>
       <c r="D14" s="134"/>
-      <c r="E14" s="267"/>
+      <c r="E14" s="266"/>
       <c r="F14" s="5"/>
       <c r="G14" s="13"/>
       <c r="I14" s="8"/>
@@ -34230,17 +34225,17 @@
       <c r="A15" s="42" t="s">
         <v>5</v>
       </c>
-      <c r="B15" s="271">
+      <c r="B15" s="270">
         <f>B5+B6+B7+B8-B10-B11-B14</f>
-        <v>7473433.5991952382</v>
+        <v>8082136.8032999998</v>
       </c>
       <c r="C15" s="44"/>
       <c r="D15" s="44" t="s">
         <v>7</v>
       </c>
-      <c r="E15" s="268">
+      <c r="E15" s="267">
         <f>E5+E6+E7+E10+E11+E12</f>
-        <v>7473433.5991952382</v>
+        <v>8082136.8032999998</v>
       </c>
       <c r="F15" s="5"/>
       <c r="G15" s="121">
@@ -34308,13 +34303,13 @@
       <c r="AC16" s="8"/>
     </row>
     <row r="17" spans="1:29" ht="22.5">
-      <c r="A17" s="359" t="s">
+      <c r="A17" s="357" t="s">
         <v>15</v>
       </c>
-      <c r="B17" s="360"/>
-      <c r="C17" s="360"/>
-      <c r="D17" s="360"/>
-      <c r="E17" s="361"/>
+      <c r="B17" s="358"/>
+      <c r="C17" s="358"/>
+      <c r="D17" s="358"/>
+      <c r="E17" s="359"/>
       <c r="F17" s="5"/>
       <c r="G17" s="9"/>
       <c r="H17" s="17"/>
@@ -34350,11 +34345,11 @@
         <v>58750</v>
       </c>
       <c r="C18" s="43"/>
-      <c r="D18" s="312" t="s">
+      <c r="D18" s="311" t="s">
         <v>17</v>
       </c>
-      <c r="E18" s="313">
-        <v>594340</v>
+      <c r="E18" s="312">
+        <v>564340</v>
       </c>
       <c r="F18" s="5"/>
       <c r="G18" s="18"/>
@@ -34389,10 +34384,10 @@
         <v>20000</v>
       </c>
       <c r="C19" s="43"/>
-      <c r="D19" s="312" t="s">
-        <v>196</v>
-      </c>
-      <c r="E19" s="313">
+      <c r="D19" s="311" t="s">
+        <v>195</v>
+      </c>
+      <c r="E19" s="312">
         <v>200000</v>
       </c>
       <c r="G19" s="19"/>
@@ -34427,10 +34422,10 @@
         <v>19600</v>
       </c>
       <c r="C20" s="43"/>
-      <c r="D20" s="314" t="s">
-        <v>209</v>
-      </c>
-      <c r="E20" s="315">
+      <c r="D20" s="313" t="s">
+        <v>208</v>
+      </c>
+      <c r="E20" s="314">
         <v>150000</v>
       </c>
       <c r="H20" s="8"/>
@@ -34457,17 +34452,17 @@
       <c r="AC20" s="8"/>
     </row>
     <row r="21" spans="1:29" ht="21.75">
-      <c r="A21" s="273" t="s">
+      <c r="A21" s="272" t="s">
         <v>141</v>
       </c>
-      <c r="B21" s="275">
+      <c r="B21" s="274">
         <v>19460</v>
       </c>
       <c r="C21" s="43"/>
-      <c r="D21" s="312" t="s">
+      <c r="D21" s="311" t="s">
         <v>167</v>
       </c>
-      <c r="E21" s="313">
+      <c r="E21" s="312">
         <v>152000</v>
       </c>
       <c r="H21" s="37"/>
@@ -34501,10 +34496,10 @@
         <v>22030</v>
       </c>
       <c r="C22" s="43"/>
-      <c r="D22" s="312" t="s">
-        <v>210</v>
-      </c>
-      <c r="E22" s="313">
+      <c r="D22" s="311" t="s">
+        <v>209</v>
+      </c>
+      <c r="E22" s="312">
         <v>68040</v>
       </c>
       <c r="G22" s="37"/>
@@ -34532,17 +34527,17 @@
       <c r="AC22" s="8"/>
     </row>
     <row r="23" spans="1:29" ht="21.75">
-      <c r="A23" s="274" t="s">
-        <v>227</v>
+      <c r="A23" s="273" t="s">
+        <v>221</v>
       </c>
       <c r="B23" s="131">
         <v>30000</v>
       </c>
       <c r="C23" s="132"/>
-      <c r="D23" s="312" t="s">
-        <v>211</v>
-      </c>
-      <c r="E23" s="313">
+      <c r="D23" s="311" t="s">
+        <v>210</v>
+      </c>
+      <c r="E23" s="312">
         <v>31500</v>
       </c>
       <c r="G23" s="37"/>
@@ -34570,17 +34565,17 @@
       <c r="AC23" s="8"/>
     </row>
     <row r="24" spans="1:29" ht="21.75">
-      <c r="A24" s="274" t="s">
-        <v>214</v>
+      <c r="A24" s="273" t="s">
+        <v>213</v>
       </c>
       <c r="B24" s="131">
         <v>28000</v>
       </c>
       <c r="C24" s="132"/>
-      <c r="D24" s="312" t="s">
-        <v>212</v>
-      </c>
-      <c r="E24" s="313">
+      <c r="D24" s="311" t="s">
+        <v>211</v>
+      </c>
+      <c r="E24" s="312">
         <v>21000</v>
       </c>
       <c r="G24" s="18"/>
@@ -34608,18 +34603,18 @@
       <c r="AC24" s="8"/>
     </row>
     <row r="25" spans="1:29" ht="21.75">
-      <c r="A25" s="274" t="s">
-        <v>215</v>
+      <c r="A25" s="273" t="s">
+        <v>219</v>
       </c>
       <c r="B25" s="131">
         <v>20000</v>
       </c>
       <c r="C25" s="132"/>
-      <c r="D25" s="316" t="s">
-        <v>222</v>
-      </c>
-      <c r="E25" s="317">
-        <v>20000</v>
+      <c r="D25" s="311" t="s">
+        <v>226</v>
+      </c>
+      <c r="E25" s="312">
+        <v>74020</v>
       </c>
       <c r="G25" s="37"/>
       <c r="H25" s="8"/>
@@ -34646,17 +34641,17 @@
       <c r="AC25" s="8"/>
     </row>
     <row r="26" spans="1:29" ht="22.5" thickBot="1">
-      <c r="A26" s="302" t="s">
-        <v>213</v>
-      </c>
-      <c r="B26" s="303">
+      <c r="A26" s="301" t="s">
+        <v>212</v>
+      </c>
+      <c r="B26" s="302">
         <v>40000</v>
       </c>
       <c r="C26" s="133"/>
-      <c r="D26" s="299" t="s">
+      <c r="D26" s="298" t="s">
         <v>19</v>
       </c>
-      <c r="E26" s="300">
+      <c r="E26" s="299">
         <v>129725</v>
       </c>
       <c r="G26" s="18"/>
@@ -34688,7 +34683,7 @@
       <c r="B27" s="34"/>
       <c r="C27" s="5"/>
       <c r="D27" s="35"/>
-      <c r="G27" s="294"/>
+      <c r="G27" s="293"/>
       <c r="H27" s="8"/>
       <c r="I27" s="8"/>
       <c r="J27" s="8"/>
